--- a/Excellent.xlsx
+++ b/Excellent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Project - Learning\Project - Financials\Project - Excellent\Excellent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5470F2-CABA-4BBB-88B4-6E730E27E6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950F6A50-64B7-4482-80E9-D398526914BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t>Name</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>NET INVESTMENT</t>
+  </si>
+  <si>
+    <t>Retirement Corpus</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -635,12 +638,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -828,23 +846,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -991,7 +1021,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -1302,8 +1332,8 @@
   </sheetPr>
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="91" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1343,7 @@
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
@@ -1777,23 +1807,23 @@
       </c>
       <c r="F19" s="4">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C19)</f>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="G19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">_xlfn.TEXTJOIN(", ", TRUE, IF('Input-Events'!E$4:E$106=$C19, 'Input-Events'!D$4:D$106, ""))</f>
-        <v/>
+        <v>PPF Maturity, Insurance Maturity</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>4280096</v>
+        <v>4580096</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>171204</v>
+        <v>183204</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>4451300</v>
+        <v>4763300</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1807,7 +1837,7 @@
       </c>
       <c r="D20" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4451300</v>
+        <v>4763300</v>
       </c>
       <c r="E20" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -1823,15 +1853,15 @@
       </c>
       <c r="H20" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5067022</v>
+        <v>5379022</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>202681</v>
+        <v>215161</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>5269703</v>
+        <v>5594183</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1845,7 +1875,7 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>5269703</v>
+        <v>5594183</v>
       </c>
       <c r="E21" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -1861,15 +1891,15 @@
       </c>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5916211</v>
+        <v>6240691</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>236648</v>
+        <v>249628</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>6152859</v>
+        <v>6490319</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1883,7 +1913,7 @@
       </c>
       <c r="D22" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>6152859</v>
+        <v>6490319</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -1899,15 +1929,15 @@
       </c>
       <c r="H22" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>6831692</v>
+        <v>7169152</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>273268</v>
+        <v>286766</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>7104960</v>
+        <v>7455918</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1921,7 +1951,7 @@
       </c>
       <c r="D23" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>7104960</v>
+        <v>7455918</v>
       </c>
       <c r="E23" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -1937,15 +1967,15 @@
       </c>
       <c r="H23" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>7817735</v>
+        <v>8168693</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>312709</v>
+        <v>326748</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>8130444</v>
+        <v>8495441</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -1959,7 +1989,7 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>8130444</v>
+        <v>8495441</v>
       </c>
       <c r="E24" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -1975,15 +2005,15 @@
       </c>
       <c r="H24" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>3878858</v>
+        <v>4243855</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>155154</v>
+        <v>169754</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>4034012</v>
+        <v>4413609</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -1997,7 +2027,7 @@
       </c>
       <c r="D25" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4034012</v>
+        <v>4413609</v>
       </c>
       <c r="E25" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2013,15 +2043,15 @@
       </c>
       <c r="H25" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>4819847</v>
+        <v>5199444</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>192794</v>
+        <v>207978</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>5012641</v>
+        <v>5407422</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -2035,7 +2065,7 @@
       </c>
       <c r="D26" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>5012641</v>
+        <v>5407422</v>
       </c>
       <c r="E26" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2051,15 +2081,15 @@
       </c>
       <c r="H26" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5837768</v>
+        <v>6232549</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>233511</v>
+        <v>249302</v>
       </c>
       <c r="J26" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>6071279</v>
+        <v>6481851</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -2073,7 +2103,7 @@
       </c>
       <c r="D27" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>6071279</v>
+        <v>6481851</v>
       </c>
       <c r="E27" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2089,15 +2119,15 @@
       </c>
       <c r="H27" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>6937662</v>
+        <v>7348234</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>277506</v>
+        <v>293929</v>
       </c>
       <c r="J27" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>7215168</v>
+        <v>7642163</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -2111,7 +2141,7 @@
       </c>
       <c r="D28" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>7215168</v>
+        <v>7642163</v>
       </c>
       <c r="E28" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2127,15 +2157,15 @@
       </c>
       <c r="H28" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>8124870</v>
+        <v>8551865</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>324995</v>
+        <v>342075</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>8449865</v>
+        <v>8893940</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -2149,7 +2179,7 @@
       </c>
       <c r="D29" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>8449865</v>
+        <v>8893940</v>
       </c>
       <c r="E29" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2165,15 +2195,15 @@
       </c>
       <c r="H29" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>9405052</v>
+        <v>9849127</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>376202</v>
+        <v>393965</v>
       </c>
       <c r="J29" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9781254</v>
+        <v>10243092</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -2187,7 +2217,7 @@
       </c>
       <c r="D30" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>9781254</v>
+        <v>10243092</v>
       </c>
       <c r="E30" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2203,15 +2233,15 @@
       </c>
       <c r="H30" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>10784200</v>
+        <v>11246038</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>431368</v>
+        <v>449842</v>
       </c>
       <c r="J30" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>11215568</v>
+        <v>11695880</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -2225,7 +2255,7 @@
       </c>
       <c r="D31" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>11215568</v>
+        <v>11695880</v>
       </c>
       <c r="E31" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2241,15 +2271,15 @@
       </c>
       <c r="H31" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>12268661</v>
+        <v>12748973</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>490746</v>
+        <v>509959</v>
       </c>
       <c r="J31" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>12759407</v>
+        <v>13258932</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -2263,7 +2293,7 @@
       </c>
       <c r="D32" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>12759407</v>
+        <v>13258932</v>
       </c>
       <c r="E32" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2279,15 +2309,15 @@
       </c>
       <c r="H32" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>13865155</v>
+        <v>14364680</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>554606</v>
+        <v>574587</v>
       </c>
       <c r="J32" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>14419761</v>
+        <v>14939267</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -2301,7 +2331,7 @@
       </c>
       <c r="D33" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>14419761</v>
+        <v>14939267</v>
       </c>
       <c r="E33" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2317,15 +2347,15 @@
       </c>
       <c r="H33" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>15580796</v>
+        <v>16100302</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>623232</v>
+        <v>644012</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>16204028</v>
+        <v>16744314</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -2339,7 +2369,7 @@
       </c>
       <c r="D34" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>16204028</v>
+        <v>16744314</v>
       </c>
       <c r="E34" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2355,15 +2385,15 @@
       </c>
       <c r="H34" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>17423115</v>
+        <v>17963401</v>
       </c>
       <c r="I34" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>696925</v>
+        <v>718536</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>18120040</v>
+        <v>18681937</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -2377,7 +2407,7 @@
       </c>
       <c r="D35" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>18120040</v>
+        <v>18681937</v>
       </c>
       <c r="E35" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2393,15 +2423,15 @@
       </c>
       <c r="H35" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>19400081</v>
+        <v>19961978</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>776003</v>
+        <v>798479</v>
       </c>
       <c r="J35" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>20176084</v>
+        <v>20760457</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
@@ -2415,7 +2445,7 @@
       </c>
       <c r="D36" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>20176084</v>
+        <v>20760457</v>
       </c>
       <c r="E36" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2431,15 +2461,15 @@
       </c>
       <c r="H36" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>21520127</v>
+        <v>22104500</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>860805</v>
+        <v>884180</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>22380932</v>
+        <v>22988680</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -2453,7 +2483,7 @@
       </c>
       <c r="D37" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>22380932</v>
+        <v>22988680</v>
       </c>
       <c r="E37" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2469,15 +2499,15 @@
       </c>
       <c r="H37" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>23792177</v>
+        <v>24399925</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>951687</v>
+        <v>975997</v>
       </c>
       <c r="J37" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>24743864</v>
+        <v>25375922</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
@@ -2491,7 +2521,7 @@
       </c>
       <c r="D38" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>24743864</v>
+        <v>25375922</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2507,15 +2537,15 @@
       </c>
       <c r="H38" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>26225671</v>
+        <v>26857729</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1049027</v>
+        <v>1074309</v>
       </c>
       <c r="J38" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>27274698</v>
+        <v>27932038</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
@@ -2529,7 +2559,7 @@
       </c>
       <c r="D39" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>27274698</v>
+        <v>27932038</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2545,15 +2575,15 @@
       </c>
       <c r="H39" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>28830595</v>
+        <v>29487935</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1153224</v>
+        <v>1179517</v>
       </c>
       <c r="J39" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>29983819</v>
+        <v>30667452</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
@@ -2567,7 +2597,7 @@
       </c>
       <c r="D40" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>29983819</v>
+        <v>30667452</v>
       </c>
       <c r="E40" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2583,15 +2613,15 @@
       </c>
       <c r="H40" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>31617511</v>
+        <v>32301144</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1264700</v>
+        <v>1292046</v>
       </c>
       <c r="J40" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>32882211</v>
+        <v>33593190</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -2605,7 +2635,7 @@
       </c>
       <c r="D41" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>32882211</v>
+        <v>33593190</v>
       </c>
       <c r="E41" s="14">
         <f t="shared" ca="1" si="5"/>
@@ -2621,15 +2651,15 @@
       </c>
       <c r="H41" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>34597588</v>
+        <v>35308567</v>
       </c>
       <c r="I41" s="5">
         <f t="shared" ref="I41:I72" ca="1" si="7">ROUND(IF($C41&gt;=userRetirementAge, IF($H41&gt;0, $H41*annualEffectivePostRetirementROI, 0), IF($H41&gt;0, $H41*annualEffectiveROI, 0)), 0)</f>
-        <v>1383904</v>
+        <v>1412343</v>
       </c>
       <c r="J41" s="6">
         <f t="shared" ref="J41:J72" ca="1" si="8">ROUND(H41+I41, 0)</f>
-        <v>35981492</v>
+        <v>36720910</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
@@ -2643,7 +2673,7 @@
       </c>
       <c r="D42" s="5">
         <f t="shared" ref="D42:D73" ca="1" si="11">ROUND(J41, 0)</f>
-        <v>35981492</v>
+        <v>36720910</v>
       </c>
       <c r="E42" s="14">
         <f t="shared" ref="E42:E73" ca="1" si="12">ROUND(IF($C42&gt;userRetirementAge, IF($D42&gt;0,-FV(annualChangeInSWP, $C42-userRetirementAge-1, 0, -annualAmountSWP, 1), 0), E41+E41*(annualIncreaseInSavings)), 0)</f>
@@ -2659,15 +2689,15 @@
       </c>
       <c r="H42" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>37782638</v>
+        <v>38522056</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1511306</v>
+        <v>1540882</v>
       </c>
       <c r="J42" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>39293944</v>
+        <v>40062938</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -2681,7 +2711,7 @@
       </c>
       <c r="D43" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>39293944</v>
+        <v>40062938</v>
       </c>
       <c r="E43" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -2697,15 +2727,15 @@
       </c>
       <c r="H43" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>41185147</v>
+        <v>41954141</v>
       </c>
       <c r="I43" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>1647406</v>
+        <v>1678166</v>
       </c>
       <c r="J43" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>42832553</v>
+        <v>43632307</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
@@ -2719,7 +2749,7 @@
       </c>
       <c r="D44" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>42832553</v>
+        <v>43632307</v>
       </c>
       <c r="E44" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -2727,23 +2757,23 @@
       </c>
       <c r="F44" s="4">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C44)</f>
-        <v>-700000</v>
+        <v>500000</v>
       </c>
       <c r="G44" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">_xlfn.TEXTJOIN(", ", TRUE, IF('Input-Events'!E$4:E$106=$C44, 'Input-Events'!D$4:D$106, ""))</f>
-        <v>International Trip, Retirement</v>
+        <v>International Trip, Retirement Corpus, Retirement</v>
       </c>
       <c r="H44" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>44118316</v>
+        <v>46118070</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>441183</v>
+        <v>922361</v>
       </c>
       <c r="J44" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>44559499</v>
+        <v>47040431</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -2757,7 +2787,7 @@
       </c>
       <c r="D45" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>44559499</v>
+        <v>47040431</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -2773,15 +2803,15 @@
       </c>
       <c r="H45" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>43359499</v>
+        <v>45840431</v>
       </c>
       <c r="I45" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>433595</v>
+        <v>916809</v>
       </c>
       <c r="J45" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>43793094</v>
+        <v>46757240</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
@@ -2795,7 +2825,7 @@
       </c>
       <c r="D46" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>43793094</v>
+        <v>46757240</v>
       </c>
       <c r="E46" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -2811,15 +2841,15 @@
       </c>
       <c r="H46" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>42533094</v>
+        <v>45497240</v>
       </c>
       <c r="I46" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>425331</v>
+        <v>909945</v>
       </c>
       <c r="J46" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>42958425</v>
+        <v>46407185</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
@@ -2833,7 +2863,7 @@
       </c>
       <c r="D47" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>42958425</v>
+        <v>46407185</v>
       </c>
       <c r="E47" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -2849,15 +2879,15 @@
       </c>
       <c r="H47" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>41635425</v>
+        <v>45084185</v>
       </c>
       <c r="I47" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>416354</v>
+        <v>901684</v>
       </c>
       <c r="J47" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>42051779</v>
+        <v>45985869</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -2871,7 +2901,7 @@
       </c>
       <c r="D48" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>42051779</v>
+        <v>45985869</v>
       </c>
       <c r="E48" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -2887,15 +2917,15 @@
       </c>
       <c r="H48" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>40662629</v>
+        <v>44596719</v>
       </c>
       <c r="I48" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>406626</v>
+        <v>891934</v>
       </c>
       <c r="J48" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>41069255</v>
+        <v>45488653</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
@@ -2909,7 +2939,7 @@
       </c>
       <c r="D49" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>41069255</v>
+        <v>45488653</v>
       </c>
       <c r="E49" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -2925,15 +2955,15 @@
       </c>
       <c r="H49" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>39610647</v>
+        <v>44030045</v>
       </c>
       <c r="I49" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>396106</v>
+        <v>880601</v>
       </c>
       <c r="J49" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>40006753</v>
+        <v>44910646</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
@@ -2947,7 +2977,7 @@
       </c>
       <c r="D50" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>40006753</v>
+        <v>44910646</v>
       </c>
       <c r="E50" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -2963,15 +2993,15 @@
       </c>
       <c r="H50" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>38475215</v>
+        <v>43379108</v>
       </c>
       <c r="I50" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>384752</v>
+        <v>867582</v>
       </c>
       <c r="J50" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>38859967</v>
+        <v>44246690</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
@@ -2985,7 +3015,7 @@
       </c>
       <c r="D51" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>38859967</v>
+        <v>44246690</v>
       </c>
       <c r="E51" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3001,15 +3031,15 @@
       </c>
       <c r="H51" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>37251852</v>
+        <v>42638575</v>
       </c>
       <c r="I51" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>372519</v>
+        <v>852772</v>
       </c>
       <c r="J51" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>37624371</v>
+        <v>43491347</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
@@ -3023,7 +3053,7 @@
       </c>
       <c r="D52" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>37624371</v>
+        <v>43491347</v>
       </c>
       <c r="E52" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3039,15 +3069,15 @@
       </c>
       <c r="H52" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>35935850</v>
+        <v>41802826</v>
       </c>
       <c r="I52" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>359359</v>
+        <v>836057</v>
       </c>
       <c r="J52" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>36295209</v>
+        <v>42638883</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
@@ -3061,7 +3091,7 @@
       </c>
       <c r="D53" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>36295209</v>
+        <v>42638883</v>
       </c>
       <c r="E53" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3077,15 +3107,15 @@
       </c>
       <c r="H53" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>34522262</v>
+        <v>40865936</v>
       </c>
       <c r="I53" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>345223</v>
+        <v>817319</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>34867485</v>
+        <v>41683255</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
@@ -3099,7 +3129,7 @@
       </c>
       <c r="D54" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>34867485</v>
+        <v>41683255</v>
       </c>
       <c r="E54" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3115,15 +3145,15 @@
       </c>
       <c r="H54" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>33005891</v>
+        <v>39821661</v>
       </c>
       <c r="I54" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>330059</v>
+        <v>796433</v>
       </c>
       <c r="J54" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>33335950</v>
+        <v>40618094</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
@@ -3137,7 +3167,7 @@
       </c>
       <c r="D55" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>33335950</v>
+        <v>40618094</v>
       </c>
       <c r="E55" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3153,15 +3183,15 @@
       </c>
       <c r="H55" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>31381276</v>
+        <v>38663420</v>
       </c>
       <c r="I55" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>313813</v>
+        <v>773268</v>
       </c>
       <c r="J55" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>31695089</v>
+        <v>39436688</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
@@ -3175,7 +3205,7 @@
       </c>
       <c r="D56" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>31695089</v>
+        <v>39436688</v>
       </c>
       <c r="E56" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3191,15 +3221,15 @@
       </c>
       <c r="H56" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>29642682</v>
+        <v>37384281</v>
       </c>
       <c r="I56" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>296427</v>
+        <v>747686</v>
       </c>
       <c r="J56" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>29939109</v>
+        <v>38131967</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
@@ -3213,7 +3243,7 @@
       </c>
       <c r="D57" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>29939109</v>
+        <v>38131967</v>
       </c>
       <c r="E57" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3229,15 +3259,15 @@
       </c>
       <c r="H57" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>27784081</v>
+        <v>35976939</v>
       </c>
       <c r="I57" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>277841</v>
+        <v>719539</v>
       </c>
       <c r="J57" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>28061922</v>
+        <v>36696478</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
@@ -3251,7 +3281,7 @@
       </c>
       <c r="D58" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>28061922</v>
+        <v>36696478</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3267,15 +3297,15 @@
       </c>
       <c r="H58" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>25799143</v>
+        <v>34433699</v>
       </c>
       <c r="I58" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>257991</v>
+        <v>688674</v>
       </c>
       <c r="J58" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>26057134</v>
+        <v>35122373</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
@@ -3289,7 +3319,7 @@
       </c>
       <c r="D59" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>26057134</v>
+        <v>35122373</v>
       </c>
       <c r="E59" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3305,15 +3335,15 @@
       </c>
       <c r="H59" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>23681216</v>
+        <v>32746455</v>
       </c>
       <c r="I59" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>236812</v>
+        <v>654929</v>
       </c>
       <c r="J59" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>23918028</v>
+        <v>33401384</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
@@ -3327,7 +3357,7 @@
       </c>
       <c r="D60" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>23918028</v>
+        <v>33401384</v>
       </c>
       <c r="E60" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3343,15 +3373,15 @@
       </c>
       <c r="H60" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>21423314</v>
+        <v>30906670</v>
       </c>
       <c r="I60" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>214233</v>
+        <v>618133</v>
       </c>
       <c r="J60" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>21637547</v>
+        <v>31524803</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
@@ -3365,7 +3395,7 @@
       </c>
       <c r="D61" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>21637547</v>
+        <v>31524803</v>
       </c>
       <c r="E61" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3381,15 +3411,15 @@
       </c>
       <c r="H61" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>19018097</v>
+        <v>28905353</v>
       </c>
       <c r="I61" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>190181</v>
+        <v>578107</v>
       </c>
       <c r="J61" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>19208278</v>
+        <v>29483460</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
@@ -3403,7 +3433,7 @@
       </c>
       <c r="D62" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>19208278</v>
+        <v>29483460</v>
       </c>
       <c r="E62" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3419,15 +3449,15 @@
       </c>
       <c r="H62" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>16457856</v>
+        <v>26733038</v>
       </c>
       <c r="I62" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>164579</v>
+        <v>534661</v>
       </c>
       <c r="J62" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>16622435</v>
+        <v>27267699</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
@@ -3441,7 +3471,7 @@
       </c>
       <c r="D63" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>16622435</v>
+        <v>27267699</v>
       </c>
       <c r="E63" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3457,15 +3487,15 @@
       </c>
       <c r="H63" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>13734492</v>
+        <v>24379756</v>
       </c>
       <c r="I63" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>137345</v>
+        <v>487595</v>
       </c>
       <c r="J63" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>13871837</v>
+        <v>24867351</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
@@ -3479,7 +3509,7 @@
       </c>
       <c r="D64" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>13871837</v>
+        <v>24867351</v>
       </c>
       <c r="E64" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3495,15 +3525,15 @@
       </c>
       <c r="H64" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>20839497</v>
+        <v>31835011</v>
       </c>
       <c r="I64" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>208395</v>
+        <v>636700</v>
       </c>
       <c r="J64" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>21047892</v>
+        <v>32471711</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
@@ -3517,7 +3547,7 @@
       </c>
       <c r="D65" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>21047892</v>
+        <v>32471711</v>
       </c>
       <c r="E65" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3533,15 +3563,15 @@
       </c>
       <c r="H65" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>17863935</v>
+        <v>29287754</v>
       </c>
       <c r="I65" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>178639</v>
+        <v>585755</v>
       </c>
       <c r="J65" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>18042574</v>
+        <v>29873509</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
@@ -3555,7 +3585,7 @@
       </c>
       <c r="D66" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>18042574</v>
+        <v>29873509</v>
       </c>
       <c r="E66" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3571,15 +3601,15 @@
       </c>
       <c r="H66" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>14699419</v>
+        <v>26530354</v>
       </c>
       <c r="I66" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>146994</v>
+        <v>530607</v>
       </c>
       <c r="J66" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>14846413</v>
+        <v>27060961</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
@@ -3593,7 +3623,7 @@
       </c>
       <c r="D67" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>14846413</v>
+        <v>27060961</v>
       </c>
       <c r="E67" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3609,15 +3639,15 @@
       </c>
       <c r="H67" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>11336100</v>
+        <v>23550648</v>
       </c>
       <c r="I67" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>113361</v>
+        <v>471013</v>
       </c>
       <c r="J67" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>11449461</v>
+        <v>24021661</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
@@ -3631,7 +3661,7 @@
       </c>
       <c r="D68" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>11449461</v>
+        <v>24021661</v>
       </c>
       <c r="E68" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3647,15 +3677,15 @@
       </c>
       <c r="H68" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>7763632</v>
+        <v>20335832</v>
       </c>
       <c r="I68" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>77636</v>
+        <v>406717</v>
       </c>
       <c r="J68" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>7841268</v>
+        <v>20742549</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
@@ -3669,7 +3699,7 @@
       </c>
       <c r="D69" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>7841268</v>
+        <v>20742549</v>
       </c>
       <c r="E69" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3685,15 +3715,15 @@
       </c>
       <c r="H69" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>3971148</v>
+        <v>16872429</v>
       </c>
       <c r="I69" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>39711</v>
+        <v>337449</v>
       </c>
       <c r="J69" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>4010859</v>
+        <v>17209878</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
@@ -3707,7 +3737,7 @@
       </c>
       <c r="D70" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>4010859</v>
+        <v>17209878</v>
       </c>
       <c r="E70" s="14">
         <f t="shared" ca="1" si="12"/>
@@ -3723,15 +3753,15 @@
       </c>
       <c r="H70" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>-52767</v>
+        <v>13146252</v>
       </c>
       <c r="I70" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>262925</v>
       </c>
       <c r="J70" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>-52767</v>
+        <v>13409177</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
@@ -3745,11 +3775,11 @@
       </c>
       <c r="D71" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>-52767</v>
+        <v>13409177</v>
       </c>
       <c r="E71" s="14">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>-4266807</v>
       </c>
       <c r="F71" s="4">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C71)</f>
@@ -3761,15 +3791,15 @@
       </c>
       <c r="H71" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>-52767</v>
+        <v>9142370</v>
       </c>
       <c r="I71" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>182847</v>
       </c>
       <c r="J71" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>-52767</v>
+        <v>9325217</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
@@ -3783,11 +3813,11 @@
       </c>
       <c r="D72" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>-52767</v>
+        <v>9325217</v>
       </c>
       <c r="E72" s="14">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>-4480148</v>
       </c>
       <c r="F72" s="4">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C72)</f>
@@ -3799,15 +3829,15 @@
       </c>
       <c r="H72" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>-52767</v>
+        <v>4845069</v>
       </c>
       <c r="I72" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>96901</v>
       </c>
       <c r="J72" s="6">
         <f t="shared" ca="1" si="8"/>
-        <v>-52767</v>
+        <v>4941970</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
@@ -3821,11 +3851,11 @@
       </c>
       <c r="D73" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>-52767</v>
+        <v>4941970</v>
       </c>
       <c r="E73" s="14">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>-4704155</v>
       </c>
       <c r="F73" s="4">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C73)</f>
@@ -3837,15 +3867,15 @@
       </c>
       <c r="H73" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>-52767</v>
+        <v>237815</v>
       </c>
       <c r="I73" s="5">
         <f t="shared" ref="I73:I109" ca="1" si="13">ROUND(IF($C73&gt;=userRetirementAge, IF($H73&gt;0, $H73*annualEffectivePostRetirementROI, 0), IF($H73&gt;0, $H73*annualEffectiveROI, 0)), 0)</f>
-        <v>0</v>
+        <v>4756</v>
       </c>
       <c r="J73" s="6">
         <f t="shared" ref="J73:J104" ca="1" si="14">ROUND(H73+I73, 0)</f>
-        <v>-52767</v>
+        <v>242571</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
@@ -3859,11 +3889,11 @@
       </c>
       <c r="D74" s="5">
         <f t="shared" ref="D74:D109" ca="1" si="17">ROUND(J73, 0)</f>
-        <v>-52767</v>
+        <v>242571</v>
       </c>
       <c r="E74" s="14">
         <f t="shared" ref="E74:E109" ca="1" si="18">ROUND(IF($C74&gt;userRetirementAge, IF($D74&gt;0,-FV(annualChangeInSWP, $C74-userRetirementAge-1, 0, -annualAmountSWP, 1), 0), E73+E73*(annualIncreaseInSavings)), 0)</f>
-        <v>0</v>
+        <v>-4939363</v>
       </c>
       <c r="F74" s="4">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C74)</f>
@@ -3875,7 +3905,7 @@
       </c>
       <c r="H74" s="5">
         <f t="shared" ref="H74:H109" ca="1" si="19">$D74+$E74+$F74</f>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I74" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -3883,7 +3913,7 @@
       </c>
       <c r="J74" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
@@ -3897,7 +3927,7 @@
       </c>
       <c r="D75" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E75" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -3913,7 +3943,7 @@
       </c>
       <c r="H75" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I75" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -3921,7 +3951,7 @@
       </c>
       <c r="J75" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
@@ -3935,7 +3965,7 @@
       </c>
       <c r="D76" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E76" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -3951,7 +3981,7 @@
       </c>
       <c r="H76" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I76" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -3959,7 +3989,7 @@
       </c>
       <c r="J76" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
@@ -3973,7 +4003,7 @@
       </c>
       <c r="D77" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E77" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -3989,7 +4019,7 @@
       </c>
       <c r="H77" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I77" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -3997,7 +4027,7 @@
       </c>
       <c r="J77" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -4011,7 +4041,7 @@
       </c>
       <c r="D78" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E78" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4027,7 +4057,7 @@
       </c>
       <c r="H78" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I78" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4035,7 +4065,7 @@
       </c>
       <c r="J78" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
@@ -4049,7 +4079,7 @@
       </c>
       <c r="D79" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E79" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4065,7 +4095,7 @@
       </c>
       <c r="H79" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I79" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4073,7 +4103,7 @@
       </c>
       <c r="J79" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
@@ -4087,7 +4117,7 @@
       </c>
       <c r="D80" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E80" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4103,7 +4133,7 @@
       </c>
       <c r="H80" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I80" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4111,7 +4141,7 @@
       </c>
       <c r="J80" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
@@ -4125,7 +4155,7 @@
       </c>
       <c r="D81" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E81" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4141,7 +4171,7 @@
       </c>
       <c r="H81" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I81" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4149,7 +4179,7 @@
       </c>
       <c r="J81" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
@@ -4163,7 +4193,7 @@
       </c>
       <c r="D82" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E82" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4179,7 +4209,7 @@
       </c>
       <c r="H82" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I82" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4187,7 +4217,7 @@
       </c>
       <c r="J82" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
@@ -4201,7 +4231,7 @@
       </c>
       <c r="D83" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E83" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4217,7 +4247,7 @@
       </c>
       <c r="H83" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I83" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4225,7 +4255,7 @@
       </c>
       <c r="J83" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -4239,7 +4269,7 @@
       </c>
       <c r="D84" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E84" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4255,7 +4285,7 @@
       </c>
       <c r="H84" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I84" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4263,7 +4293,7 @@
       </c>
       <c r="J84" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
@@ -4277,7 +4307,7 @@
       </c>
       <c r="D85" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E85" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4293,7 +4323,7 @@
       </c>
       <c r="H85" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I85" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4301,7 +4331,7 @@
       </c>
       <c r="J85" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
@@ -4315,7 +4345,7 @@
       </c>
       <c r="D86" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E86" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4331,7 +4361,7 @@
       </c>
       <c r="H86" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I86" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4339,7 +4369,7 @@
       </c>
       <c r="J86" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
@@ -4353,7 +4383,7 @@
       </c>
       <c r="D87" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E87" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4369,7 +4399,7 @@
       </c>
       <c r="H87" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I87" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4377,7 +4407,7 @@
       </c>
       <c r="J87" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
@@ -4391,7 +4421,7 @@
       </c>
       <c r="D88" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E88" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4407,7 +4437,7 @@
       </c>
       <c r="H88" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I88" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4415,7 +4445,7 @@
       </c>
       <c r="J88" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
@@ -4429,7 +4459,7 @@
       </c>
       <c r="D89" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E89" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4445,7 +4475,7 @@
       </c>
       <c r="H89" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I89" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4453,7 +4483,7 @@
       </c>
       <c r="J89" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
@@ -4467,7 +4497,7 @@
       </c>
       <c r="D90" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E90" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4483,7 +4513,7 @@
       </c>
       <c r="H90" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I90" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4491,7 +4521,7 @@
       </c>
       <c r="J90" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
@@ -4505,7 +4535,7 @@
       </c>
       <c r="D91" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E91" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4521,7 +4551,7 @@
       </c>
       <c r="H91" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I91" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4529,7 +4559,7 @@
       </c>
       <c r="J91" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
@@ -4543,7 +4573,7 @@
       </c>
       <c r="D92" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E92" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4559,7 +4589,7 @@
       </c>
       <c r="H92" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I92" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4567,7 +4597,7 @@
       </c>
       <c r="J92" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
@@ -4581,7 +4611,7 @@
       </c>
       <c r="D93" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E93" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4597,7 +4627,7 @@
       </c>
       <c r="H93" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I93" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4605,7 +4635,7 @@
       </c>
       <c r="J93" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
@@ -4619,7 +4649,7 @@
       </c>
       <c r="D94" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E94" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4635,7 +4665,7 @@
       </c>
       <c r="H94" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I94" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4643,7 +4673,7 @@
       </c>
       <c r="J94" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
@@ -4657,7 +4687,7 @@
       </c>
       <c r="D95" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E95" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4673,7 +4703,7 @@
       </c>
       <c r="H95" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I95" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4681,7 +4711,7 @@
       </c>
       <c r="J95" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
@@ -4695,7 +4725,7 @@
       </c>
       <c r="D96" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E96" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4711,7 +4741,7 @@
       </c>
       <c r="H96" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I96" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4719,7 +4749,7 @@
       </c>
       <c r="J96" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
@@ -4733,7 +4763,7 @@
       </c>
       <c r="D97" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E97" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4749,7 +4779,7 @@
       </c>
       <c r="H97" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I97" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4757,7 +4787,7 @@
       </c>
       <c r="J97" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
@@ -4771,7 +4801,7 @@
       </c>
       <c r="D98" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E98" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4787,7 +4817,7 @@
       </c>
       <c r="H98" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I98" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4795,7 +4825,7 @@
       </c>
       <c r="J98" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
@@ -4809,7 +4839,7 @@
       </c>
       <c r="D99" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E99" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4825,7 +4855,7 @@
       </c>
       <c r="H99" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I99" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4833,7 +4863,7 @@
       </c>
       <c r="J99" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
@@ -4847,7 +4877,7 @@
       </c>
       <c r="D100" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E100" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4863,7 +4893,7 @@
       </c>
       <c r="H100" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I100" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4871,7 +4901,7 @@
       </c>
       <c r="J100" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
@@ -4885,7 +4915,7 @@
       </c>
       <c r="D101" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E101" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4901,7 +4931,7 @@
       </c>
       <c r="H101" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I101" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4909,7 +4939,7 @@
       </c>
       <c r="J101" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
@@ -4923,7 +4953,7 @@
       </c>
       <c r="D102" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E102" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4939,7 +4969,7 @@
       </c>
       <c r="H102" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I102" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4947,7 +4977,7 @@
       </c>
       <c r="J102" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
@@ -4961,7 +4991,7 @@
       </c>
       <c r="D103" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E103" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -4977,7 +5007,7 @@
       </c>
       <c r="H103" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I103" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -4985,7 +5015,7 @@
       </c>
       <c r="J103" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
@@ -4999,7 +5029,7 @@
       </c>
       <c r="D104" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E104" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -5015,7 +5045,7 @@
       </c>
       <c r="H104" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I104" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -5023,7 +5053,7 @@
       </c>
       <c r="J104" s="6">
         <f t="shared" ca="1" si="14"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
@@ -5037,7 +5067,7 @@
       </c>
       <c r="D105" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E105" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -5053,7 +5083,7 @@
       </c>
       <c r="H105" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I105" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -5061,7 +5091,7 @@
       </c>
       <c r="J105" s="6">
         <f t="shared" ref="J105:J109" ca="1" si="20">ROUND(H105+I105, 0)</f>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
@@ -5075,7 +5105,7 @@
       </c>
       <c r="D106" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E106" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -5091,7 +5121,7 @@
       </c>
       <c r="H106" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I106" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -5099,7 +5129,7 @@
       </c>
       <c r="J106" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
@@ -5113,7 +5143,7 @@
       </c>
       <c r="D107" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E107" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -5129,7 +5159,7 @@
       </c>
       <c r="H107" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I107" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -5137,7 +5167,7 @@
       </c>
       <c r="J107" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
@@ -5151,7 +5181,7 @@
       </c>
       <c r="D108" s="5">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E108" s="14">
         <f t="shared" ca="1" si="18"/>
@@ -5167,7 +5197,7 @@
       </c>
       <c r="H108" s="5">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I108" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -5175,7 +5205,7 @@
       </c>
       <c r="J108" s="6">
         <f t="shared" ca="1" si="20"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
     <row r="109" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5189,7 +5219,7 @@
       </c>
       <c r="D109" s="9">
         <f t="shared" ca="1" si="17"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="E109" s="37">
         <f t="shared" ca="1" si="18"/>
@@ -5205,7 +5235,7 @@
       </c>
       <c r="H109" s="9">
         <f t="shared" ca="1" si="19"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
       <c r="I109" s="9">
         <f t="shared" ca="1" si="13"/>
@@ -5213,7 +5243,7 @@
       </c>
       <c r="J109" s="10">
         <f t="shared" ca="1" si="20"/>
-        <v>-52767</v>
+        <v>-4696792</v>
       </c>
     </row>
   </sheetData>
@@ -5283,7 +5313,7 @@
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5330,14 +5360,14 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="E7" s="72" t="s">
+      <c r="C7" s="76"/>
+      <c r="E7" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="76"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -5433,7 +5463,7 @@
       </c>
       <c r="F14" s="48">
         <f>$C$24-SUM($C$25:$C$27)</f>
-        <v>1.0000000000000009E-2</v>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="M14" s="45"/>
       <c r="N14" s="23"/>
@@ -5562,7 +5592,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="57">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M27" s="45"/>
       <c r="N27" s="51"/>
@@ -5623,7 +5653,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pcH4kWynkl60A9Z/zPJEmKjiM0LI6Jv2Zl5G2E1wThfrT2fbOdGjXsB6LBbpzSALZ55wAdK37WamGnwrZyA0XA==" saltValue="s4BHSHNw3U7vqI0myjEszg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ngvSPMoSE8cL0ovX1bjYHNqTmyFqaKLI0uTIYGHxX8QsM8z71q7FRNUSPAgVfsLA8BA7n8xhcVYGT5g1ZFEthA==" saltValue="gVeLhGZfpfwrYXuCMRzQag==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="2">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F7"/>
@@ -5639,7 +5669,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5659,11 +5689,11 @@
         <f>CONCATENATE("*Make sure total expense doesn't exceed monthly income of ", userMonthlyIncome )</f>
         <v>*Make sure total expense doesn't exceed monthly income of 50000</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L2" s="61"/>
@@ -5687,7 +5717,7 @@
       <c r="L3" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="74">
         <v>12000</v>
       </c>
       <c r="N3" s="63">
@@ -5696,7 +5726,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="11" t="s">
         <v>41</v>
       </c>
       <c r="E4" s="13">
@@ -5705,7 +5735,7 @@
       <c r="L4" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="74">
         <v>6000</v>
       </c>
       <c r="N4" s="63">
@@ -5714,7 +5744,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="13">
@@ -5723,7 +5753,7 @@
       <c r="L5" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="74">
         <v>3000</v>
       </c>
       <c r="N5" s="63">
@@ -5732,7 +5762,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="13">
@@ -5741,7 +5771,7 @@
       <c r="L6" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="74">
         <v>2000</v>
       </c>
       <c r="N6" s="63">
@@ -5750,7 +5780,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="13">
@@ -5759,7 +5789,7 @@
       <c r="L7" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="74">
         <v>250</v>
       </c>
       <c r="N7" s="63">
@@ -5768,7 +5798,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="11" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="13">
@@ -5777,7 +5807,7 @@
       <c r="L8" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="74">
         <v>100</v>
       </c>
       <c r="N8" s="63">
@@ -5786,7 +5816,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="11" t="s">
         <v>47</v>
       </c>
       <c r="E9" s="13">
@@ -5794,151 +5824,151 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="65"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="65"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="65"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="65"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D14" s="65"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D15" s="65"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D16" s="65"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="13"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="65"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="13"/>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="65"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="13"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="65"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="13"/>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="65"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="13"/>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="65"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="13"/>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="65"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="65"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="13"/>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="65"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="65"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="65"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="65"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="13"/>
     </row>
     <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="65"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="13"/>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="65"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D30" s="65"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D31" s="65"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="13"/>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D32" s="65"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="13"/>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="65"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="13"/>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="65"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="13"/>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="65"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="13"/>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="65"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="65"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="13"/>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="65"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="13"/>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39" s="65"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="13"/>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="65"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="65"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="13"/>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="65"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="13"/>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="65"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="13"/>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="65"/>
+      <c r="D44" s="11"/>
       <c r="E44" s="13"/>
     </row>
     <row r="45" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="66"/>
+      <c r="D45" s="68"/>
       <c r="E45" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L3YzYyDQA1bLON4a9ZxbC4GyMpP02O/RSfhaGPlLj3F2zLqRkh9snzaQcnhxds7whHP3sQ2N8mPY0uVXTCanHw==" saltValue="aQJD5wNFNyAeu+YJCTMYoA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Qf+7FVYqiwdM2l7fmiUsRjU3fKuU3lgfSrEW4QcMfr7PfZvqImK9aI62flSH1w/W+zDioQyK1/huD+6NYMUD6g==" saltValue="0y6OmB+b1+nwE7LvqpcxQQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="1">
     <mergeCell ref="L1:N1"/>
   </mergeCells>
@@ -5951,8 +5981,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5960,7 +5990,7 @@
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="66.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5976,8 +6006,8 @@
         <v>50</v>
       </c>
       <c r="B3" s="63">
-        <f>SUMIF(F4:F106, "&gt;=0")</f>
-        <v>7250000</v>
+        <f>SUMIF($F$4:$F$106, "&gt;=0")</f>
+        <v>7050000</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>10</v>
@@ -5994,8 +6024,8 @@
         <v>51</v>
       </c>
       <c r="B4" s="63">
-        <f>-SUMIF(F5:F107, "&lt;0")</f>
-        <v>10000000</v>
+        <f>-SUMIF($F$4:$F$106, "&lt;0")</f>
+        <v>11300000</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>7</v>
@@ -6131,16 +6161,12 @@
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="D20" s="11"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="11" t="s">
-        <v>57</v>
-      </c>
+      <c r="D21" s="11"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
     </row>
@@ -6540,56 +6566,73 @@
       <c r="F100" s="13"/>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D101" s="11"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="13"/>
+      <c r="D101" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E101" s="12">
+        <v>35</v>
+      </c>
+      <c r="F101" s="13">
+        <v>-200000</v>
+      </c>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D102" s="11"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="13"/>
+      <c r="D102" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E102" s="12">
+        <v>35</v>
+      </c>
+      <c r="F102" s="13">
+        <v>-100000</v>
+      </c>
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D103" s="11"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="13"/>
+      <c r="D103" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E103" s="73">
+        <f>userRetirementAge</f>
+        <v>60</v>
+      </c>
+      <c r="F103" s="13">
+        <v>-1000000</v>
+      </c>
     </row>
     <row r="104" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D104" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="E104" s="67">
+      <c r="E104" s="70">
         <f>userLifeExpectancyAge</f>
         <v>80</v>
       </c>
-      <c r="F104" s="13">
+      <c r="F104" s="25">
         <v>-10000000</v>
       </c>
     </row>
     <row r="105" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D105" s="68" t="s">
+      <c r="D105" s="66" t="s">
         <v>11</v>
       </c>
       <c r="E105" s="69">
         <f>userRetirementAge</f>
         <v>60</v>
       </c>
-      <c r="F105" s="13">
-        <v>200000</v>
-      </c>
+      <c r="F105" s="13"/>
     </row>
     <row r="106" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D106" s="70" t="s">
+      <c r="D106" s="67" t="s">
         <v>16</v>
       </c>
       <c r="E106" s="71">
         <f>userLifeExpectancyAge</f>
         <v>80</v>
       </c>
-      <c r="F106" s="13"/>
+      <c r="F106" s="72"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rYcw/MWuTsC6WPH3FAB38a/Na4kyvi+L5UVWS5vni+Oq85uNTb4qhah4Iaa9VRPNcZs0/obx9wwaRITaYbqqag==" saltValue="WPNm2rQjXUy99qLtllRwqg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VzIdGTxkbZBJ4I/tIuYuO4GUJ3whJ44fWvpMNRnAOYzduF+1c+TuNznyA6BTvpfmB9bgjRrTtTJDCht4yQqt/Q==" saltValue="wzw5iCOk1kdvIe4aHdAFKg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -6601,7 +6644,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6627,14 +6670,14 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="D5" s="72" t="s">
+      <c r="B5" s="76"/>
+      <c r="D5" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="73"/>
+      <c r="E5" s="76"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>

--- a/Excellent.xlsx
+++ b/Excellent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Project - Learning\Project - Financials\Project - Excellent\Excellent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950F6A50-64B7-4482-80E9-D398526914BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1736B14-2891-4236-B2AB-0D242E2F6258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -1332,13 +1332,13 @@
   </sheetPr>
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -1425,7 +1425,7 @@
         <f>userAnnualSavings</f>
         <v>360000</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C9)</f>
         <v>0</v>
       </c>
@@ -1463,7 +1463,7 @@
         <f t="shared" ref="E10:E41" ca="1" si="5">ROUND(IF($C10&gt;userRetirementAge, IF($D10&gt;0,-FV(annualChangeInSWP, $C10-userRetirementAge-1, 0, -annualAmountSWP, 1), 0), E9+E9*(annualIncreaseInSavings)), 0)</f>
         <v>378000</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C10)</f>
         <v>-50000</v>
       </c>
@@ -1501,7 +1501,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>396900</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C11)</f>
         <v>0</v>
       </c>
@@ -1539,7 +1539,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>416745</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C12)</f>
         <v>-500000</v>
       </c>
@@ -1577,7 +1577,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>437582</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C13)</f>
         <v>0</v>
       </c>
@@ -1615,7 +1615,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>459461</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C14)</f>
         <v>-1000000</v>
       </c>
@@ -1653,7 +1653,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>482434</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C15)</f>
         <v>0</v>
       </c>
@@ -1691,7 +1691,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>506556</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C16)</f>
         <v>0</v>
       </c>
@@ -1729,7 +1729,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>531884</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C17)</f>
         <v>0</v>
       </c>
@@ -1767,7 +1767,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>558478</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C18)</f>
         <v>0</v>
       </c>
@@ -1805,7 +1805,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>586402</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C19)</f>
         <v>300000</v>
       </c>
@@ -1843,7 +1843,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>615722</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C20)</f>
         <v>0</v>
       </c>
@@ -1881,7 +1881,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>646508</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C21)</f>
         <v>0</v>
       </c>
@@ -1919,7 +1919,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>678833</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C22)</f>
         <v>0</v>
       </c>
@@ -1957,7 +1957,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>712775</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C23)</f>
         <v>0</v>
       </c>
@@ -1995,7 +1995,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>748414</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C24)</f>
         <v>-5000000</v>
       </c>
@@ -2033,7 +2033,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>785835</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C25)</f>
         <v>0</v>
       </c>
@@ -2071,7 +2071,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>825127</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C26)</f>
         <v>0</v>
       </c>
@@ -2109,7 +2109,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>866383</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C27)</f>
         <v>0</v>
       </c>
@@ -2147,7 +2147,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>909702</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C28)</f>
         <v>0</v>
       </c>
@@ -2185,7 +2185,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>955187</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C29)</f>
         <v>0</v>
       </c>
@@ -2223,7 +2223,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>1002946</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C30)</f>
         <v>0</v>
       </c>
@@ -2261,7 +2261,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>1053093</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C31)</f>
         <v>0</v>
       </c>
@@ -2299,7 +2299,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>1105748</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C32)</f>
         <v>0</v>
       </c>
@@ -2337,7 +2337,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>1161035</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C33)</f>
         <v>0</v>
       </c>
@@ -2375,7 +2375,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>1219087</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C34)</f>
         <v>0</v>
       </c>
@@ -2413,7 +2413,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>1280041</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C35)</f>
         <v>0</v>
       </c>
@@ -2451,7 +2451,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>1344043</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C36)</f>
         <v>0</v>
       </c>
@@ -2489,7 +2489,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>1411245</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C37)</f>
         <v>0</v>
       </c>
@@ -2527,7 +2527,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>1481807</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C38)</f>
         <v>0</v>
       </c>
@@ -2565,7 +2565,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>1555897</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C39)</f>
         <v>0</v>
       </c>
@@ -2603,7 +2603,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>1633692</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C40)</f>
         <v>0</v>
       </c>
@@ -2641,7 +2641,7 @@
         <f t="shared" ca="1" si="5"/>
         <v>1715377</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C41)</f>
         <v>0</v>
       </c>
@@ -2679,7 +2679,7 @@
         <f t="shared" ref="E42:E73" ca="1" si="12">ROUND(IF($C42&gt;userRetirementAge, IF($D42&gt;0,-FV(annualChangeInSWP, $C42-userRetirementAge-1, 0, -annualAmountSWP, 1), 0), E41+E41*(annualIncreaseInSavings)), 0)</f>
         <v>1801146</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C42)</f>
         <v>0</v>
       </c>
@@ -2717,7 +2717,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>1891203</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C43)</f>
         <v>0</v>
       </c>
@@ -2755,7 +2755,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>1985763</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C44)</f>
         <v>500000</v>
       </c>
@@ -2793,7 +2793,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-1200000</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C45)</f>
         <v>0</v>
       </c>
@@ -2831,7 +2831,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-1260000</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C46)</f>
         <v>0</v>
       </c>
@@ -2869,7 +2869,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-1323000</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C47)</f>
         <v>0</v>
       </c>
@@ -2907,7 +2907,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-1389150</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C48)</f>
         <v>0</v>
       </c>
@@ -2945,7 +2945,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-1458608</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C49)</f>
         <v>0</v>
       </c>
@@ -2983,7 +2983,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-1531538</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C50)</f>
         <v>0</v>
       </c>
@@ -3021,7 +3021,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-1608115</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C51)</f>
         <v>0</v>
       </c>
@@ -3059,7 +3059,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-1688521</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C52)</f>
         <v>0</v>
       </c>
@@ -3097,7 +3097,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-1772947</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C53)</f>
         <v>0</v>
       </c>
@@ -3135,7 +3135,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-1861594</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C54)</f>
         <v>0</v>
       </c>
@@ -3173,7 +3173,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-1954674</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C55)</f>
         <v>0</v>
       </c>
@@ -3211,7 +3211,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-2052407</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C56)</f>
         <v>0</v>
       </c>
@@ -3249,7 +3249,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-2155028</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C57)</f>
         <v>0</v>
       </c>
@@ -3287,7 +3287,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-2262779</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C58)</f>
         <v>0</v>
       </c>
@@ -3325,7 +3325,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-2375918</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C59)</f>
         <v>0</v>
       </c>
@@ -3363,7 +3363,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-2494714</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C60)</f>
         <v>0</v>
       </c>
@@ -3401,7 +3401,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-2619450</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C61)</f>
         <v>0</v>
       </c>
@@ -3439,7 +3439,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-2750422</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C62)</f>
         <v>0</v>
       </c>
@@ -3477,7 +3477,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-2887943</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C63)</f>
         <v>0</v>
       </c>
@@ -3515,7 +3515,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-3032340</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C64)</f>
         <v>10000000</v>
       </c>
@@ -3553,7 +3553,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-3183957</v>
       </c>
-      <c r="F65" s="4">
+      <c r="F65" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C65)</f>
         <v>0</v>
       </c>
@@ -3591,7 +3591,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-3343155</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C66)</f>
         <v>0</v>
       </c>
@@ -3629,7 +3629,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-3510313</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C67)</f>
         <v>0</v>
       </c>
@@ -3667,7 +3667,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-3685829</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C68)</f>
         <v>0</v>
       </c>
@@ -3705,7 +3705,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-3870120</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C69)</f>
         <v>0</v>
       </c>
@@ -3743,7 +3743,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-4063626</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C70)</f>
         <v>0</v>
       </c>
@@ -3781,7 +3781,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-4266807</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C71)</f>
         <v>0</v>
       </c>
@@ -3819,7 +3819,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-4480148</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C72)</f>
         <v>0</v>
       </c>
@@ -3857,7 +3857,7 @@
         <f t="shared" ca="1" si="12"/>
         <v>-4704155</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C73)</f>
         <v>0</v>
       </c>
@@ -3895,7 +3895,7 @@
         <f t="shared" ref="E74:E109" ca="1" si="18">ROUND(IF($C74&gt;userRetirementAge, IF($D74&gt;0,-FV(annualChangeInSWP, $C74-userRetirementAge-1, 0, -annualAmountSWP, 1), 0), E73+E73*(annualIncreaseInSavings)), 0)</f>
         <v>-4939363</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C74)</f>
         <v>0</v>
       </c>
@@ -3933,7 +3933,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C75)</f>
         <v>0</v>
       </c>
@@ -3971,7 +3971,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C76)</f>
         <v>0</v>
       </c>
@@ -4009,7 +4009,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C77)</f>
         <v>0</v>
       </c>
@@ -4047,7 +4047,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C78)</f>
         <v>0</v>
       </c>
@@ -4085,7 +4085,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C79)</f>
         <v>0</v>
       </c>
@@ -4123,7 +4123,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C80)</f>
         <v>0</v>
       </c>
@@ -4161,7 +4161,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C81)</f>
         <v>0</v>
       </c>
@@ -4199,7 +4199,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C82)</f>
         <v>0</v>
       </c>
@@ -4237,7 +4237,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C83)</f>
         <v>0</v>
       </c>
@@ -4275,7 +4275,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C84)</f>
         <v>0</v>
       </c>
@@ -4313,7 +4313,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C85)</f>
         <v>0</v>
       </c>
@@ -4351,7 +4351,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C86)</f>
         <v>0</v>
       </c>
@@ -4389,7 +4389,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C87)</f>
         <v>0</v>
       </c>
@@ -4427,7 +4427,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C88)</f>
         <v>0</v>
       </c>
@@ -4465,7 +4465,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F89" s="4">
+      <c r="F89" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C89)</f>
         <v>0</v>
       </c>
@@ -4503,7 +4503,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C90)</f>
         <v>0</v>
       </c>
@@ -4541,7 +4541,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C91)</f>
         <v>0</v>
       </c>
@@ -4579,7 +4579,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F92" s="4">
+      <c r="F92" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C92)</f>
         <v>0</v>
       </c>
@@ -4617,7 +4617,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F93" s="4">
+      <c r="F93" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C93)</f>
         <v>0</v>
       </c>
@@ -4655,7 +4655,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F94" s="4">
+      <c r="F94" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C94)</f>
         <v>0</v>
       </c>
@@ -4693,7 +4693,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F95" s="4">
+      <c r="F95" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C95)</f>
         <v>0</v>
       </c>
@@ -4731,7 +4731,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C96)</f>
         <v>0</v>
       </c>
@@ -4769,7 +4769,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F97" s="4">
+      <c r="F97" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C97)</f>
         <v>0</v>
       </c>
@@ -4807,7 +4807,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F98" s="4">
+      <c r="F98" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C98)</f>
         <v>0</v>
       </c>
@@ -4845,7 +4845,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F99" s="4">
+      <c r="F99" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C99)</f>
         <v>0</v>
       </c>
@@ -4883,7 +4883,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F100" s="4">
+      <c r="F100" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C100)</f>
         <v>0</v>
       </c>
@@ -4921,7 +4921,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F101" s="4">
+      <c r="F101" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C101)</f>
         <v>0</v>
       </c>
@@ -4959,7 +4959,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F102" s="4">
+      <c r="F102" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C102)</f>
         <v>0</v>
       </c>
@@ -4997,7 +4997,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F103" s="4">
+      <c r="F103" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C103)</f>
         <v>0</v>
       </c>
@@ -5035,7 +5035,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F104" s="4">
+      <c r="F104" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C104)</f>
         <v>0</v>
       </c>
@@ -5073,7 +5073,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F105" s="4">
+      <c r="F105" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C105)</f>
         <v>0</v>
       </c>
@@ -5111,7 +5111,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F106" s="4">
+      <c r="F106" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C106)</f>
         <v>0</v>
       </c>
@@ -5149,7 +5149,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F107" s="4">
+      <c r="F107" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C107)</f>
         <v>0</v>
       </c>
@@ -5187,7 +5187,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F108" s="4">
+      <c r="F108" s="5">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C108)</f>
         <v>0</v>
       </c>
@@ -5225,7 +5225,7 @@
         <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
-      <c r="F109" s="8">
+      <c r="F109" s="9">
         <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C109)</f>
         <v>0</v>
       </c>
@@ -5247,7 +5247,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p5vL9Lkbh1qTw/gIdYDwp6DIXyHSB68bl55pjvRa9gys728UsWboImHpsG4W6vVN5FBxhrYVExQpojZ36lRCpQ==" saltValue="TUbcyeEPG+ch5aJw3qb7fA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6VlK7/FZJ7O4E9Po5So4L3eiAGd/sCrgfal6A3YzB6phlLUdo+67x9KdDIAROnCFSpTHpdgqisnuHWy/q0oCZg==" saltValue="EjzTuJcyHzZkTf5G9Cg+qw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <conditionalFormatting sqref="B9:J109">
     <cfRule type="expression" dxfId="5" priority="1">
       <formula>$C9&gt;userLifeExpectancyAge</formula>
@@ -5981,7 +5981,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>

--- a/Excellent.xlsx
+++ b/Excellent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Project - Learning\Project - Financials\Project - Excellent\Excellent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1736B14-2891-4236-B2AB-0D242E2F6258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60010F2-9E4F-4FA4-BAEF-9C83F7B40981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="862" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,13 @@
     <definedName name="annualInflationOthers">'Input-Basic'!$C$19</definedName>
     <definedName name="annualPostRetirementROI">'Input-Basic'!$C$24</definedName>
     <definedName name="annualROI">'Input-Basic'!$C$16</definedName>
+    <definedName name="annualWithdrawalSWP_FV">'Input-Basic'!$F$16</definedName>
     <definedName name="InflationCPI">'Input-Basic'!$N$15</definedName>
     <definedName name="monthlyExpenses">'Input-Basic'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Dashboard!$B$7:$J$109</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Dashboard!$B$7:$K$109</definedName>
+    <definedName name="swpLTCGExemption">'Input-Basic'!$C$37</definedName>
+    <definedName name="swpLTCGTaxPercentage">'Input-Basic'!$C$38</definedName>
+    <definedName name="swpOtherTaxExemptions">'Input-Basic'!$C$36</definedName>
     <definedName name="TEsting">'Input-Basic'!$D$13:$D$23</definedName>
     <definedName name="userAge">'Input-Basic'!$F$9</definedName>
     <definedName name="userAnnualSavings">'Input-Basic'!$F$12</definedName>
@@ -109,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="100">
   <si>
     <t>Name</t>
   </si>
@@ -373,6 +377,42 @@
   </si>
   <si>
     <t>Retirement Corpus</t>
+  </si>
+  <si>
+    <t>Monthly Income (post tax)</t>
+  </si>
+  <si>
+    <t>LTCG Tax (as of FY24)</t>
+  </si>
+  <si>
+    <t>LTCG Exemption (as of FY24)</t>
+  </si>
+  <si>
+    <t>Tax on SWP</t>
+  </si>
+  <si>
+    <t>Standard + Other tax exemptions</t>
+  </si>
+  <si>
+    <t>TAX (SWP)</t>
+  </si>
+  <si>
+    <t>Today's Price</t>
+  </si>
+  <si>
+    <t>Inflation (if any)</t>
+  </si>
+  <si>
+    <t>Inflation Adjusted Price</t>
+  </si>
+  <si>
+    <t>*Inflation adjusted price is rounded off with next nearest 1000</t>
+  </si>
+  <si>
+    <t>Future value of SWP withdrawal</t>
+  </si>
+  <si>
+    <t>BASIC INFO</t>
   </si>
 </sst>
 </file>
@@ -485,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -653,12 +693,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -820,14 +875,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="9" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -885,12 +932,109 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <u val="double"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1332,8 +1476,8 @@
   </sheetPr>
   <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,10 +1486,10 @@
     <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -1395,18 +1539,21 @@
         <v>58</v>
       </c>
       <c r="H7" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="J7" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="K7" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
@@ -1415,18 +1562,18 @@
       </c>
       <c r="C9" s="4">
         <f ca="1">userAge+1</f>
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D9" s="5">
         <f>ROUND(userCurrentSavings-userCurrentLiabilities, 0)</f>
-        <v>50000</v>
+        <v>5000000</v>
       </c>
       <c r="E9" s="14">
         <f>userAnnualSavings</f>
-        <v>360000</v>
+        <v>1200000</v>
       </c>
       <c r="F9" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C9)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C9)</f>
         <v>0</v>
       </c>
       <c r="G9" s="4" t="str" cm="1">
@@ -1434,75 +1581,83 @@
         <v/>
       </c>
       <c r="H9" s="5">
-        <f ca="1">$D9+$E9+$F9</f>
-        <v>410000</v>
+        <f ca="1">IF(AND($C9&gt;userRetirementAge, SUM($E9, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E9, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" ref="I9:I40" ca="1" si="0">ROUND(IF($C9&gt;=userRetirementAge, IF($H9&gt;0, $H9*annualEffectivePostRetirementROI, 0), IF($H9&gt;0, $H9*annualEffectiveROI, 0)), 0)</f>
-        <v>16400</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" ref="J9:J40" ca="1" si="1">ROUND(H9+I9, 0)</f>
-        <v>426400</v>
+        <f ca="1">$D9+$E9+$F9-$H9</f>
+        <v>6200000</v>
+      </c>
+      <c r="J9" s="5">
+        <f ca="1">ROUND(IF($C9&gt;=userRetirementAge, IF($I9&gt;0, $I9*annualEffectivePostRetirementROI, 0), IF($I9&gt;0, $I9*annualEffectiveROI, 0)), 0)</f>
+        <v>620000</v>
+      </c>
+      <c r="K9" s="6">
+        <f ca="1">ROUND(I9+J9, 0)</f>
+        <v>6820000</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
-        <f t="shared" ref="B10:B41" ca="1" si="2">B9+1</f>
+        <f t="shared" ref="B10:B41" ca="1" si="0">B9+1</f>
         <v>2025</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" ref="C10:C41" ca="1" si="3">C9+1</f>
-        <v>26</v>
+        <f t="shared" ref="C10:C41" ca="1" si="1">C9+1</f>
+        <v>58</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" ref="D10:D41" ca="1" si="4">ROUND(J9, 0)</f>
-        <v>426400</v>
+        <f ca="1">ROUND(K9, 0)</f>
+        <v>6820000</v>
       </c>
       <c r="E10" s="14">
-        <f t="shared" ref="E10:E41" ca="1" si="5">ROUND(IF($C10&gt;userRetirementAge, IF($D10&gt;0,-FV(annualChangeInSWP, $C10-userRetirementAge-1, 0, -annualAmountSWP, 1), 0), E9+E9*(annualIncreaseInSavings)), 0)</f>
-        <v>378000</v>
+        <f ca="1">ROUND(IF($C10&gt;userRetirementAge, IF($D10&gt;0,-FV(annualChangeInSWP, $C10-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E9+E9*(annualIncreaseInSavings)), 0)</f>
+        <v>1260000</v>
       </c>
       <c r="F10" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C10)</f>
-        <v>-50000</v>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C10)</f>
+        <v>2000000</v>
       </c>
       <c r="G10" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">_xlfn.TEXTJOIN(", ", TRUE, IF('Input-Events'!E$4:E$106=$C10, 'Input-Events'!D$4:D$106, ""))</f>
-        <v>Mobile</v>
+        <v>Retirement Corpus, Retirement</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" ref="H10:H73" ca="1" si="6">$D10+$E10+$F10</f>
-        <v>754400</v>
+        <f ca="1">IF(AND($C10&gt;userRetirementAge, SUM($E10, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E10, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>30176</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>784576</v>
+        <f t="shared" ref="I10:I73" ca="1" si="2">$D10+$E10+$F10-$H10</f>
+        <v>10080000</v>
+      </c>
+      <c r="J10" s="5">
+        <f ca="1">ROUND(IF($C10&gt;=userRetirementAge, IF($I10&gt;0, $I10*annualEffectivePostRetirementROI, 0), IF($I10&gt;0, $I10*annualEffectiveROI, 0)), 0)</f>
+        <v>806400</v>
+      </c>
+      <c r="K10" s="6">
+        <f ca="1">ROUND(I10+J10, 0)</f>
+        <v>10886400</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2026</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>784576</v>
+        <f ca="1">ROUND(K10, 0)</f>
+        <v>10886400</v>
       </c>
       <c r="E11" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>396900</v>
+        <f ca="1">ROUND(IF($C11&gt;userRetirementAge, IF($D11&gt;0,-FV(annualChangeInSWP, $C11-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E10+E10*(annualIncreaseInSavings)), 0)</f>
+        <v>-1373880</v>
       </c>
       <c r="F11" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C11)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C11)</f>
         <v>0</v>
       </c>
       <c r="G11" s="4" t="str" cm="1">
@@ -1510,75 +1665,83 @@
         <v/>
       </c>
       <c r="H11" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>1181476</v>
+        <f ca="1">IF(AND($C11&gt;userRetirementAge, SUM($E11, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E11, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>68610</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>47259</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1228735</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9443910</v>
+      </c>
+      <c r="J11" s="5">
+        <f ca="1">ROUND(IF($C11&gt;=userRetirementAge, IF($I11&gt;0, $I11*annualEffectivePostRetirementROI, 0), IF($I11&gt;0, $I11*annualEffectiveROI, 0)), 0)</f>
+        <v>755513</v>
+      </c>
+      <c r="K11" s="6">
+        <f ca="1">ROUND(I11+J11, 0)</f>
+        <v>10199423</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2027</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>1228735</v>
+        <f ca="1">ROUND(K11, 0)</f>
+        <v>10199423</v>
       </c>
       <c r="E12" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>416745</v>
+        <f ca="1">ROUND(IF($C12&gt;userRetirementAge, IF($D12&gt;0,-FV(annualChangeInSWP, $C12-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E11+E11*(annualIncreaseInSavings)), 0)</f>
+        <v>-1387619</v>
       </c>
       <c r="F12" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C12)</f>
-        <v>-500000</v>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C12)</f>
+        <v>0</v>
       </c>
       <c r="G12" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">_xlfn.TEXTJOIN(", ", TRUE, IF('Input-Events'!E$4:E$106=$C12, 'Input-Events'!D$4:D$106, ""))</f>
-        <v>Marriage</v>
+        <v/>
       </c>
       <c r="H12" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>1145480</v>
+        <f ca="1">IF(AND($C12&gt;userRetirementAge, SUM($E12, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E12, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>70327.375</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>45819</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1191299</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8741476.625</v>
+      </c>
+      <c r="J12" s="5">
+        <f ca="1">ROUND(IF($C12&gt;=userRetirementAge, IF($I12&gt;0, $I12*annualEffectivePostRetirementROI, 0), IF($I12&gt;0, $I12*annualEffectiveROI, 0)), 0)</f>
+        <v>699318</v>
+      </c>
+      <c r="K12" s="6">
+        <f ca="1">ROUND(I12+J12, 0)</f>
+        <v>9440795</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2028</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>1191299</v>
+        <f ca="1">ROUND(K12, 0)</f>
+        <v>9440795</v>
       </c>
       <c r="E13" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>437582</v>
+        <f ca="1">ROUND(IF($C13&gt;userRetirementAge, IF($D13&gt;0,-FV(annualChangeInSWP, $C13-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E12+E12*(annualIncreaseInSavings)), 0)</f>
+        <v>-1401495</v>
       </c>
       <c r="F13" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C13)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C13)</f>
         <v>0</v>
       </c>
       <c r="G13" s="4" t="str" cm="1">
@@ -1586,75 +1749,83 @@
         <v/>
       </c>
       <c r="H13" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>1628881</v>
+        <f ca="1">IF(AND($C13&gt;userRetirementAge, SUM($E13, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E13, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>72061.875</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>65155</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1694036</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7967238.125</v>
+      </c>
+      <c r="J13" s="5">
+        <f ca="1">ROUND(IF($C13&gt;=userRetirementAge, IF($I13&gt;0, $I13*annualEffectivePostRetirementROI, 0), IF($I13&gt;0, $I13*annualEffectiveROI, 0)), 0)</f>
+        <v>637379</v>
+      </c>
+      <c r="K13" s="6">
+        <f ca="1">ROUND(I13+J13, 0)</f>
+        <v>8604617</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2029</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>62</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>1694036</v>
+        <f ca="1">ROUND(K13, 0)</f>
+        <v>8604617</v>
       </c>
       <c r="E14" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>459461</v>
+        <f ca="1">ROUND(IF($C14&gt;userRetirementAge, IF($D14&gt;0,-FV(annualChangeInSWP, $C14-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E13+E13*(annualIncreaseInSavings)), 0)</f>
+        <v>-1415510</v>
       </c>
       <c r="F14" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C14)</f>
-        <v>-1000000</v>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C14)</f>
+        <v>0</v>
       </c>
       <c r="G14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">_xlfn.TEXTJOIN(", ", TRUE, IF('Input-Events'!E$4:E$106=$C14, 'Input-Events'!D$4:D$106, ""))</f>
-        <v>Car</v>
+        <v/>
       </c>
       <c r="H14" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>1153497</v>
+        <f ca="1">IF(AND($C14&gt;userRetirementAge, SUM($E14, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E14, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>73813.75</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>46140</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1199637</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7115293.25</v>
+      </c>
+      <c r="J14" s="5">
+        <f ca="1">ROUND(IF($C14&gt;=userRetirementAge, IF($I14&gt;0, $I14*annualEffectivePostRetirementROI, 0), IF($I14&gt;0, $I14*annualEffectiveROI, 0)), 0)</f>
+        <v>569223</v>
+      </c>
+      <c r="K14" s="6">
+        <f ca="1">ROUND(I14+J14, 0)</f>
+        <v>7684516</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2030</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>1199637</v>
+        <f ca="1">ROUND(K14, 0)</f>
+        <v>7684516</v>
       </c>
       <c r="E15" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>482434</v>
+        <f ca="1">ROUND(IF($C15&gt;userRetirementAge, IF($D15&gt;0,-FV(annualChangeInSWP, $C15-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E14+E14*(annualIncreaseInSavings)), 0)</f>
+        <v>-1429665</v>
       </c>
       <c r="F15" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C15)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C15)</f>
         <v>0</v>
       </c>
       <c r="G15" s="4" t="str" cm="1">
@@ -1662,37 +1833,41 @@
         <v/>
       </c>
       <c r="H15" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>1682071</v>
+        <f ca="1">IF(AND($C15&gt;userRetirementAge, SUM($E15, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E15, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>75583.125</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>67283</v>
-      </c>
-      <c r="J15" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1749354</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6179267.875</v>
+      </c>
+      <c r="J15" s="5">
+        <f ca="1">ROUND(IF($C15&gt;=userRetirementAge, IF($I15&gt;0, $I15*annualEffectivePostRetirementROI, 0), IF($I15&gt;0, $I15*annualEffectiveROI, 0)), 0)</f>
+        <v>494341</v>
+      </c>
+      <c r="K15" s="6">
+        <f ca="1">ROUND(I15+J15, 0)</f>
+        <v>6673609</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="0"/>
         <v>2031</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>1749354</v>
+        <f ca="1">ROUND(K15, 0)</f>
+        <v>6673609</v>
       </c>
       <c r="E16" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>506556</v>
+        <f ca="1">ROUND(IF($C16&gt;userRetirementAge, IF($D16&gt;0,-FV(annualChangeInSWP, $C16-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E15+E15*(annualIncreaseInSavings)), 0)</f>
+        <v>-1443962</v>
       </c>
       <c r="F16" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C16)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C16)</f>
         <v>0</v>
       </c>
       <c r="G16" s="4" t="str" cm="1">
@@ -1700,37 +1875,41 @@
         <v/>
       </c>
       <c r="H16" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>2255910</v>
+        <f ca="1">IF(AND($C16&gt;userRetirementAge, SUM($E16, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E16, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>77370.25</v>
       </c>
       <c r="I16" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>5152276.75</v>
+      </c>
+      <c r="J16" s="5">
+        <f ca="1">ROUND(IF($C16&gt;=userRetirementAge, IF($I16&gt;0, $I16*annualEffectivePostRetirementROI, 0), IF($I16&gt;0, $I16*annualEffectiveROI, 0)), 0)</f>
+        <v>412182</v>
+      </c>
+      <c r="K16" s="6">
+        <f ca="1">ROUND(I16+J16, 0)</f>
+        <v>5564459</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>90236</v>
-      </c>
-      <c r="J16" s="6">
+        <v>2032</v>
+      </c>
+      <c r="C17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2346146</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2032</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>2346146</v>
+        <f ca="1">ROUND(K16, 0)</f>
+        <v>5564459</v>
       </c>
       <c r="E17" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>531884</v>
+        <f ca="1">ROUND(IF($C17&gt;userRetirementAge, IF($D17&gt;0,-FV(annualChangeInSWP, $C17-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E16+E16*(annualIncreaseInSavings)), 0)</f>
+        <v>-1458401</v>
       </c>
       <c r="F17" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C17)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C17)</f>
         <v>0</v>
       </c>
       <c r="G17" s="4" t="str" cm="1">
@@ -1738,37 +1917,41 @@
         <v/>
       </c>
       <c r="H17" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>2878030</v>
+        <f ca="1">IF(AND($C17&gt;userRetirementAge, SUM($E17, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E17, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>79175.125</v>
       </c>
       <c r="I17" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>4026882.875</v>
+      </c>
+      <c r="J17" s="5">
+        <f ca="1">ROUND(IF($C17&gt;=userRetirementAge, IF($I17&gt;0, $I17*annualEffectivePostRetirementROI, 0), IF($I17&gt;0, $I17*annualEffectiveROI, 0)), 0)</f>
+        <v>322151</v>
+      </c>
+      <c r="K17" s="6">
+        <f ca="1">ROUND(I17+J17, 0)</f>
+        <v>4349034</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>115121</v>
-      </c>
-      <c r="J17" s="6">
+        <v>2033</v>
+      </c>
+      <c r="C18" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>2993151</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2033</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>2993151</v>
+        <f ca="1">ROUND(K17, 0)</f>
+        <v>4349034</v>
       </c>
       <c r="E18" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>558478</v>
+        <f ca="1">ROUND(IF($C18&gt;userRetirementAge, IF($D18&gt;0,-FV(annualChangeInSWP, $C18-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E17+E17*(annualIncreaseInSavings)), 0)</f>
+        <v>-1472985</v>
       </c>
       <c r="F18" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C18)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C18)</f>
         <v>0</v>
       </c>
       <c r="G18" s="4" t="str" cm="1">
@@ -1776,75 +1959,83 @@
         <v/>
       </c>
       <c r="H18" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>3551629</v>
+        <f ca="1">IF(AND($C18&gt;userRetirementAge, SUM($E18, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E18, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>80998.125</v>
       </c>
       <c r="I18" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2795050.875</v>
+      </c>
+      <c r="J18" s="5">
+        <f ca="1">ROUND(IF($C18&gt;=userRetirementAge, IF($I18&gt;0, $I18*annualEffectivePostRetirementROI, 0), IF($I18&gt;0, $I18*annualEffectiveROI, 0)), 0)</f>
+        <v>223604</v>
+      </c>
+      <c r="K18" s="6">
+        <f ca="1">ROUND(I18+J18, 0)</f>
+        <v>3018655</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>142065</v>
-      </c>
-      <c r="J18" s="6">
+        <v>2034</v>
+      </c>
+      <c r="C19" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>3693694</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2034</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>3693694</v>
+        <f ca="1">ROUND(K18, 0)</f>
+        <v>3018655</v>
       </c>
       <c r="E19" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>586402</v>
+        <f ca="1">ROUND(IF($C19&gt;userRetirementAge, IF($D19&gt;0,-FV(annualChangeInSWP, $C19-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E18+E18*(annualIncreaseInSavings)), 0)</f>
+        <v>-1487715</v>
       </c>
       <c r="F19" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C19)</f>
-        <v>300000</v>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C19)</f>
+        <v>0</v>
       </c>
       <c r="G19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">_xlfn.TEXTJOIN(", ", TRUE, IF('Input-Events'!E$4:E$106=$C19, 'Input-Events'!D$4:D$106, ""))</f>
-        <v>PPF Maturity, Insurance Maturity</v>
+        <v/>
       </c>
       <c r="H19" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>4580096</v>
+        <f ca="1">IF(AND($C19&gt;userRetirementAge, SUM($E19, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E19, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>82839.375</v>
       </c>
       <c r="I19" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>1448100.625</v>
+      </c>
+      <c r="J19" s="5">
+        <f ca="1">ROUND(IF($C19&gt;=userRetirementAge, IF($I19&gt;0, $I19*annualEffectivePostRetirementROI, 0), IF($I19&gt;0, $I19*annualEffectiveROI, 0)), 0)</f>
+        <v>115848</v>
+      </c>
+      <c r="K19" s="6">
+        <f ca="1">ROUND(I19+J19, 0)</f>
+        <v>1563949</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>183204</v>
-      </c>
-      <c r="J19" s="6">
+        <v>2035</v>
+      </c>
+      <c r="C20" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4763300</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2035</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>4763300</v>
+        <f ca="1">ROUND(K19, 0)</f>
+        <v>1563949</v>
       </c>
       <c r="E20" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>615722</v>
+        <f ca="1">ROUND(IF($C20&gt;userRetirementAge, IF($D20&gt;0,-FV(annualChangeInSWP, $C20-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E19+E19*(annualIncreaseInSavings)), 0)</f>
+        <v>-1502592</v>
       </c>
       <c r="F20" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C20)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C20)</f>
         <v>0</v>
       </c>
       <c r="G20" s="4" t="str" cm="1">
@@ -1852,37 +2043,41 @@
         <v/>
       </c>
       <c r="H20" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>5379022</v>
+        <f ca="1">IF(AND($C20&gt;userRetirementAge, SUM($E20, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E20, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>84699</v>
       </c>
       <c r="I20" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-23342</v>
+      </c>
+      <c r="J20" s="5">
+        <f ca="1">ROUND(IF($C20&gt;=userRetirementAge, IF($I20&gt;0, $I20*annualEffectivePostRetirementROI, 0), IF($I20&gt;0, $I20*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <f ca="1">ROUND(I20+J20, 0)</f>
+        <v>-23342</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>215161</v>
-      </c>
-      <c r="J20" s="6">
+        <v>2036</v>
+      </c>
+      <c r="C21" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5594183</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2036</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>5594183</v>
+        <f ca="1">ROUND(K20, 0)</f>
+        <v>-23342</v>
       </c>
       <c r="E21" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>646508</v>
+        <f ca="1">ROUND(IF($C21&gt;userRetirementAge, IF($D21&gt;0,-FV(annualChangeInSWP, $C21-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E20+E20*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F21" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C21)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C21)</f>
         <v>0</v>
       </c>
       <c r="G21" s="4" t="str" cm="1">
@@ -1890,37 +2085,41 @@
         <v/>
       </c>
       <c r="H21" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>6240691</v>
+        <f ca="1">IF(AND($C21&gt;userRetirementAge, SUM($E21, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E21, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I21" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-23342</v>
+      </c>
+      <c r="J21" s="5">
+        <f ca="1">ROUND(IF($C21&gt;=userRetirementAge, IF($I21&gt;0, $I21*annualEffectivePostRetirementROI, 0), IF($I21&gt;0, $I21*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <f ca="1">ROUND(I21+J21, 0)</f>
+        <v>-23342</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>249628</v>
-      </c>
-      <c r="J21" s="6">
+        <v>2037</v>
+      </c>
+      <c r="C22" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6490319</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2037</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>6490319</v>
+        <f ca="1">ROUND(K21, 0)</f>
+        <v>-23342</v>
       </c>
       <c r="E22" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>678833</v>
+        <f ca="1">ROUND(IF($C22&gt;userRetirementAge, IF($D22&gt;0,-FV(annualChangeInSWP, $C22-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E21+E21*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C22)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C22)</f>
         <v>0</v>
       </c>
       <c r="G22" s="4" t="str" cm="1">
@@ -1928,37 +2127,41 @@
         <v/>
       </c>
       <c r="H22" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>7169152</v>
+        <f ca="1">IF(AND($C22&gt;userRetirementAge, SUM($E22, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E22, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I22" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-23342</v>
+      </c>
+      <c r="J22" s="5">
+        <f ca="1">ROUND(IF($C22&gt;=userRetirementAge, IF($I22&gt;0, $I22*annualEffectivePostRetirementROI, 0), IF($I22&gt;0, $I22*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <f ca="1">ROUND(I22+J22, 0)</f>
+        <v>-23342</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>286766</v>
-      </c>
-      <c r="J22" s="6">
+        <v>2038</v>
+      </c>
+      <c r="C23" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7455918</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2038</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>7455918</v>
+        <f ca="1">ROUND(K22, 0)</f>
+        <v>-23342</v>
       </c>
       <c r="E23" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>712775</v>
+        <f ca="1">ROUND(IF($C23&gt;userRetirementAge, IF($D23&gt;0,-FV(annualChangeInSWP, $C23-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E22+E22*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F23" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C23)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C23)</f>
         <v>0</v>
       </c>
       <c r="G23" s="4" t="str" cm="1">
@@ -1966,75 +2169,83 @@
         <v/>
       </c>
       <c r="H23" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>8168693</v>
+        <f ca="1">IF(AND($C23&gt;userRetirementAge, SUM($E23, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E23, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I23" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-23342</v>
+      </c>
+      <c r="J23" s="5">
+        <f ca="1">ROUND(IF($C23&gt;=userRetirementAge, IF($I23&gt;0, $I23*annualEffectivePostRetirementROI, 0), IF($I23&gt;0, $I23*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <f ca="1">ROUND(I23+J23, 0)</f>
+        <v>-23342</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>326748</v>
-      </c>
-      <c r="J23" s="6">
+        <v>2039</v>
+      </c>
+      <c r="C24" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8495441</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2039</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>8495441</v>
+        <f ca="1">ROUND(K23, 0)</f>
+        <v>-23342</v>
       </c>
       <c r="E24" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>748414</v>
+        <f ca="1">ROUND(IF($C24&gt;userRetirementAge, IF($D24&gt;0,-FV(annualChangeInSWP, $C24-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E23+E23*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F24" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C24)</f>
-        <v>-5000000</v>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C24)</f>
+        <v>0</v>
       </c>
       <c r="G24" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">_xlfn.TEXTJOIN(", ", TRUE, IF('Input-Events'!E$4:E$106=$C24, 'Input-Events'!D$4:D$106, ""))</f>
-        <v>Home</v>
+        <v/>
       </c>
       <c r="H24" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>4243855</v>
+        <f ca="1">IF(AND($C24&gt;userRetirementAge, SUM($E24, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E24, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I24" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-23342</v>
+      </c>
+      <c r="J24" s="5">
+        <f ca="1">ROUND(IF($C24&gt;=userRetirementAge, IF($I24&gt;0, $I24*annualEffectivePostRetirementROI, 0), IF($I24&gt;0, $I24*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <f ca="1">ROUND(I24+J24, 0)</f>
+        <v>-23342</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>169754</v>
-      </c>
-      <c r="J24" s="6">
+        <v>2040</v>
+      </c>
+      <c r="C25" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>4413609</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2040</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>4413609</v>
+        <f ca="1">ROUND(K24, 0)</f>
+        <v>-23342</v>
       </c>
       <c r="E25" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>785835</v>
+        <f ca="1">ROUND(IF($C25&gt;userRetirementAge, IF($D25&gt;0,-FV(annualChangeInSWP, $C25-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E24+E24*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F25" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C25)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C25)</f>
         <v>0</v>
       </c>
       <c r="G25" s="4" t="str" cm="1">
@@ -2042,37 +2253,41 @@
         <v/>
       </c>
       <c r="H25" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>5199444</v>
+        <f ca="1">IF(AND($C25&gt;userRetirementAge, SUM($E25, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E25, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I25" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-23342</v>
+      </c>
+      <c r="J25" s="5">
+        <f ca="1">ROUND(IF($C25&gt;=userRetirementAge, IF($I25&gt;0, $I25*annualEffectivePostRetirementROI, 0), IF($I25&gt;0, $I25*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <f ca="1">ROUND(I25+J25, 0)</f>
+        <v>-23342</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>207978</v>
-      </c>
-      <c r="J25" s="6">
+        <v>2041</v>
+      </c>
+      <c r="C26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>5407422</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2041</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>5407422</v>
+        <f ca="1">ROUND(K25, 0)</f>
+        <v>-23342</v>
       </c>
       <c r="E26" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>825127</v>
+        <f ca="1">ROUND(IF($C26&gt;userRetirementAge, IF($D26&gt;0,-FV(annualChangeInSWP, $C26-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E25+E25*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F26" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C26)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C26)</f>
         <v>0</v>
       </c>
       <c r="G26" s="4" t="str" cm="1">
@@ -2080,37 +2295,41 @@
         <v/>
       </c>
       <c r="H26" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>6232549</v>
+        <f ca="1">IF(AND($C26&gt;userRetirementAge, SUM($E26, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E26, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I26" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-23342</v>
+      </c>
+      <c r="J26" s="5">
+        <f ca="1">ROUND(IF($C26&gt;=userRetirementAge, IF($I26&gt;0, $I26*annualEffectivePostRetirementROI, 0), IF($I26&gt;0, $I26*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <f ca="1">ROUND(I26+J26, 0)</f>
+        <v>-23342</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>249302</v>
-      </c>
-      <c r="J26" s="6">
+        <v>2042</v>
+      </c>
+      <c r="C27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6481851</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2042</v>
-      </c>
-      <c r="C27" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>6481851</v>
+        <f ca="1">ROUND(K26, 0)</f>
+        <v>-23342</v>
       </c>
       <c r="E27" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>866383</v>
+        <f ca="1">ROUND(IF($C27&gt;userRetirementAge, IF($D27&gt;0,-FV(annualChangeInSWP, $C27-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E26+E26*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F27" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C27)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C27)</f>
         <v>0</v>
       </c>
       <c r="G27" s="4" t="str" cm="1">
@@ -2118,37 +2337,41 @@
         <v/>
       </c>
       <c r="H27" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>7348234</v>
+        <f ca="1">IF(AND($C27&gt;userRetirementAge, SUM($E27, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E27, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I27" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-23342</v>
+      </c>
+      <c r="J27" s="5">
+        <f ca="1">ROUND(IF($C27&gt;=userRetirementAge, IF($I27&gt;0, $I27*annualEffectivePostRetirementROI, 0), IF($I27&gt;0, $I27*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <f ca="1">ROUND(I27+J27, 0)</f>
+        <v>-23342</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>293929</v>
-      </c>
-      <c r="J27" s="6">
+        <v>2043</v>
+      </c>
+      <c r="C28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>7642163</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2043</v>
-      </c>
-      <c r="C28" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>7642163</v>
+        <f ca="1">ROUND(K27, 0)</f>
+        <v>-23342</v>
       </c>
       <c r="E28" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>909702</v>
+        <f ca="1">ROUND(IF($C28&gt;userRetirementAge, IF($D28&gt;0,-FV(annualChangeInSWP, $C28-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E27+E27*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F28" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C28)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C28)</f>
         <v>0</v>
       </c>
       <c r="G28" s="4" t="str" cm="1">
@@ -2156,37 +2379,41 @@
         <v/>
       </c>
       <c r="H28" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>8551865</v>
+        <f ca="1">IF(AND($C28&gt;userRetirementAge, SUM($E28, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E28, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I28" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-23342</v>
+      </c>
+      <c r="J28" s="5">
+        <f ca="1">ROUND(IF($C28&gt;=userRetirementAge, IF($I28&gt;0, $I28*annualEffectivePostRetirementROI, 0), IF($I28&gt;0, $I28*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <f ca="1">ROUND(I28+J28, 0)</f>
+        <v>-23342</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>342075</v>
-      </c>
-      <c r="J28" s="6">
+        <v>2044</v>
+      </c>
+      <c r="C29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>8893940</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2044</v>
-      </c>
-      <c r="C29" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>8893940</v>
+        <f ca="1">ROUND(K28, 0)</f>
+        <v>-23342</v>
       </c>
       <c r="E29" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>955187</v>
+        <f ca="1">ROUND(IF($C29&gt;userRetirementAge, IF($D29&gt;0,-FV(annualChangeInSWP, $C29-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E28+E28*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F29" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C29)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C29)</f>
         <v>0</v>
       </c>
       <c r="G29" s="4" t="str" cm="1">
@@ -2194,37 +2421,41 @@
         <v/>
       </c>
       <c r="H29" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>9849127</v>
+        <f ca="1">IF(AND($C29&gt;userRetirementAge, SUM($E29, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E29, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I29" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-23342</v>
+      </c>
+      <c r="J29" s="5">
+        <f ca="1">ROUND(IF($C29&gt;=userRetirementAge, IF($I29&gt;0, $I29*annualEffectivePostRetirementROI, 0), IF($I29&gt;0, $I29*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <f ca="1">ROUND(I29+J29, 0)</f>
+        <v>-23342</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>393965</v>
-      </c>
-      <c r="J29" s="6">
+        <v>2045</v>
+      </c>
+      <c r="C30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>10243092</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2045</v>
-      </c>
-      <c r="C30" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>10243092</v>
+        <f ca="1">ROUND(K29, 0)</f>
+        <v>-23342</v>
       </c>
       <c r="E30" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>1002946</v>
+        <f ca="1">ROUND(IF($C30&gt;userRetirementAge, IF($D30&gt;0,-FV(annualChangeInSWP, $C30-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E29+E29*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F30" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C30)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C30)</f>
         <v>0</v>
       </c>
       <c r="G30" s="4" t="str" cm="1">
@@ -2232,37 +2463,41 @@
         <v/>
       </c>
       <c r="H30" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>11246038</v>
+        <f ca="1">IF(AND($C30&gt;userRetirementAge, SUM($E30, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E30, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I30" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-23342</v>
+      </c>
+      <c r="J30" s="5">
+        <f ca="1">ROUND(IF($C30&gt;=userRetirementAge, IF($I30&gt;0, $I30*annualEffectivePostRetirementROI, 0), IF($I30&gt;0, $I30*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <f ca="1">ROUND(I30+J30, 0)</f>
+        <v>-23342</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>449842</v>
-      </c>
-      <c r="J30" s="6">
+        <v>2046</v>
+      </c>
+      <c r="C31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>11695880</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2046</v>
-      </c>
-      <c r="C31" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>11695880</v>
+        <f ca="1">ROUND(K30, 0)</f>
+        <v>-23342</v>
       </c>
       <c r="E31" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>1053093</v>
+        <f ca="1">ROUND(IF($C31&gt;userRetirementAge, IF($D31&gt;0,-FV(annualChangeInSWP, $C31-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E30+E30*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F31" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C31)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C31)</f>
         <v>0</v>
       </c>
       <c r="G31" s="4" t="str" cm="1">
@@ -2270,75 +2505,83 @@
         <v/>
       </c>
       <c r="H31" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>12748973</v>
+        <f ca="1">IF(AND($C31&gt;userRetirementAge, SUM($E31, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E31, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I31" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-23342</v>
+      </c>
+      <c r="J31" s="5">
+        <f ca="1">ROUND(IF($C31&gt;=userRetirementAge, IF($I31&gt;0, $I31*annualEffectivePostRetirementROI, 0), IF($I31&gt;0, $I31*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <f ca="1">ROUND(I31+J31, 0)</f>
+        <v>-23342</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>509959</v>
-      </c>
-      <c r="J31" s="6">
+        <v>2047</v>
+      </c>
+      <c r="C32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>13258932</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2047</v>
-      </c>
-      <c r="C32" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>13258932</v>
+        <f ca="1">ROUND(K31, 0)</f>
+        <v>-23342</v>
       </c>
       <c r="E32" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>1105748</v>
+        <f ca="1">ROUND(IF($C32&gt;userRetirementAge, IF($D32&gt;0,-FV(annualChangeInSWP, $C32-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E31+E31*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F32" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C32)</f>
-        <v>0</v>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C32)</f>
+        <v>10000000</v>
       </c>
       <c r="G32" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G32" ca="1">_xlfn.TEXTJOIN(", ", TRUE, IF('Input-Events'!E$4:E$106=$C32, 'Input-Events'!D$4:D$106, ""))</f>
-        <v/>
+        <v>Term Insurance, Life Expectancy</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>14364680</v>
+        <f ca="1">IF(AND($C32&gt;userRetirementAge, SUM($E32, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E32, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I32" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>9976658</v>
+      </c>
+      <c r="J32" s="5">
+        <f ca="1">ROUND(IF($C32&gt;=userRetirementAge, IF($I32&gt;0, $I32*annualEffectivePostRetirementROI, 0), IF($I32&gt;0, $I32*annualEffectiveROI, 0)), 0)</f>
+        <v>798133</v>
+      </c>
+      <c r="K32" s="6">
+        <f ca="1">ROUND(I32+J32, 0)</f>
+        <v>10774791</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>574587</v>
-      </c>
-      <c r="J32" s="6">
+        <v>2048</v>
+      </c>
+      <c r="C33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>14939267</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2048</v>
-      </c>
-      <c r="C33" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>14939267</v>
+        <f ca="1">ROUND(K32, 0)</f>
+        <v>10774791</v>
       </c>
       <c r="E33" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>1161035</v>
+        <f ca="1">ROUND(IF($C33&gt;userRetirementAge, IF($D33&gt;0,-FV(annualChangeInSWP, $C33-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E32+E32*(annualIncreaseInSavings)), 0)</f>
+        <v>-1710090</v>
       </c>
       <c r="F33" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C33)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C33)</f>
         <v>0</v>
       </c>
       <c r="G33" s="4" t="str" cm="1">
@@ -2346,37 +2589,41 @@
         <v/>
       </c>
       <c r="H33" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>16100302</v>
+        <f ca="1">IF(AND($C33&gt;userRetirementAge, SUM($E33, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E33, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>110636.25</v>
       </c>
       <c r="I33" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>8954064.75</v>
+      </c>
+      <c r="J33" s="5">
+        <f ca="1">ROUND(IF($C33&gt;=userRetirementAge, IF($I33&gt;0, $I33*annualEffectivePostRetirementROI, 0), IF($I33&gt;0, $I33*annualEffectiveROI, 0)), 0)</f>
+        <v>716325</v>
+      </c>
+      <c r="K33" s="6">
+        <f ca="1">ROUND(I33+J33, 0)</f>
+        <v>9670390</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>644012</v>
-      </c>
-      <c r="J33" s="6">
+        <v>2049</v>
+      </c>
+      <c r="C34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>16744314</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2049</v>
-      </c>
-      <c r="C34" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>16744314</v>
+        <f ca="1">ROUND(K33, 0)</f>
+        <v>9670390</v>
       </c>
       <c r="E34" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>1219087</v>
+        <f ca="1">ROUND(IF($C34&gt;userRetirementAge, IF($D34&gt;0,-FV(annualChangeInSWP, $C34-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E33+E33*(annualIncreaseInSavings)), 0)</f>
+        <v>-1727191</v>
       </c>
       <c r="F34" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C34)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C34)</f>
         <v>0</v>
       </c>
       <c r="G34" s="4" t="str" cm="1">
@@ -2384,37 +2631,41 @@
         <v/>
       </c>
       <c r="H34" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>17963401</v>
+        <f ca="1">IF(AND($C34&gt;userRetirementAge, SUM($E34, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E34, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>112773.875</v>
       </c>
       <c r="I34" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>7830425.125</v>
+      </c>
+      <c r="J34" s="5">
+        <f ca="1">ROUND(IF($C34&gt;=userRetirementAge, IF($I34&gt;0, $I34*annualEffectivePostRetirementROI, 0), IF($I34&gt;0, $I34*annualEffectiveROI, 0)), 0)</f>
+        <v>626434</v>
+      </c>
+      <c r="K34" s="6">
+        <f ca="1">ROUND(I34+J34, 0)</f>
+        <v>8456859</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>718536</v>
-      </c>
-      <c r="J34" s="6">
+        <v>2050</v>
+      </c>
+      <c r="C35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>18681937</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2050</v>
-      </c>
-      <c r="C35" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>18681937</v>
+        <f ca="1">ROUND(K34, 0)</f>
+        <v>8456859</v>
       </c>
       <c r="E35" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>1280041</v>
+        <f ca="1">ROUND(IF($C35&gt;userRetirementAge, IF($D35&gt;0,-FV(annualChangeInSWP, $C35-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E34+E34*(annualIncreaseInSavings)), 0)</f>
+        <v>-1744463</v>
       </c>
       <c r="F35" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C35)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C35)</f>
         <v>0</v>
       </c>
       <c r="G35" s="4" t="str" cm="1">
@@ -2422,37 +2673,41 @@
         <v/>
       </c>
       <c r="H35" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>19961978</v>
+        <f ca="1">IF(AND($C35&gt;userRetirementAge, SUM($E35, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E35, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>114932.875</v>
       </c>
       <c r="I35" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>6597463.125</v>
+      </c>
+      <c r="J35" s="5">
+        <f ca="1">ROUND(IF($C35&gt;=userRetirementAge, IF($I35&gt;0, $I35*annualEffectivePostRetirementROI, 0), IF($I35&gt;0, $I35*annualEffectiveROI, 0)), 0)</f>
+        <v>527797</v>
+      </c>
+      <c r="K35" s="6">
+        <f ca="1">ROUND(I35+J35, 0)</f>
+        <v>7125260</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>798479</v>
-      </c>
-      <c r="J35" s="6">
+        <v>2051</v>
+      </c>
+      <c r="C36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>20760457</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2051</v>
-      </c>
-      <c r="C36" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>20760457</v>
+        <f ca="1">ROUND(K35, 0)</f>
+        <v>7125260</v>
       </c>
       <c r="E36" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>1344043</v>
+        <f ca="1">ROUND(IF($C36&gt;userRetirementAge, IF($D36&gt;0,-FV(annualChangeInSWP, $C36-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E35+E35*(annualIncreaseInSavings)), 0)</f>
+        <v>-1761908</v>
       </c>
       <c r="F36" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C36)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C36)</f>
         <v>0</v>
       </c>
       <c r="G36" s="4" t="str" cm="1">
@@ -2460,37 +2715,41 @@
         <v/>
       </c>
       <c r="H36" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>22104500</v>
+        <f ca="1">IF(AND($C36&gt;userRetirementAge, SUM($E36, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E36, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>117113.5</v>
       </c>
       <c r="I36" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>5246238.5</v>
+      </c>
+      <c r="J36" s="5">
+        <f ca="1">ROUND(IF($C36&gt;=userRetirementAge, IF($I36&gt;0, $I36*annualEffectivePostRetirementROI, 0), IF($I36&gt;0, $I36*annualEffectiveROI, 0)), 0)</f>
+        <v>419699</v>
+      </c>
+      <c r="K36" s="6">
+        <f ca="1">ROUND(I36+J36, 0)</f>
+        <v>5665938</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>884180</v>
-      </c>
-      <c r="J36" s="6">
+        <v>2052</v>
+      </c>
+      <c r="C37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>22988680</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2052</v>
-      </c>
-      <c r="C37" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>22988680</v>
+        <f ca="1">ROUND(K36, 0)</f>
+        <v>5665938</v>
       </c>
       <c r="E37" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>1411245</v>
+        <f ca="1">ROUND(IF($C37&gt;userRetirementAge, IF($D37&gt;0,-FV(annualChangeInSWP, $C37-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E36+E36*(annualIncreaseInSavings)), 0)</f>
+        <v>-1779527</v>
       </c>
       <c r="F37" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C37)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C37)</f>
         <v>0</v>
       </c>
       <c r="G37" s="4" t="str" cm="1">
@@ -2498,37 +2757,41 @@
         <v/>
       </c>
       <c r="H37" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>24399925</v>
+        <f ca="1">IF(AND($C37&gt;userRetirementAge, SUM($E37, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E37, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>119315.875</v>
       </c>
       <c r="I37" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>3767095.125</v>
+      </c>
+      <c r="J37" s="5">
+        <f ca="1">ROUND(IF($C37&gt;=userRetirementAge, IF($I37&gt;0, $I37*annualEffectivePostRetirementROI, 0), IF($I37&gt;0, $I37*annualEffectiveROI, 0)), 0)</f>
+        <v>301368</v>
+      </c>
+      <c r="K37" s="6">
+        <f ca="1">ROUND(I37+J37, 0)</f>
+        <v>4068463</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>975997</v>
-      </c>
-      <c r="J37" s="6">
+        <v>2053</v>
+      </c>
+      <c r="C38" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>25375922</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2053</v>
-      </c>
-      <c r="C38" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>25375922</v>
+        <f ca="1">ROUND(K37, 0)</f>
+        <v>4068463</v>
       </c>
       <c r="E38" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>1481807</v>
+        <f ca="1">ROUND(IF($C38&gt;userRetirementAge, IF($D38&gt;0,-FV(annualChangeInSWP, $C38-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E37+E37*(annualIncreaseInSavings)), 0)</f>
+        <v>-1797322</v>
       </c>
       <c r="F38" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C38)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C38)</f>
         <v>0</v>
       </c>
       <c r="G38" s="4" t="str" cm="1">
@@ -2536,37 +2799,41 @@
         <v/>
       </c>
       <c r="H38" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>26857729</v>
+        <f ca="1">IF(AND($C38&gt;userRetirementAge, SUM($E38, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E38, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>121540.25</v>
       </c>
       <c r="I38" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>2149600.75</v>
+      </c>
+      <c r="J38" s="5">
+        <f ca="1">ROUND(IF($C38&gt;=userRetirementAge, IF($I38&gt;0, $I38*annualEffectivePostRetirementROI, 0), IF($I38&gt;0, $I38*annualEffectiveROI, 0)), 0)</f>
+        <v>171968</v>
+      </c>
+      <c r="K38" s="6">
+        <f ca="1">ROUND(I38+J38, 0)</f>
+        <v>2321569</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1074309</v>
-      </c>
-      <c r="J38" s="6">
+        <v>2054</v>
+      </c>
+      <c r="C39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>27932038</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2054</v>
-      </c>
-      <c r="C39" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>27932038</v>
+        <f ca="1">ROUND(K38, 0)</f>
+        <v>2321569</v>
       </c>
       <c r="E39" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>1555897</v>
+        <f ca="1">ROUND(IF($C39&gt;userRetirementAge, IF($D39&gt;0,-FV(annualChangeInSWP, $C39-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E38+E38*(annualIncreaseInSavings)), 0)</f>
+        <v>-1815295</v>
       </c>
       <c r="F39" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C39)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C39)</f>
         <v>0</v>
       </c>
       <c r="G39" s="4" t="str" cm="1">
@@ -2574,37 +2841,41 @@
         <v/>
       </c>
       <c r="H39" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>29487935</v>
+        <f ca="1">IF(AND($C39&gt;userRetirementAge, SUM($E39, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E39, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>123786.875</v>
       </c>
       <c r="I39" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>382487.125</v>
+      </c>
+      <c r="J39" s="5">
+        <f ca="1">ROUND(IF($C39&gt;=userRetirementAge, IF($I39&gt;0, $I39*annualEffectivePostRetirementROI, 0), IF($I39&gt;0, $I39*annualEffectiveROI, 0)), 0)</f>
+        <v>30599</v>
+      </c>
+      <c r="K39" s="6">
+        <f ca="1">ROUND(I39+J39, 0)</f>
+        <v>413086</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1179517</v>
-      </c>
-      <c r="J39" s="6">
+        <v>2055</v>
+      </c>
+      <c r="C40" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>30667452</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2055</v>
-      </c>
-      <c r="C40" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>30667452</v>
+        <f ca="1">ROUND(K39, 0)</f>
+        <v>413086</v>
       </c>
       <c r="E40" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>1633692</v>
+        <f ca="1">ROUND(IF($C40&gt;userRetirementAge, IF($D40&gt;0,-FV(annualChangeInSWP, $C40-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E39+E39*(annualIncreaseInSavings)), 0)</f>
+        <v>-1833448</v>
       </c>
       <c r="F40" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C40)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C40)</f>
         <v>0</v>
       </c>
       <c r="G40" s="4" t="str" cm="1">
@@ -2612,37 +2883,41 @@
         <v/>
       </c>
       <c r="H40" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>32301144</v>
+        <f ca="1">IF(AND($C40&gt;userRetirementAge, SUM($E40, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E40, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>126056</v>
       </c>
       <c r="I40" s="5">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J40" s="5">
+        <f ca="1">ROUND(IF($C40&gt;=userRetirementAge, IF($I40&gt;0, $I40*annualEffectivePostRetirementROI, 0), IF($I40&gt;0, $I40*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <f ca="1">ROUND(I40+J40, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1292046</v>
-      </c>
-      <c r="J40" s="6">
+        <v>2056</v>
+      </c>
+      <c r="C41" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>33593190</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="3">
-        <f t="shared" ca="1" si="2"/>
-        <v>2056</v>
-      </c>
-      <c r="C41" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>33593190</v>
+        <f ca="1">ROUND(K40, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E41" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>1715377</v>
+        <f ca="1">ROUND(IF($C41&gt;userRetirementAge, IF($D41&gt;0,-FV(annualChangeInSWP, $C41-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E40+E40*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F41" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C41)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C41)</f>
         <v>0</v>
       </c>
       <c r="G41" s="4" t="str" cm="1">
@@ -2650,37 +2925,41 @@
         <v/>
       </c>
       <c r="H41" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>35308567</v>
+        <f ca="1">IF(AND($C41&gt;userRetirementAge, SUM($E41, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E41, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" ref="I41:I72" ca="1" si="7">ROUND(IF($C41&gt;=userRetirementAge, IF($H41&gt;0, $H41*annualEffectivePostRetirementROI, 0), IF($H41&gt;0, $H41*annualEffectiveROI, 0)), 0)</f>
-        <v>1412343</v>
-      </c>
-      <c r="J41" s="6">
-        <f t="shared" ref="J41:J72" ca="1" si="8">ROUND(H41+I41, 0)</f>
-        <v>36720910</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J41" s="5">
+        <f ca="1">ROUND(IF($C41&gt;=userRetirementAge, IF($I41&gt;0, $I41*annualEffectivePostRetirementROI, 0), IF($I41&gt;0, $I41*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <f ca="1">ROUND(I41+J41, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="3">
-        <f t="shared" ref="B42:B73" ca="1" si="9">B41+1</f>
+        <f t="shared" ref="B42:B73" ca="1" si="3">B41+1</f>
         <v>2057</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" ref="C42:C73" ca="1" si="10">C41+1</f>
-        <v>58</v>
+        <f t="shared" ref="C42:C73" ca="1" si="4">C41+1</f>
+        <v>90</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" ref="D42:D73" ca="1" si="11">ROUND(J41, 0)</f>
-        <v>36720910</v>
+        <f ca="1">ROUND(K41, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E42" s="14">
-        <f t="shared" ref="E42:E73" ca="1" si="12">ROUND(IF($C42&gt;userRetirementAge, IF($D42&gt;0,-FV(annualChangeInSWP, $C42-userRetirementAge-1, 0, -annualAmountSWP, 1), 0), E41+E41*(annualIncreaseInSavings)), 0)</f>
-        <v>1801146</v>
+        <f ca="1">ROUND(IF($C42&gt;userRetirementAge, IF($D42&gt;0,-FV(annualChangeInSWP, $C42-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E41+E41*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F42" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C42)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C42)</f>
         <v>0</v>
       </c>
       <c r="G42" s="4" t="str" cm="1">
@@ -2688,37 +2967,41 @@
         <v/>
       </c>
       <c r="H42" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>38522056</v>
+        <f ca="1">IF(AND($C42&gt;userRetirementAge, SUM($E42, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E42, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>1540882</v>
-      </c>
-      <c r="J42" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>40062938</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J42" s="5">
+        <f ca="1">ROUND(IF($C42&gt;=userRetirementAge, IF($I42&gt;0, $I42*annualEffectivePostRetirementROI, 0), IF($I42&gt;0, $I42*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <f ca="1">ROUND(I42+J42, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2058</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>59</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>91</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>40062938</v>
+        <f ca="1">ROUND(K42, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E43" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>1891203</v>
+        <f ca="1">ROUND(IF($C43&gt;userRetirementAge, IF($D43&gt;0,-FV(annualChangeInSWP, $C43-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E42+E42*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F43" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C43)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C43)</f>
         <v>0</v>
       </c>
       <c r="G43" s="4" t="str" cm="1">
@@ -2726,75 +3009,83 @@
         <v/>
       </c>
       <c r="H43" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>41954141</v>
+        <f ca="1">IF(AND($C43&gt;userRetirementAge, SUM($E43, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E43, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>1678166</v>
-      </c>
-      <c r="J43" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>43632307</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J43" s="5">
+        <f ca="1">ROUND(IF($C43&gt;=userRetirementAge, IF($I43&gt;0, $I43*annualEffectivePostRetirementROI, 0), IF($I43&gt;0, $I43*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <f ca="1">ROUND(I43+J43, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2059</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>60</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>92</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>43632307</v>
+        <f ca="1">ROUND(K43, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E44" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>1985763</v>
+        <f ca="1">ROUND(IF($C44&gt;userRetirementAge, IF($D44&gt;0,-FV(annualChangeInSWP, $C44-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E43+E43*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F44" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C44)</f>
-        <v>500000</v>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C44)</f>
+        <v>0</v>
       </c>
       <c r="G44" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G44" ca="1">_xlfn.TEXTJOIN(", ", TRUE, IF('Input-Events'!E$4:E$106=$C44, 'Input-Events'!D$4:D$106, ""))</f>
-        <v>International Trip, Retirement Corpus, Retirement</v>
+        <v/>
       </c>
       <c r="H44" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>46118070</v>
+        <f ca="1">IF(AND($C44&gt;userRetirementAge, SUM($E44, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E44, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>922361</v>
-      </c>
-      <c r="J44" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>47040431</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J44" s="5">
+        <f ca="1">ROUND(IF($C44&gt;=userRetirementAge, IF($I44&gt;0, $I44*annualEffectivePostRetirementROI, 0), IF($I44&gt;0, $I44*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <f ca="1">ROUND(I44+J44, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2060</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>61</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>47040431</v>
+        <f ca="1">ROUND(K44, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E45" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-1200000</v>
+        <f ca="1">ROUND(IF($C45&gt;userRetirementAge, IF($D45&gt;0,-FV(annualChangeInSWP, $C45-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E44+E44*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F45" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C45)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C45)</f>
         <v>0</v>
       </c>
       <c r="G45" s="4" t="str" cm="1">
@@ -2802,37 +3093,41 @@
         <v/>
       </c>
       <c r="H45" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>45840431</v>
+        <f ca="1">IF(AND($C45&gt;userRetirementAge, SUM($E45, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E45, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>916809</v>
-      </c>
-      <c r="J45" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>46757240</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J45" s="5">
+        <f ca="1">ROUND(IF($C45&gt;=userRetirementAge, IF($I45&gt;0, $I45*annualEffectivePostRetirementROI, 0), IF($I45&gt;0, $I45*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <f ca="1">ROUND(I45+J45, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2061</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>94</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>46757240</v>
+        <f ca="1">ROUND(K45, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E46" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-1260000</v>
+        <f ca="1">ROUND(IF($C46&gt;userRetirementAge, IF($D46&gt;0,-FV(annualChangeInSWP, $C46-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E45+E45*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F46" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C46)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C46)</f>
         <v>0</v>
       </c>
       <c r="G46" s="4" t="str" cm="1">
@@ -2840,37 +3135,41 @@
         <v/>
       </c>
       <c r="H46" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>45497240</v>
+        <f ca="1">IF(AND($C46&gt;userRetirementAge, SUM($E46, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E46, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>909945</v>
-      </c>
-      <c r="J46" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>46407185</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J46" s="5">
+        <f ca="1">ROUND(IF($C46&gt;=userRetirementAge, IF($I46&gt;0, $I46*annualEffectivePostRetirementROI, 0), IF($I46&gt;0, $I46*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <f ca="1">ROUND(I46+J46, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2062</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>95</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>46407185</v>
+        <f ca="1">ROUND(K46, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E47" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-1323000</v>
+        <f ca="1">ROUND(IF($C47&gt;userRetirementAge, IF($D47&gt;0,-FV(annualChangeInSWP, $C47-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E46+E46*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F47" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C47)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C47)</f>
         <v>0</v>
       </c>
       <c r="G47" s="4" t="str" cm="1">
@@ -2878,37 +3177,41 @@
         <v/>
       </c>
       <c r="H47" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>45084185</v>
+        <f ca="1">IF(AND($C47&gt;userRetirementAge, SUM($E47, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E47, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>901684</v>
-      </c>
-      <c r="J47" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>45985869</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J47" s="5">
+        <f ca="1">ROUND(IF($C47&gt;=userRetirementAge, IF($I47&gt;0, $I47*annualEffectivePostRetirementROI, 0), IF($I47&gt;0, $I47*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <f ca="1">ROUND(I47+J47, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2063</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>96</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>45985869</v>
+        <f ca="1">ROUND(K47, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E48" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-1389150</v>
+        <f ca="1">ROUND(IF($C48&gt;userRetirementAge, IF($D48&gt;0,-FV(annualChangeInSWP, $C48-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E47+E47*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F48" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C48)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C48)</f>
         <v>0</v>
       </c>
       <c r="G48" s="4" t="str" cm="1">
@@ -2916,37 +3219,41 @@
         <v/>
       </c>
       <c r="H48" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>44596719</v>
+        <f ca="1">IF(AND($C48&gt;userRetirementAge, SUM($E48, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E48, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>891934</v>
-      </c>
-      <c r="J48" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>45488653</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J48" s="5">
+        <f ca="1">ROUND(IF($C48&gt;=userRetirementAge, IF($I48&gt;0, $I48*annualEffectivePostRetirementROI, 0), IF($I48&gt;0, $I48*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <f ca="1">ROUND(I48+J48, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2064</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>65</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>97</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>45488653</v>
+        <f ca="1">ROUND(K48, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E49" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-1458608</v>
+        <f ca="1">ROUND(IF($C49&gt;userRetirementAge, IF($D49&gt;0,-FV(annualChangeInSWP, $C49-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E48+E48*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F49" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C49)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C49)</f>
         <v>0</v>
       </c>
       <c r="G49" s="4" t="str" cm="1">
@@ -2954,37 +3261,41 @@
         <v/>
       </c>
       <c r="H49" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>44030045</v>
+        <f ca="1">IF(AND($C49&gt;userRetirementAge, SUM($E49, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E49, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>880601</v>
-      </c>
-      <c r="J49" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>44910646</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J49" s="5">
+        <f ca="1">ROUND(IF($C49&gt;=userRetirementAge, IF($I49&gt;0, $I49*annualEffectivePostRetirementROI, 0), IF($I49&gt;0, $I49*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <f ca="1">ROUND(I49+J49, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2065</v>
       </c>
       <c r="C50" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>66</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>98</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>44910646</v>
+        <f ca="1">ROUND(K49, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E50" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-1531538</v>
+        <f ca="1">ROUND(IF($C50&gt;userRetirementAge, IF($D50&gt;0,-FV(annualChangeInSWP, $C50-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E49+E49*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F50" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C50)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C50)</f>
         <v>0</v>
       </c>
       <c r="G50" s="4" t="str" cm="1">
@@ -2992,37 +3303,41 @@
         <v/>
       </c>
       <c r="H50" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>43379108</v>
+        <f ca="1">IF(AND($C50&gt;userRetirementAge, SUM($E50, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E50, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>867582</v>
-      </c>
-      <c r="J50" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>44246690</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J50" s="5">
+        <f ca="1">ROUND(IF($C50&gt;=userRetirementAge, IF($I50&gt;0, $I50*annualEffectivePostRetirementROI, 0), IF($I50&gt;0, $I50*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <f ca="1">ROUND(I50+J50, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2066</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>67</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>99</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>44246690</v>
+        <f ca="1">ROUND(K50, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E51" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-1608115</v>
+        <f ca="1">ROUND(IF($C51&gt;userRetirementAge, IF($D51&gt;0,-FV(annualChangeInSWP, $C51-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E50+E50*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F51" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C51)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C51)</f>
         <v>0</v>
       </c>
       <c r="G51" s="4" t="str" cm="1">
@@ -3030,37 +3345,41 @@
         <v/>
       </c>
       <c r="H51" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>42638575</v>
+        <f ca="1">IF(AND($C51&gt;userRetirementAge, SUM($E51, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E51, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>852772</v>
-      </c>
-      <c r="J51" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>43491347</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J51" s="5">
+        <f ca="1">ROUND(IF($C51&gt;=userRetirementAge, IF($I51&gt;0, $I51*annualEffectivePostRetirementROI, 0), IF($I51&gt;0, $I51*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <f ca="1">ROUND(I51+J51, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2067</v>
       </c>
       <c r="C52" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>68</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>100</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>43491347</v>
+        <f ca="1">ROUND(K51, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E52" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-1688521</v>
+        <f ca="1">ROUND(IF($C52&gt;userRetirementAge, IF($D52&gt;0,-FV(annualChangeInSWP, $C52-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E51+E51*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F52" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C52)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C52)</f>
         <v>0</v>
       </c>
       <c r="G52" s="4" t="str" cm="1">
@@ -3068,37 +3387,41 @@
         <v/>
       </c>
       <c r="H52" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>41802826</v>
+        <f ca="1">IF(AND($C52&gt;userRetirementAge, SUM($E52, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E52, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>836057</v>
-      </c>
-      <c r="J52" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>42638883</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J52" s="5">
+        <f ca="1">ROUND(IF($C52&gt;=userRetirementAge, IF($I52&gt;0, $I52*annualEffectivePostRetirementROI, 0), IF($I52&gt;0, $I52*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <f ca="1">ROUND(I52+J52, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2068</v>
       </c>
       <c r="C53" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>69</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>101</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>42638883</v>
+        <f ca="1">ROUND(K52, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E53" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-1772947</v>
+        <f ca="1">ROUND(IF($C53&gt;userRetirementAge, IF($D53&gt;0,-FV(annualChangeInSWP, $C53-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E52+E52*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F53" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C53)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C53)</f>
         <v>0</v>
       </c>
       <c r="G53" s="4" t="str" cm="1">
@@ -3106,37 +3429,41 @@
         <v/>
       </c>
       <c r="H53" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>40865936</v>
+        <f ca="1">IF(AND($C53&gt;userRetirementAge, SUM($E53, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E53, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>817319</v>
-      </c>
-      <c r="J53" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>41683255</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J53" s="5">
+        <f ca="1">ROUND(IF($C53&gt;=userRetirementAge, IF($I53&gt;0, $I53*annualEffectivePostRetirementROI, 0), IF($I53&gt;0, $I53*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="6">
+        <f ca="1">ROUND(I53+J53, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2069</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>102</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>41683255</v>
+        <f ca="1">ROUND(K53, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E54" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-1861594</v>
+        <f ca="1">ROUND(IF($C54&gt;userRetirementAge, IF($D54&gt;0,-FV(annualChangeInSWP, $C54-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E53+E53*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F54" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C54)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C54)</f>
         <v>0</v>
       </c>
       <c r="G54" s="4" t="str" cm="1">
@@ -3144,37 +3471,41 @@
         <v/>
       </c>
       <c r="H54" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>39821661</v>
+        <f ca="1">IF(AND($C54&gt;userRetirementAge, SUM($E54, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E54, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>796433</v>
-      </c>
-      <c r="J54" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>40618094</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J54" s="5">
+        <f ca="1">ROUND(IF($C54&gt;=userRetirementAge, IF($I54&gt;0, $I54*annualEffectivePostRetirementROI, 0), IF($I54&gt;0, $I54*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <f ca="1">ROUND(I54+J54, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2070</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>71</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>103</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>40618094</v>
+        <f ca="1">ROUND(K54, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E55" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-1954674</v>
+        <f ca="1">ROUND(IF($C55&gt;userRetirementAge, IF($D55&gt;0,-FV(annualChangeInSWP, $C55-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E54+E54*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F55" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C55)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C55)</f>
         <v>0</v>
       </c>
       <c r="G55" s="4" t="str" cm="1">
@@ -3182,37 +3513,41 @@
         <v/>
       </c>
       <c r="H55" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>38663420</v>
+        <f ca="1">IF(AND($C55&gt;userRetirementAge, SUM($E55, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E55, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>773268</v>
-      </c>
-      <c r="J55" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>39436688</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J55" s="5">
+        <f ca="1">ROUND(IF($C55&gt;=userRetirementAge, IF($I55&gt;0, $I55*annualEffectivePostRetirementROI, 0), IF($I55&gt;0, $I55*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="6">
+        <f ca="1">ROUND(I55+J55, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2071</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>104</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>39436688</v>
+        <f ca="1">ROUND(K55, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E56" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-2052407</v>
+        <f ca="1">ROUND(IF($C56&gt;userRetirementAge, IF($D56&gt;0,-FV(annualChangeInSWP, $C56-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E55+E55*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F56" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C56)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C56)</f>
         <v>0</v>
       </c>
       <c r="G56" s="4" t="str" cm="1">
@@ -3220,37 +3555,41 @@
         <v/>
       </c>
       <c r="H56" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>37384281</v>
+        <f ca="1">IF(AND($C56&gt;userRetirementAge, SUM($E56, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E56, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>747686</v>
-      </c>
-      <c r="J56" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>38131967</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J56" s="5">
+        <f ca="1">ROUND(IF($C56&gt;=userRetirementAge, IF($I56&gt;0, $I56*annualEffectivePostRetirementROI, 0), IF($I56&gt;0, $I56*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="6">
+        <f ca="1">ROUND(I56+J56, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2072</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>73</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>105</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>38131967</v>
+        <f ca="1">ROUND(K56, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E57" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-2155028</v>
+        <f ca="1">ROUND(IF($C57&gt;userRetirementAge, IF($D57&gt;0,-FV(annualChangeInSWP, $C57-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E56+E56*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F57" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C57)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C57)</f>
         <v>0</v>
       </c>
       <c r="G57" s="4" t="str" cm="1">
@@ -3258,37 +3597,41 @@
         <v/>
       </c>
       <c r="H57" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>35976939</v>
+        <f ca="1">IF(AND($C57&gt;userRetirementAge, SUM($E57, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E57, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>719539</v>
-      </c>
-      <c r="J57" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>36696478</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J57" s="5">
+        <f ca="1">ROUND(IF($C57&gt;=userRetirementAge, IF($I57&gt;0, $I57*annualEffectivePostRetirementROI, 0), IF($I57&gt;0, $I57*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="6">
+        <f ca="1">ROUND(I57+J57, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2073</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>74</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>106</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>36696478</v>
+        <f ca="1">ROUND(K57, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E58" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-2262779</v>
+        <f ca="1">ROUND(IF($C58&gt;userRetirementAge, IF($D58&gt;0,-FV(annualChangeInSWP, $C58-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E57+E57*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F58" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C58)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C58)</f>
         <v>0</v>
       </c>
       <c r="G58" s="4" t="str" cm="1">
@@ -3296,37 +3639,41 @@
         <v/>
       </c>
       <c r="H58" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>34433699</v>
+        <f ca="1">IF(AND($C58&gt;userRetirementAge, SUM($E58, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E58, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>688674</v>
-      </c>
-      <c r="J58" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>35122373</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J58" s="5">
+        <f ca="1">ROUND(IF($C58&gt;=userRetirementAge, IF($I58&gt;0, $I58*annualEffectivePostRetirementROI, 0), IF($I58&gt;0, $I58*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="6">
+        <f ca="1">ROUND(I58+J58, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2074</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>107</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>35122373</v>
+        <f ca="1">ROUND(K58, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E59" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-2375918</v>
+        <f ca="1">ROUND(IF($C59&gt;userRetirementAge, IF($D59&gt;0,-FV(annualChangeInSWP, $C59-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E58+E58*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F59" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C59)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C59)</f>
         <v>0</v>
       </c>
       <c r="G59" s="4" t="str" cm="1">
@@ -3334,37 +3681,41 @@
         <v/>
       </c>
       <c r="H59" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>32746455</v>
+        <f ca="1">IF(AND($C59&gt;userRetirementAge, SUM($E59, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E59, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>654929</v>
-      </c>
-      <c r="J59" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>33401384</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J59" s="5">
+        <f ca="1">ROUND(IF($C59&gt;=userRetirementAge, IF($I59&gt;0, $I59*annualEffectivePostRetirementROI, 0), IF($I59&gt;0, $I59*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="6">
+        <f ca="1">ROUND(I59+J59, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2075</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>76</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>108</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>33401384</v>
+        <f ca="1">ROUND(K59, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E60" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-2494714</v>
+        <f ca="1">ROUND(IF($C60&gt;userRetirementAge, IF($D60&gt;0,-FV(annualChangeInSWP, $C60-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E59+E59*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F60" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C60)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C60)</f>
         <v>0</v>
       </c>
       <c r="G60" s="4" t="str" cm="1">
@@ -3372,37 +3723,41 @@
         <v/>
       </c>
       <c r="H60" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>30906670</v>
+        <f ca="1">IF(AND($C60&gt;userRetirementAge, SUM($E60, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E60, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I60" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>618133</v>
-      </c>
-      <c r="J60" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>31524803</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J60" s="5">
+        <f ca="1">ROUND(IF($C60&gt;=userRetirementAge, IF($I60&gt;0, $I60*annualEffectivePostRetirementROI, 0), IF($I60&gt;0, $I60*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K60" s="6">
+        <f ca="1">ROUND(I60+J60, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2076</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>77</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>109</v>
       </c>
       <c r="D61" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>31524803</v>
+        <f ca="1">ROUND(K60, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E61" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-2619450</v>
+        <f ca="1">ROUND(IF($C61&gt;userRetirementAge, IF($D61&gt;0,-FV(annualChangeInSWP, $C61-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E60+E60*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F61" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C61)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C61)</f>
         <v>0</v>
       </c>
       <c r="G61" s="4" t="str" cm="1">
@@ -3410,37 +3765,41 @@
         <v/>
       </c>
       <c r="H61" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>28905353</v>
+        <f ca="1">IF(AND($C61&gt;userRetirementAge, SUM($E61, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E61, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>578107</v>
-      </c>
-      <c r="J61" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>29483460</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J61" s="5">
+        <f ca="1">ROUND(IF($C61&gt;=userRetirementAge, IF($I61&gt;0, $I61*annualEffectivePostRetirementROI, 0), IF($I61&gt;0, $I61*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="6">
+        <f ca="1">ROUND(I61+J61, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2077</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>78</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>110</v>
       </c>
       <c r="D62" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>29483460</v>
+        <f ca="1">ROUND(K61, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E62" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-2750422</v>
+        <f ca="1">ROUND(IF($C62&gt;userRetirementAge, IF($D62&gt;0,-FV(annualChangeInSWP, $C62-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E61+E61*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F62" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C62)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C62)</f>
         <v>0</v>
       </c>
       <c r="G62" s="4" t="str" cm="1">
@@ -3448,37 +3807,41 @@
         <v/>
       </c>
       <c r="H62" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>26733038</v>
+        <f ca="1">IF(AND($C62&gt;userRetirementAge, SUM($E62, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E62, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>534661</v>
-      </c>
-      <c r="J62" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>27267699</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J62" s="5">
+        <f ca="1">ROUND(IF($C62&gt;=userRetirementAge, IF($I62&gt;0, $I62*annualEffectivePostRetirementROI, 0), IF($I62&gt;0, $I62*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="6">
+        <f ca="1">ROUND(I62+J62, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2078</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>79</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>111</v>
       </c>
       <c r="D63" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>27267699</v>
+        <f ca="1">ROUND(K62, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E63" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-2887943</v>
+        <f ca="1">ROUND(IF($C63&gt;userRetirementAge, IF($D63&gt;0,-FV(annualChangeInSWP, $C63-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E62+E62*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F63" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C63)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C63)</f>
         <v>0</v>
       </c>
       <c r="G63" s="4" t="str" cm="1">
@@ -3486,75 +3849,83 @@
         <v/>
       </c>
       <c r="H63" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>24379756</v>
+        <f ca="1">IF(AND($C63&gt;userRetirementAge, SUM($E63, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E63, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>487595</v>
-      </c>
-      <c r="J63" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>24867351</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J63" s="5">
+        <f ca="1">ROUND(IF($C63&gt;=userRetirementAge, IF($I63&gt;0, $I63*annualEffectivePostRetirementROI, 0), IF($I63&gt;0, $I63*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="6">
+        <f ca="1">ROUND(I63+J63, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2079</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>112</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>24867351</v>
+        <f ca="1">ROUND(K63, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E64" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-3032340</v>
+        <f ca="1">ROUND(IF($C64&gt;userRetirementAge, IF($D64&gt;0,-FV(annualChangeInSWP, $C64-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E63+E63*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F64" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C64)</f>
-        <v>10000000</v>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C64)</f>
+        <v>0</v>
       </c>
       <c r="G64" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="G64" ca="1">_xlfn.TEXTJOIN(", ", TRUE, IF('Input-Events'!E$4:E$106=$C64, 'Input-Events'!D$4:D$106, ""))</f>
-        <v>Term Insurance, Life Expectancy</v>
+        <v/>
       </c>
       <c r="H64" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>31835011</v>
+        <f ca="1">IF(AND($C64&gt;userRetirementAge, SUM($E64, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E64, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>636700</v>
-      </c>
-      <c r="J64" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>32471711</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J64" s="5">
+        <f ca="1">ROUND(IF($C64&gt;=userRetirementAge, IF($I64&gt;0, $I64*annualEffectivePostRetirementROI, 0), IF($I64&gt;0, $I64*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K64" s="6">
+        <f ca="1">ROUND(I64+J64, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2080</v>
       </c>
       <c r="C65" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>81</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>113</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>32471711</v>
+        <f ca="1">ROUND(K64, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E65" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-3183957</v>
+        <f ca="1">ROUND(IF($C65&gt;userRetirementAge, IF($D65&gt;0,-FV(annualChangeInSWP, $C65-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E64+E64*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F65" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C65)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C65)</f>
         <v>0</v>
       </c>
       <c r="G65" s="4" t="str" cm="1">
@@ -3562,37 +3933,41 @@
         <v/>
       </c>
       <c r="H65" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>29287754</v>
+        <f ca="1">IF(AND($C65&gt;userRetirementAge, SUM($E65, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E65, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>585755</v>
-      </c>
-      <c r="J65" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>29873509</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J65" s="5">
+        <f ca="1">ROUND(IF($C65&gt;=userRetirementAge, IF($I65&gt;0, $I65*annualEffectivePostRetirementROI, 0), IF($I65&gt;0, $I65*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="6">
+        <f ca="1">ROUND(I65+J65, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2081</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>114</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>29873509</v>
+        <f ca="1">ROUND(K65, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E66" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-3343155</v>
+        <f ca="1">ROUND(IF($C66&gt;userRetirementAge, IF($D66&gt;0,-FV(annualChangeInSWP, $C66-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E65+E65*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F66" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C66)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C66)</f>
         <v>0</v>
       </c>
       <c r="G66" s="4" t="str" cm="1">
@@ -3600,37 +3975,41 @@
         <v/>
       </c>
       <c r="H66" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>26530354</v>
+        <f ca="1">IF(AND($C66&gt;userRetirementAge, SUM($E66, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E66, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I66" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>530607</v>
-      </c>
-      <c r="J66" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>27060961</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J66" s="5">
+        <f ca="1">ROUND(IF($C66&gt;=userRetirementAge, IF($I66&gt;0, $I66*annualEffectivePostRetirementROI, 0), IF($I66&gt;0, $I66*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="6">
+        <f ca="1">ROUND(I66+J66, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2082</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>83</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>115</v>
       </c>
       <c r="D67" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>27060961</v>
+        <f ca="1">ROUND(K66, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E67" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-3510313</v>
+        <f ca="1">ROUND(IF($C67&gt;userRetirementAge, IF($D67&gt;0,-FV(annualChangeInSWP, $C67-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E66+E66*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F67" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C67)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C67)</f>
         <v>0</v>
       </c>
       <c r="G67" s="4" t="str" cm="1">
@@ -3638,37 +4017,41 @@
         <v/>
       </c>
       <c r="H67" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>23550648</v>
+        <f ca="1">IF(AND($C67&gt;userRetirementAge, SUM($E67, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E67, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I67" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>471013</v>
-      </c>
-      <c r="J67" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>24021661</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J67" s="5">
+        <f ca="1">ROUND(IF($C67&gt;=userRetirementAge, IF($I67&gt;0, $I67*annualEffectivePostRetirementROI, 0), IF($I67&gt;0, $I67*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K67" s="6">
+        <f ca="1">ROUND(I67+J67, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2083</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>84</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>116</v>
       </c>
       <c r="D68" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>24021661</v>
+        <f ca="1">ROUND(K67, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E68" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-3685829</v>
+        <f ca="1">ROUND(IF($C68&gt;userRetirementAge, IF($D68&gt;0,-FV(annualChangeInSWP, $C68-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E67+E67*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F68" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C68)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C68)</f>
         <v>0</v>
       </c>
       <c r="G68" s="4" t="str" cm="1">
@@ -3676,37 +4059,41 @@
         <v/>
       </c>
       <c r="H68" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>20335832</v>
+        <f ca="1">IF(AND($C68&gt;userRetirementAge, SUM($E68, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E68, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I68" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>406717</v>
-      </c>
-      <c r="J68" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>20742549</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J68" s="5">
+        <f ca="1">ROUND(IF($C68&gt;=userRetirementAge, IF($I68&gt;0, $I68*annualEffectivePostRetirementROI, 0), IF($I68&gt;0, $I68*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="6">
+        <f ca="1">ROUND(I68+J68, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2084</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>85</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>117</v>
       </c>
       <c r="D69" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>20742549</v>
+        <f ca="1">ROUND(K68, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E69" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-3870120</v>
+        <f ca="1">ROUND(IF($C69&gt;userRetirementAge, IF($D69&gt;0,-FV(annualChangeInSWP, $C69-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E68+E68*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F69" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C69)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C69)</f>
         <v>0</v>
       </c>
       <c r="G69" s="4" t="str" cm="1">
@@ -3714,37 +4101,41 @@
         <v/>
       </c>
       <c r="H69" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>16872429</v>
+        <f ca="1">IF(AND($C69&gt;userRetirementAge, SUM($E69, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E69, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I69" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>337449</v>
-      </c>
-      <c r="J69" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>17209878</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J69" s="5">
+        <f ca="1">ROUND(IF($C69&gt;=userRetirementAge, IF($I69&gt;0, $I69*annualEffectivePostRetirementROI, 0), IF($I69&gt;0, $I69*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="6">
+        <f ca="1">ROUND(I69+J69, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2085</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>118</v>
       </c>
       <c r="D70" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>17209878</v>
+        <f ca="1">ROUND(K69, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E70" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-4063626</v>
+        <f ca="1">ROUND(IF($C70&gt;userRetirementAge, IF($D70&gt;0,-FV(annualChangeInSWP, $C70-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E69+E69*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F70" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C70)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C70)</f>
         <v>0</v>
       </c>
       <c r="G70" s="4" t="str" cm="1">
@@ -3752,37 +4143,41 @@
         <v/>
       </c>
       <c r="H70" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>13146252</v>
+        <f ca="1">IF(AND($C70&gt;userRetirementAge, SUM($E70, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E70, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I70" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>262925</v>
-      </c>
-      <c r="J70" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>13409177</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J70" s="5">
+        <f ca="1">ROUND(IF($C70&gt;=userRetirementAge, IF($I70&gt;0, $I70*annualEffectivePostRetirementROI, 0), IF($I70&gt;0, $I70*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="6">
+        <f ca="1">ROUND(I70+J70, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2086</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>87</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>119</v>
       </c>
       <c r="D71" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>13409177</v>
+        <f ca="1">ROUND(K70, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E71" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-4266807</v>
+        <f ca="1">ROUND(IF($C71&gt;userRetirementAge, IF($D71&gt;0,-FV(annualChangeInSWP, $C71-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E70+E70*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F71" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C71)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C71)</f>
         <v>0</v>
       </c>
       <c r="G71" s="4" t="str" cm="1">
@@ -3790,37 +4185,41 @@
         <v/>
       </c>
       <c r="H71" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>9142370</v>
+        <f ca="1">IF(AND($C71&gt;userRetirementAge, SUM($E71, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E71, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>182847</v>
-      </c>
-      <c r="J71" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>9325217</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J71" s="5">
+        <f ca="1">ROUND(IF($C71&gt;=userRetirementAge, IF($I71&gt;0, $I71*annualEffectivePostRetirementROI, 0), IF($I71&gt;0, $I71*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="6">
+        <f ca="1">ROUND(I71+J71, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2087</v>
       </c>
       <c r="C72" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>88</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>120</v>
       </c>
       <c r="D72" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>9325217</v>
+        <f ca="1">ROUND(K71, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E72" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-4480148</v>
+        <f ca="1">ROUND(IF($C72&gt;userRetirementAge, IF($D72&gt;0,-FV(annualChangeInSWP, $C72-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E71+E71*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F72" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C72)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C72)</f>
         <v>0</v>
       </c>
       <c r="G72" s="4" t="str" cm="1">
@@ -3828,37 +4227,41 @@
         <v/>
       </c>
       <c r="H72" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>4845069</v>
+        <f ca="1">IF(AND($C72&gt;userRetirementAge, SUM($E72, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E72, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" ca="1" si="7"/>
-        <v>96901</v>
-      </c>
-      <c r="J72" s="6">
-        <f t="shared" ca="1" si="8"/>
-        <v>4941970</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J72" s="5">
+        <f ca="1">ROUND(IF($C72&gt;=userRetirementAge, IF($I72&gt;0, $I72*annualEffectivePostRetirementROI, 0), IF($I72&gt;0, $I72*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="6">
+        <f ca="1">ROUND(I72+J72, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2088</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" ca="1" si="10"/>
-        <v>89</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>121</v>
       </c>
       <c r="D73" s="5">
-        <f t="shared" ca="1" si="11"/>
-        <v>4941970</v>
+        <f ca="1">ROUND(K72, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E73" s="14">
-        <f t="shared" ca="1" si="12"/>
-        <v>-4704155</v>
+        <f ca="1">ROUND(IF($C73&gt;userRetirementAge, IF($D73&gt;0,-FV(annualChangeInSWP, $C73-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E72+E72*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F73" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C73)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C73)</f>
         <v>0</v>
       </c>
       <c r="G73" s="4" t="str" cm="1">
@@ -3866,37 +4269,41 @@
         <v/>
       </c>
       <c r="H73" s="5">
-        <f t="shared" ca="1" si="6"/>
-        <v>237815</v>
+        <f ca="1">IF(AND($C73&gt;userRetirementAge, SUM($E73, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E73, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" ref="I73:I109" ca="1" si="13">ROUND(IF($C73&gt;=userRetirementAge, IF($H73&gt;0, $H73*annualEffectivePostRetirementROI, 0), IF($H73&gt;0, $H73*annualEffectiveROI, 0)), 0)</f>
-        <v>4756</v>
-      </c>
-      <c r="J73" s="6">
-        <f t="shared" ref="J73:J104" ca="1" si="14">ROUND(H73+I73, 0)</f>
-        <v>242571</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="2"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J73" s="5">
+        <f ca="1">ROUND(IF($C73&gt;=userRetirementAge, IF($I73&gt;0, $I73*annualEffectivePostRetirementROI, 0), IF($I73&gt;0, $I73*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K73" s="6">
+        <f ca="1">ROUND(I73+J73, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
-        <f t="shared" ref="B74:B109" ca="1" si="15">B73+1</f>
+        <f t="shared" ref="B74:B109" ca="1" si="5">B73+1</f>
         <v>2089</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" ref="C74:C109" ca="1" si="16">C73+1</f>
-        <v>90</v>
+        <f t="shared" ref="C74:C109" ca="1" si="6">C73+1</f>
+        <v>122</v>
       </c>
       <c r="D74" s="5">
-        <f t="shared" ref="D74:D109" ca="1" si="17">ROUND(J73, 0)</f>
-        <v>242571</v>
+        <f ca="1">ROUND(K73, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E74" s="14">
-        <f t="shared" ref="E74:E109" ca="1" si="18">ROUND(IF($C74&gt;userRetirementAge, IF($D74&gt;0,-FV(annualChangeInSWP, $C74-userRetirementAge-1, 0, -annualAmountSWP, 1), 0), E73+E73*(annualIncreaseInSavings)), 0)</f>
-        <v>-4939363</v>
+        <f ca="1">ROUND(IF($C74&gt;userRetirementAge, IF($D74&gt;0,-FV(annualChangeInSWP, $C74-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E73+E73*(annualIncreaseInSavings)), 0)</f>
+        <v>0</v>
       </c>
       <c r="F74" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C74)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C74)</f>
         <v>0</v>
       </c>
       <c r="G74" s="4" t="str" cm="1">
@@ -3904,37 +4311,41 @@
         <v/>
       </c>
       <c r="H74" s="5">
-        <f t="shared" ref="H74:H109" ca="1" si="19">$D74+$E74+$F74</f>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C74&gt;userRetirementAge, SUM($E74, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E74, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I74:I109" ca="1" si="7">$D74+$E74+$F74-$H74</f>
+        <v>-1546418</v>
+      </c>
+      <c r="J74" s="5">
+        <f ca="1">ROUND(IF($C74&gt;=userRetirementAge, IF($I74&gt;0, $I74*annualEffectivePostRetirementROI, 0), IF($I74&gt;0, $I74*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="6">
+        <f ca="1">ROUND(I74+J74, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2090</v>
       </c>
       <c r="C75" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>91</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>123</v>
       </c>
       <c r="D75" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K74, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E75" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C75&gt;userRetirementAge, IF($D75&gt;0,-FV(annualChangeInSWP, $C75-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E74+E74*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F75" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C75)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C75)</f>
         <v>0</v>
       </c>
       <c r="G75" s="4" t="str" cm="1">
@@ -3942,37 +4353,41 @@
         <v/>
       </c>
       <c r="H75" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C75&gt;userRetirementAge, SUM($E75, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E75, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J75" s="5">
+        <f ca="1">ROUND(IF($C75&gt;=userRetirementAge, IF($I75&gt;0, $I75*annualEffectivePostRetirementROI, 0), IF($I75&gt;0, $I75*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K75" s="6">
+        <f ca="1">ROUND(I75+J75, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2091</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>92</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>124</v>
       </c>
       <c r="D76" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K75, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E76" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C76&gt;userRetirementAge, IF($D76&gt;0,-FV(annualChangeInSWP, $C76-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E75+E75*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F76" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C76)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C76)</f>
         <v>0</v>
       </c>
       <c r="G76" s="4" t="str" cm="1">
@@ -3980,37 +4395,41 @@
         <v/>
       </c>
       <c r="H76" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C76&gt;userRetirementAge, SUM($E76, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E76, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J76" s="5">
+        <f ca="1">ROUND(IF($C76&gt;=userRetirementAge, IF($I76&gt;0, $I76*annualEffectivePostRetirementROI, 0), IF($I76&gt;0, $I76*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K76" s="6">
+        <f ca="1">ROUND(I76+J76, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2092</v>
       </c>
       <c r="C77" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>93</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>125</v>
       </c>
       <c r="D77" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K76, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E77" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C77&gt;userRetirementAge, IF($D77&gt;0,-FV(annualChangeInSWP, $C77-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E76+E76*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F77" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C77)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C77)</f>
         <v>0</v>
       </c>
       <c r="G77" s="4" t="str" cm="1">
@@ -4018,37 +4437,41 @@
         <v/>
       </c>
       <c r="H77" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C77&gt;userRetirementAge, SUM($E77, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E77, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J77" s="5">
+        <f ca="1">ROUND(IF($C77&gt;=userRetirementAge, IF($I77&gt;0, $I77*annualEffectivePostRetirementROI, 0), IF($I77&gt;0, $I77*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="6">
+        <f ca="1">ROUND(I77+J77, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2093</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>94</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>126</v>
       </c>
       <c r="D78" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K77, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E78" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C78&gt;userRetirementAge, IF($D78&gt;0,-FV(annualChangeInSWP, $C78-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E77+E77*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F78" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C78)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C78)</f>
         <v>0</v>
       </c>
       <c r="G78" s="4" t="str" cm="1">
@@ -4056,37 +4479,41 @@
         <v/>
       </c>
       <c r="H78" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C78&gt;userRetirementAge, SUM($E78, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E78, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J78" s="5">
+        <f ca="1">ROUND(IF($C78&gt;=userRetirementAge, IF($I78&gt;0, $I78*annualEffectivePostRetirementROI, 0), IF($I78&gt;0, $I78*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K78" s="6">
+        <f ca="1">ROUND(I78+J78, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2094</v>
       </c>
       <c r="C79" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>95</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>127</v>
       </c>
       <c r="D79" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K78, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E79" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C79&gt;userRetirementAge, IF($D79&gt;0,-FV(annualChangeInSWP, $C79-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E78+E78*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F79" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C79)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C79)</f>
         <v>0</v>
       </c>
       <c r="G79" s="4" t="str" cm="1">
@@ -4094,37 +4521,41 @@
         <v/>
       </c>
       <c r="H79" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C79&gt;userRetirementAge, SUM($E79, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E79, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J79" s="5">
+        <f ca="1">ROUND(IF($C79&gt;=userRetirementAge, IF($I79&gt;0, $I79*annualEffectivePostRetirementROI, 0), IF($I79&gt;0, $I79*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="6">
+        <f ca="1">ROUND(I79+J79, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2095</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>128</v>
       </c>
       <c r="D80" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K79, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E80" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C80&gt;userRetirementAge, IF($D80&gt;0,-FV(annualChangeInSWP, $C80-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E79+E79*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F80" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C80)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C80)</f>
         <v>0</v>
       </c>
       <c r="G80" s="4" t="str" cm="1">
@@ -4132,37 +4563,41 @@
         <v/>
       </c>
       <c r="H80" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C80&gt;userRetirementAge, SUM($E80, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E80, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J80" s="5">
+        <f ca="1">ROUND(IF($C80&gt;=userRetirementAge, IF($I80&gt;0, $I80*annualEffectivePostRetirementROI, 0), IF($I80&gt;0, $I80*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="6">
+        <f ca="1">ROUND(I80+J80, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2096</v>
       </c>
       <c r="C81" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>97</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>129</v>
       </c>
       <c r="D81" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K80, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E81" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C81&gt;userRetirementAge, IF($D81&gt;0,-FV(annualChangeInSWP, $C81-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E80+E80*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F81" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C81)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C81)</f>
         <v>0</v>
       </c>
       <c r="G81" s="4" t="str" cm="1">
@@ -4170,37 +4605,41 @@
         <v/>
       </c>
       <c r="H81" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C81&gt;userRetirementAge, SUM($E81, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E81, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I81" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J81" s="5">
+        <f ca="1">ROUND(IF($C81&gt;=userRetirementAge, IF($I81&gt;0, $I81*annualEffectivePostRetirementROI, 0), IF($I81&gt;0, $I81*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="6">
+        <f ca="1">ROUND(I81+J81, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2097</v>
       </c>
       <c r="C82" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>98</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>130</v>
       </c>
       <c r="D82" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K81, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E82" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C82&gt;userRetirementAge, IF($D82&gt;0,-FV(annualChangeInSWP, $C82-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E81+E81*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F82" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C82)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C82)</f>
         <v>0</v>
       </c>
       <c r="G82" s="4" t="str" cm="1">
@@ -4208,37 +4647,41 @@
         <v/>
       </c>
       <c r="H82" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C82&gt;userRetirementAge, SUM($E82, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E82, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I82" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J82" s="5">
+        <f ca="1">ROUND(IF($C82&gt;=userRetirementAge, IF($I82&gt;0, $I82*annualEffectivePostRetirementROI, 0), IF($I82&gt;0, $I82*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="6">
+        <f ca="1">ROUND(I82+J82, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2098</v>
       </c>
       <c r="C83" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>99</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>131</v>
       </c>
       <c r="D83" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K82, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E83" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C83&gt;userRetirementAge, IF($D83&gt;0,-FV(annualChangeInSWP, $C83-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E82+E82*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F83" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C83)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C83)</f>
         <v>0</v>
       </c>
       <c r="G83" s="4" t="str" cm="1">
@@ -4246,37 +4689,41 @@
         <v/>
       </c>
       <c r="H83" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C83&gt;userRetirementAge, SUM($E83, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E83, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J83" s="5">
+        <f ca="1">ROUND(IF($C83&gt;=userRetirementAge, IF($I83&gt;0, $I83*annualEffectivePostRetirementROI, 0), IF($I83&gt;0, $I83*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="6">
+        <f ca="1">ROUND(I83+J83, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2099</v>
       </c>
       <c r="C84" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>132</v>
       </c>
       <c r="D84" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K83, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E84" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C84&gt;userRetirementAge, IF($D84&gt;0,-FV(annualChangeInSWP, $C84-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E83+E83*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F84" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C84)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C84)</f>
         <v>0</v>
       </c>
       <c r="G84" s="4" t="str" cm="1">
@@ -4284,37 +4731,41 @@
         <v/>
       </c>
       <c r="H84" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C84&gt;userRetirementAge, SUM($E84, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E84, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J84" s="5">
+        <f ca="1">ROUND(IF($C84&gt;=userRetirementAge, IF($I84&gt;0, $I84*annualEffectivePostRetirementROI, 0), IF($I84&gt;0, $I84*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K84" s="6">
+        <f ca="1">ROUND(I84+J84, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2100</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>101</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>133</v>
       </c>
       <c r="D85" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K84, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E85" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C85&gt;userRetirementAge, IF($D85&gt;0,-FV(annualChangeInSWP, $C85-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E84+E84*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F85" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C85)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C85)</f>
         <v>0</v>
       </c>
       <c r="G85" s="4" t="str" cm="1">
@@ -4322,37 +4773,41 @@
         <v/>
       </c>
       <c r="H85" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C85&gt;userRetirementAge, SUM($E85, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E85, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J85" s="5">
+        <f ca="1">ROUND(IF($C85&gt;=userRetirementAge, IF($I85&gt;0, $I85*annualEffectivePostRetirementROI, 0), IF($I85&gt;0, $I85*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="6">
+        <f ca="1">ROUND(I85+J85, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2101</v>
       </c>
       <c r="C86" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>102</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>134</v>
       </c>
       <c r="D86" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K85, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E86" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C86&gt;userRetirementAge, IF($D86&gt;0,-FV(annualChangeInSWP, $C86-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E85+E85*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F86" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C86)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C86)</f>
         <v>0</v>
       </c>
       <c r="G86" s="4" t="str" cm="1">
@@ -4360,37 +4815,41 @@
         <v/>
       </c>
       <c r="H86" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C86&gt;userRetirementAge, SUM($E86, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E86, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J86" s="5">
+        <f ca="1">ROUND(IF($C86&gt;=userRetirementAge, IF($I86&gt;0, $I86*annualEffectivePostRetirementROI, 0), IF($I86&gt;0, $I86*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="6">
+        <f ca="1">ROUND(I86+J86, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2102</v>
       </c>
       <c r="C87" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>103</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>135</v>
       </c>
       <c r="D87" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K86, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E87" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C87&gt;userRetirementAge, IF($D87&gt;0,-FV(annualChangeInSWP, $C87-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E86+E86*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F87" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C87)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C87)</f>
         <v>0</v>
       </c>
       <c r="G87" s="4" t="str" cm="1">
@@ -4398,37 +4857,41 @@
         <v/>
       </c>
       <c r="H87" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C87&gt;userRetirementAge, SUM($E87, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E87, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J87" s="5">
+        <f ca="1">ROUND(IF($C87&gt;=userRetirementAge, IF($I87&gt;0, $I87*annualEffectivePostRetirementROI, 0), IF($I87&gt;0, $I87*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K87" s="6">
+        <f ca="1">ROUND(I87+J87, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2103</v>
       </c>
       <c r="C88" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>104</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>136</v>
       </c>
       <c r="D88" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K87, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E88" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C88&gt;userRetirementAge, IF($D88&gt;0,-FV(annualChangeInSWP, $C88-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E87+E87*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F88" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C88)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C88)</f>
         <v>0</v>
       </c>
       <c r="G88" s="4" t="str" cm="1">
@@ -4436,37 +4899,41 @@
         <v/>
       </c>
       <c r="H88" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C88&gt;userRetirementAge, SUM($E88, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E88, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I88" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J88" s="5">
+        <f ca="1">ROUND(IF($C88&gt;=userRetirementAge, IF($I88&gt;0, $I88*annualEffectivePostRetirementROI, 0), IF($I88&gt;0, $I88*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K88" s="6">
+        <f ca="1">ROUND(I88+J88, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2104</v>
       </c>
       <c r="C89" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>105</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>137</v>
       </c>
       <c r="D89" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K88, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E89" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C89&gt;userRetirementAge, IF($D89&gt;0,-FV(annualChangeInSWP, $C89-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E88+E88*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F89" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C89)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C89)</f>
         <v>0</v>
       </c>
       <c r="G89" s="4" t="str" cm="1">
@@ -4474,37 +4941,41 @@
         <v/>
       </c>
       <c r="H89" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C89&gt;userRetirementAge, SUM($E89, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E89, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I89" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J89" s="5">
+        <f ca="1">ROUND(IF($C89&gt;=userRetirementAge, IF($I89&gt;0, $I89*annualEffectivePostRetirementROI, 0), IF($I89&gt;0, $I89*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K89" s="6">
+        <f ca="1">ROUND(I89+J89, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2105</v>
       </c>
       <c r="C90" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>106</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>138</v>
       </c>
       <c r="D90" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K89, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E90" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C90&gt;userRetirementAge, IF($D90&gt;0,-FV(annualChangeInSWP, $C90-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E89+E89*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F90" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C90)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C90)</f>
         <v>0</v>
       </c>
       <c r="G90" s="4" t="str" cm="1">
@@ -4512,37 +4983,41 @@
         <v/>
       </c>
       <c r="H90" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C90&gt;userRetirementAge, SUM($E90, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E90, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I90" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J90" s="5">
+        <f ca="1">ROUND(IF($C90&gt;=userRetirementAge, IF($I90&gt;0, $I90*annualEffectivePostRetirementROI, 0), IF($I90&gt;0, $I90*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K90" s="6">
+        <f ca="1">ROUND(I90+J90, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2106</v>
       </c>
       <c r="C91" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>107</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>139</v>
       </c>
       <c r="D91" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K90, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E91" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C91&gt;userRetirementAge, IF($D91&gt;0,-FV(annualChangeInSWP, $C91-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E90+E90*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F91" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C91)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C91)</f>
         <v>0</v>
       </c>
       <c r="G91" s="4" t="str" cm="1">
@@ -4550,37 +5025,41 @@
         <v/>
       </c>
       <c r="H91" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C91&gt;userRetirementAge, SUM($E91, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E91, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I91" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J91" s="5">
+        <f ca="1">ROUND(IF($C91&gt;=userRetirementAge, IF($I91&gt;0, $I91*annualEffectivePostRetirementROI, 0), IF($I91&gt;0, $I91*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K91" s="6">
+        <f ca="1">ROUND(I91+J91, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2107</v>
       </c>
       <c r="C92" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>108</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>140</v>
       </c>
       <c r="D92" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K91, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E92" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C92&gt;userRetirementAge, IF($D92&gt;0,-FV(annualChangeInSWP, $C92-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E91+E91*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F92" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C92)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C92)</f>
         <v>0</v>
       </c>
       <c r="G92" s="4" t="str" cm="1">
@@ -4588,37 +5067,41 @@
         <v/>
       </c>
       <c r="H92" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C92&gt;userRetirementAge, SUM($E92, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E92, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I92" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J92" s="5">
+        <f ca="1">ROUND(IF($C92&gt;=userRetirementAge, IF($I92&gt;0, $I92*annualEffectivePostRetirementROI, 0), IF($I92&gt;0, $I92*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="6">
+        <f ca="1">ROUND(I92+J92, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2108</v>
       </c>
       <c r="C93" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>109</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>141</v>
       </c>
       <c r="D93" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K92, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E93" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C93&gt;userRetirementAge, IF($D93&gt;0,-FV(annualChangeInSWP, $C93-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E92+E92*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F93" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C93)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C93)</f>
         <v>0</v>
       </c>
       <c r="G93" s="4" t="str" cm="1">
@@ -4626,37 +5109,41 @@
         <v/>
       </c>
       <c r="H93" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C93&gt;userRetirementAge, SUM($E93, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E93, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I93" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J93" s="5">
+        <f ca="1">ROUND(IF($C93&gt;=userRetirementAge, IF($I93&gt;0, $I93*annualEffectivePostRetirementROI, 0), IF($I93&gt;0, $I93*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K93" s="6">
+        <f ca="1">ROUND(I93+J93, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2109</v>
       </c>
       <c r="C94" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>110</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>142</v>
       </c>
       <c r="D94" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K93, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E94" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C94&gt;userRetirementAge, IF($D94&gt;0,-FV(annualChangeInSWP, $C94-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E93+E93*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F94" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C94)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C94)</f>
         <v>0</v>
       </c>
       <c r="G94" s="4" t="str" cm="1">
@@ -4664,37 +5151,41 @@
         <v/>
       </c>
       <c r="H94" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C94&gt;userRetirementAge, SUM($E94, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E94, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I94" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J94" s="5">
+        <f ca="1">ROUND(IF($C94&gt;=userRetirementAge, IF($I94&gt;0, $I94*annualEffectivePostRetirementROI, 0), IF($I94&gt;0, $I94*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K94" s="6">
+        <f ca="1">ROUND(I94+J94, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2110</v>
       </c>
       <c r="C95" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>111</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>143</v>
       </c>
       <c r="D95" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K94, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E95" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C95&gt;userRetirementAge, IF($D95&gt;0,-FV(annualChangeInSWP, $C95-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E94+E94*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F95" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C95)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C95)</f>
         <v>0</v>
       </c>
       <c r="G95" s="4" t="str" cm="1">
@@ -4702,37 +5193,41 @@
         <v/>
       </c>
       <c r="H95" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C95&gt;userRetirementAge, SUM($E95, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E95, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I95" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J95" s="5">
+        <f ca="1">ROUND(IF($C95&gt;=userRetirementAge, IF($I95&gt;0, $I95*annualEffectivePostRetirementROI, 0), IF($I95&gt;0, $I95*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K95" s="6">
+        <f ca="1">ROUND(I95+J95, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2111</v>
       </c>
       <c r="C96" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>112</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>144</v>
       </c>
       <c r="D96" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K95, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E96" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C96&gt;userRetirementAge, IF($D96&gt;0,-FV(annualChangeInSWP, $C96-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E95+E95*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F96" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C96)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C96)</f>
         <v>0</v>
       </c>
       <c r="G96" s="4" t="str" cm="1">
@@ -4740,37 +5235,41 @@
         <v/>
       </c>
       <c r="H96" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C96&gt;userRetirementAge, SUM($E96, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E96, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I96" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J96" s="5">
+        <f ca="1">ROUND(IF($C96&gt;=userRetirementAge, IF($I96&gt;0, $I96*annualEffectivePostRetirementROI, 0), IF($I96&gt;0, $I96*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="6">
+        <f ca="1">ROUND(I96+J96, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2112</v>
       </c>
       <c r="C97" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>113</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>145</v>
       </c>
       <c r="D97" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K96, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E97" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C97&gt;userRetirementAge, IF($D97&gt;0,-FV(annualChangeInSWP, $C97-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E96+E96*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F97" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C97)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C97)</f>
         <v>0</v>
       </c>
       <c r="G97" s="4" t="str" cm="1">
@@ -4778,37 +5277,41 @@
         <v/>
       </c>
       <c r="H97" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C97&gt;userRetirementAge, SUM($E97, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E97, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I97" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J97" s="5">
+        <f ca="1">ROUND(IF($C97&gt;=userRetirementAge, IF($I97&gt;0, $I97*annualEffectivePostRetirementROI, 0), IF($I97&gt;0, $I97*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K97" s="6">
+        <f ca="1">ROUND(I97+J97, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2113</v>
       </c>
       <c r="C98" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>114</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>146</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K97, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E98" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C98&gt;userRetirementAge, IF($D98&gt;0,-FV(annualChangeInSWP, $C98-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E97+E97*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F98" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C98)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C98)</f>
         <v>0</v>
       </c>
       <c r="G98" s="4" t="str" cm="1">
@@ -4816,37 +5319,41 @@
         <v/>
       </c>
       <c r="H98" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C98&gt;userRetirementAge, SUM($E98, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E98, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I98" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J98" s="5">
+        <f ca="1">ROUND(IF($C98&gt;=userRetirementAge, IF($I98&gt;0, $I98*annualEffectivePostRetirementROI, 0), IF($I98&gt;0, $I98*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="6">
+        <f ca="1">ROUND(I98+J98, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2114</v>
       </c>
       <c r="C99" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>115</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>147</v>
       </c>
       <c r="D99" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K98, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E99" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C99&gt;userRetirementAge, IF($D99&gt;0,-FV(annualChangeInSWP, $C99-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E98+E98*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F99" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C99)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C99)</f>
         <v>0</v>
       </c>
       <c r="G99" s="4" t="str" cm="1">
@@ -4854,37 +5361,41 @@
         <v/>
       </c>
       <c r="H99" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C99&gt;userRetirementAge, SUM($E99, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E99, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I99" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J99" s="5">
+        <f ca="1">ROUND(IF($C99&gt;=userRetirementAge, IF($I99&gt;0, $I99*annualEffectivePostRetirementROI, 0), IF($I99&gt;0, $I99*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K99" s="6">
+        <f ca="1">ROUND(I99+J99, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2115</v>
       </c>
       <c r="C100" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>116</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>148</v>
       </c>
       <c r="D100" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K99, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E100" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C100&gt;userRetirementAge, IF($D100&gt;0,-FV(annualChangeInSWP, $C100-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E99+E99*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F100" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C100)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C100)</f>
         <v>0</v>
       </c>
       <c r="G100" s="4" t="str" cm="1">
@@ -4892,37 +5403,41 @@
         <v/>
       </c>
       <c r="H100" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C100&gt;userRetirementAge, SUM($E100, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E100, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I100" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J100" s="5">
+        <f ca="1">ROUND(IF($C100&gt;=userRetirementAge, IF($I100&gt;0, $I100*annualEffectivePostRetirementROI, 0), IF($I100&gt;0, $I100*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K100" s="6">
+        <f ca="1">ROUND(I100+J100, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2116</v>
       </c>
       <c r="C101" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>117</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>149</v>
       </c>
       <c r="D101" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K100, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E101" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C101&gt;userRetirementAge, IF($D101&gt;0,-FV(annualChangeInSWP, $C101-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E100+E100*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F101" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C101)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C101)</f>
         <v>0</v>
       </c>
       <c r="G101" s="4" t="str" cm="1">
@@ -4930,37 +5445,41 @@
         <v/>
       </c>
       <c r="H101" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C101&gt;userRetirementAge, SUM($E101, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E101, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I101" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J101" s="5">
+        <f ca="1">ROUND(IF($C101&gt;=userRetirementAge, IF($I101&gt;0, $I101*annualEffectivePostRetirementROI, 0), IF($I101&gt;0, $I101*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K101" s="6">
+        <f ca="1">ROUND(I101+J101, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2117</v>
       </c>
       <c r="C102" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>118</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>150</v>
       </c>
       <c r="D102" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K101, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E102" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C102&gt;userRetirementAge, IF($D102&gt;0,-FV(annualChangeInSWP, $C102-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E101+E101*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F102" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C102)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C102)</f>
         <v>0</v>
       </c>
       <c r="G102" s="4" t="str" cm="1">
@@ -4968,37 +5487,41 @@
         <v/>
       </c>
       <c r="H102" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C102&gt;userRetirementAge, SUM($E102, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E102, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I102" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J102" s="5">
+        <f ca="1">ROUND(IF($C102&gt;=userRetirementAge, IF($I102&gt;0, $I102*annualEffectivePostRetirementROI, 0), IF($I102&gt;0, $I102*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K102" s="6">
+        <f ca="1">ROUND(I102+J102, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2118</v>
       </c>
       <c r="C103" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>119</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>151</v>
       </c>
       <c r="D103" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K102, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E103" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C103&gt;userRetirementAge, IF($D103&gt;0,-FV(annualChangeInSWP, $C103-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E102+E102*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F103" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C103)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C103)</f>
         <v>0</v>
       </c>
       <c r="G103" s="4" t="str" cm="1">
@@ -5006,37 +5529,41 @@
         <v/>
       </c>
       <c r="H103" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C103&gt;userRetirementAge, SUM($E103, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E103, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J103" s="5">
+        <f ca="1">ROUND(IF($C103&gt;=userRetirementAge, IF($I103&gt;0, $I103*annualEffectivePostRetirementROI, 0), IF($I103&gt;0, $I103*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="6">
+        <f ca="1">ROUND(I103+J103, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2119</v>
       </c>
       <c r="C104" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>120</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>152</v>
       </c>
       <c r="D104" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K103, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E104" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C104&gt;userRetirementAge, IF($D104&gt;0,-FV(annualChangeInSWP, $C104-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E103+E103*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F104" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C104)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C104)</f>
         <v>0</v>
       </c>
       <c r="G104" s="4" t="str" cm="1">
@@ -5044,37 +5571,41 @@
         <v/>
       </c>
       <c r="H104" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C104&gt;userRetirementAge, SUM($E104, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E104, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I104" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="6">
-        <f t="shared" ca="1" si="14"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J104" s="5">
+        <f ca="1">ROUND(IF($C104&gt;=userRetirementAge, IF($I104&gt;0, $I104*annualEffectivePostRetirementROI, 0), IF($I104&gt;0, $I104*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K104" s="6">
+        <f ca="1">ROUND(I104+J104, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2120</v>
       </c>
       <c r="C105" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>121</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>153</v>
       </c>
       <c r="D105" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K104, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E105" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C105&gt;userRetirementAge, IF($D105&gt;0,-FV(annualChangeInSWP, $C105-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E104+E104*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F105" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C105)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C105)</f>
         <v>0</v>
       </c>
       <c r="G105" s="4" t="str" cm="1">
@@ -5082,37 +5613,41 @@
         <v/>
       </c>
       <c r="H105" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C105&gt;userRetirementAge, SUM($E105, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E105, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I105" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="6">
-        <f t="shared" ref="J105:J109" ca="1" si="20">ROUND(H105+I105, 0)</f>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J105" s="5">
+        <f ca="1">ROUND(IF($C105&gt;=userRetirementAge, IF($I105&gt;0, $I105*annualEffectivePostRetirementROI, 0), IF($I105&gt;0, $I105*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K105" s="6">
+        <f ca="1">ROUND(I105+J105, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2121</v>
       </c>
       <c r="C106" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>122</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>154</v>
       </c>
       <c r="D106" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K105, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E106" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C106&gt;userRetirementAge, IF($D106&gt;0,-FV(annualChangeInSWP, $C106-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E105+E105*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F106" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C106)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C106)</f>
         <v>0</v>
       </c>
       <c r="G106" s="4" t="str" cm="1">
@@ -5120,37 +5655,41 @@
         <v/>
       </c>
       <c r="H106" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C106&gt;userRetirementAge, SUM($E106, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E106, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I106" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="6">
-        <f t="shared" ca="1" si="20"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J106" s="5">
+        <f ca="1">ROUND(IF($C106&gt;=userRetirementAge, IF($I106&gt;0, $I106*annualEffectivePostRetirementROI, 0), IF($I106&gt;0, $I106*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K106" s="6">
+        <f ca="1">ROUND(I106+J106, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2122</v>
       </c>
       <c r="C107" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>123</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>155</v>
       </c>
       <c r="D107" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K106, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E107" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C107&gt;userRetirementAge, IF($D107&gt;0,-FV(annualChangeInSWP, $C107-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E106+E106*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F107" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C107)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C107)</f>
         <v>0</v>
       </c>
       <c r="G107" s="4" t="str" cm="1">
@@ -5158,37 +5697,41 @@
         <v/>
       </c>
       <c r="H107" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C107&gt;userRetirementAge, SUM($E107, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E107, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="6">
-        <f t="shared" ca="1" si="20"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J107" s="5">
+        <f ca="1">ROUND(IF($C107&gt;=userRetirementAge, IF($I107&gt;0, $I107*annualEffectivePostRetirementROI, 0), IF($I107&gt;0, $I107*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="6">
+        <f ca="1">ROUND(I107+J107, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="3">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2123</v>
       </c>
       <c r="C108" s="4">
-        <f t="shared" ca="1" si="16"/>
-        <v>124</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>156</v>
       </c>
       <c r="D108" s="5">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K107, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E108" s="14">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C108&gt;userRetirementAge, IF($D108&gt;0,-FV(annualChangeInSWP, $C108-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E107+E107*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F108" s="5">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C108)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C108)</f>
         <v>0</v>
       </c>
       <c r="G108" s="4" t="str" cm="1">
@@ -5196,37 +5739,41 @@
         <v/>
       </c>
       <c r="H108" s="5">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C108&gt;userRetirementAge, SUM($E108, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E108, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I108" s="5">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="6">
-        <f t="shared" ca="1" si="20"/>
-        <v>-4696792</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J108" s="5">
+        <f ca="1">ROUND(IF($C108&gt;=userRetirementAge, IF($I108&gt;0, $I108*annualEffectivePostRetirementROI, 0), IF($I108&gt;0, $I108*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K108" s="6">
+        <f ca="1">ROUND(I108+J108, 0)</f>
+        <v>-1546418</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="7">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2124</v>
       </c>
       <c r="C109" s="8">
-        <f t="shared" ca="1" si="16"/>
-        <v>125</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>157</v>
       </c>
       <c r="D109" s="9">
-        <f t="shared" ca="1" si="17"/>
-        <v>-4696792</v>
+        <f ca="1">ROUND(K108, 0)</f>
+        <v>-1546418</v>
       </c>
       <c r="E109" s="37">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">ROUND(IF($C109&gt;userRetirementAge, IF($D109&gt;0,-FV(annualChangeInSWP, $C109-userRetirementAge-1, 0, -annualWithdrawalSWP_FV, 1), 0), E108+E108*(annualIncreaseInSavings)), 0)</f>
         <v>0</v>
       </c>
       <c r="F109" s="9">
-        <f ca="1">-SUMIFS('Input-Events'!F$4:F$106, 'Input-Events'!E$4:E$106, $C109)</f>
+        <f ca="1">-SUMIFS('Input-Events'!H$4:H$106, 'Input-Events'!E$4:E$106, $C109)</f>
         <v>0</v>
       </c>
       <c r="G109" s="8" t="str" cm="1">
@@ -5234,41 +5781,64 @@
         <v/>
       </c>
       <c r="H109" s="9">
-        <f t="shared" ca="1" si="19"/>
-        <v>-4696792</v>
+        <f ca="1">IF(AND($C109&gt;userRetirementAge, SUM($E109, swpLTCGExemption, swpOtherTaxExemptions) &lt; 0), (-SUM($E109, swpLTCGExemption, swpOtherTaxExemptions))*swpLTCGTaxPercentage, 0)</f>
+        <v>0</v>
       </c>
       <c r="I109" s="9">
-        <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="10">
-        <f t="shared" ca="1" si="20"/>
-        <v>-4696792</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>-1546418</v>
+      </c>
+      <c r="J109" s="9">
+        <f ca="1">ROUND(IF($C109&gt;=userRetirementAge, IF($I109&gt;0, $I109*annualEffectivePostRetirementROI, 0), IF($I109&gt;0, $I109*annualEffectiveROI, 0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K109" s="10">
+        <f ca="1">ROUND(I109+J109, 0)</f>
+        <v>-1546418</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6VlK7/FZJ7O4E9Po5So4L3eiAGd/sCrgfal6A3YzB6phlLUdo+67x9KdDIAROnCFSpTHpdgqisnuHWy/q0oCZg==" saltValue="EjzTuJcyHzZkTf5G9Cg+qw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
-  <conditionalFormatting sqref="B9:J109">
-    <cfRule type="expression" dxfId="5" priority="1">
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <conditionalFormatting sqref="I9:K109 B9:G109">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$C9&gt;userLifeExpectancyAge</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>$C9=userLifeExpectancyAge</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$C9=userRetirementAge</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>IF($C9&gt;userRetirementAge, $C9&lt;userLifeExpectancyAge)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:F109 H9:H109">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="lessThan">
+  <conditionalFormatting sqref="I9:I109 D9:F109">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:J109">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
+  <conditionalFormatting sqref="J9:K109">
+    <cfRule type="cellIs" dxfId="5" priority="14" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H109">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$C9&gt;userLifeExpectancyAge</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>$C9=userLifeExpectancyAge</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$C9=userRetirementAge</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>IF($C9&gt;userRetirementAge, $C9&lt;userLifeExpectancyAge)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H109">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5310,20 +5880,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81A75B6-952D-4F5A-A6D3-C8680062EE1E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
     <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -5360,18 +5930,20 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="E7" s="75" t="s">
+      <c r="C7" s="74"/>
+      <c r="E7" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="74"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="55"/>
       <c r="E8" s="1"/>
       <c r="F8" s="15"/>
       <c r="M8" s="45"/>
@@ -5389,7 +5961,7 @@
       </c>
       <c r="F9" s="46">
         <f ca="1">DATEDIF(C10, TODAY(), "y")</f>
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="M9" s="45"/>
       <c r="N9" s="21"/>
@@ -5399,7 +5971,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="53">
-        <v>36526</v>
+        <v>24838</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>18</v>
@@ -5413,10 +5985,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="C11" s="54">
-        <v>50000</v>
+        <v>120000</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="32"/>
@@ -5428,14 +6000,14 @@
         <v>5</v>
       </c>
       <c r="C12" s="54">
-        <v>100000</v>
+        <v>5000000</v>
       </c>
       <c r="E12" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="47">
         <f>ROUND(12*(userIncome-userMonthlyExpenses),0)</f>
-        <v>360000</v>
+        <v>1200000</v>
       </c>
       <c r="M12" s="45"/>
       <c r="N12" s="20"/>
@@ -5445,25 +6017,25 @@
         <v>83</v>
       </c>
       <c r="C13" s="54">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>34</v>
       </c>
       <c r="F13" s="48">
         <f>$C$16-SUM($C$17:$C$19)</f>
-        <v>3.9999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="55"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="31"/>
+      <c r="C14" s="86"/>
       <c r="E14" s="26" t="s">
         <v>73</v>
       </c>
       <c r="F14" s="48">
         <f>$C$24-SUM($C$25:$C$27)</f>
-        <v>2.0000000000000004E-2</v>
+        <v>7.9999999999999988E-2</v>
       </c>
       <c r="M14" s="45"/>
       <c r="N14" s="23"/>
@@ -5482,11 +6054,16 @@
       <c r="B16" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="56">
-        <v>0.15</v>
-      </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="32"/>
+      <c r="C16" s="82">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="47">
+        <f ca="1">ROUND(FV($C$25, userRetirementAge-userAge, 0, -annualAmountSWP, 1), 0)</f>
+        <v>1373880</v>
+      </c>
       <c r="M16" s="45"/>
       <c r="N16" s="23"/>
     </row>
@@ -5494,8 +6071,8 @@
       <c r="B17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="57">
-        <v>7.0000000000000007E-2</v>
+      <c r="C17" s="82">
+        <v>0</v>
       </c>
       <c r="E17" s="26"/>
       <c r="F17" s="32"/>
@@ -5506,8 +6083,8 @@
       <c r="B18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="57">
-        <v>0.03</v>
+      <c r="C18" s="82">
+        <v>0</v>
       </c>
       <c r="E18" s="26"/>
       <c r="F18" s="32"/>
@@ -5518,8 +6095,8 @@
       <c r="B19" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="57">
-        <v>0.01</v>
+      <c r="C19" s="82">
+        <v>0</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="32"/>
@@ -5534,15 +6111,15 @@
       <c r="B21" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="82">
         <v>0.05</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="32"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
-      <c r="C22" s="55"/>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="31"/>
+      <c r="C22" s="86"/>
       <c r="E22" s="26"/>
       <c r="F22" s="32"/>
     </row>
@@ -5560,8 +6137,8 @@
       <c r="B24" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="56">
-        <v>0.1</v>
+      <c r="C24" s="82">
+        <v>0.15</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="49"/>
@@ -5571,7 +6148,7 @@
       <c r="B25" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="82">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -5580,8 +6157,8 @@
       <c r="B26" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="57">
-        <v>0.01</v>
+      <c r="C26" s="82">
+        <v>0</v>
       </c>
       <c r="M26" s="45"/>
       <c r="N26" s="50"/>
@@ -5591,7 +6168,7 @@
       <c r="B27" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="82">
         <v>0</v>
       </c>
       <c r="M27" s="45"/>
@@ -5620,14 +6197,14 @@
       <c r="B30" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="56">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="82">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="55"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="86"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -5640,20 +6217,50 @@
       <c r="B33" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="58">
-        <v>60</v>
+      <c r="C33" s="56">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="57">
         <v>80</v>
       </c>
     </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="84"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="54">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="54">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="85">
+        <v>0.125</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ngvSPMoSE8cL0ovX1bjYHNqTmyFqaKLI0uTIYGHxX8QsM8z71q7FRNUSPAgVfsLA8BA7n8xhcVYGT5g1ZFEthA==" saltValue="gVeLhGZfpfwrYXuCMRzQag==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="2">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F7"/>
@@ -5669,7 +6276,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="49" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5685,42 +6292,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I1" s="60" t="str">
+      <c r="I1" s="58" t="str">
         <f>CONCATENATE("*Make sure total expense doesn't exceed monthly income of ", userMonthlyIncome )</f>
-        <v>*Make sure total expense doesn't exceed monthly income of 50000</v>
-      </c>
-      <c r="L1" s="77" t="s">
+        <v>*Make sure total expense doesn't exceed monthly income of 120000</v>
+      </c>
+      <c r="L1" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="61">
         <f>SUM(E4:E45)</f>
         <v>20000</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="74">
+      <c r="M3" s="72">
         <v>12000</v>
       </c>
-      <c r="N3" s="63">
+      <c r="N3" s="61">
         <f>ROUND(M3/12, 0)</f>
         <v>1000</v>
       </c>
@@ -5732,13 +6339,13 @@
       <c r="E4" s="13">
         <v>10000</v>
       </c>
-      <c r="L4" s="61" t="s">
+      <c r="L4" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="74">
+      <c r="M4" s="72">
         <v>6000</v>
       </c>
-      <c r="N4" s="63">
+      <c r="N4" s="61">
         <f>ROUND(M4/6, 0)</f>
         <v>1000</v>
       </c>
@@ -5750,13 +6357,13 @@
       <c r="E5" s="13">
         <v>3000</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="74">
+      <c r="M5" s="72">
         <v>3000</v>
       </c>
-      <c r="N5" s="63">
+      <c r="N5" s="61">
         <f>ROUND(M5/3, 0)</f>
         <v>1000</v>
       </c>
@@ -5768,13 +6375,13 @@
       <c r="E6" s="13">
         <v>3000</v>
       </c>
-      <c r="L6" s="61" t="s">
+      <c r="L6" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="74">
+      <c r="M6" s="72">
         <v>2000</v>
       </c>
-      <c r="N6" s="63">
+      <c r="N6" s="61">
         <f>ROUND(M6/2, 0)</f>
         <v>1000</v>
       </c>
@@ -5786,13 +6393,13 @@
       <c r="E7" s="13">
         <v>2000</v>
       </c>
-      <c r="L7" s="61" t="s">
+      <c r="L7" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="74">
+      <c r="M7" s="72">
         <v>250</v>
       </c>
-      <c r="N7" s="63">
+      <c r="N7" s="61">
         <f>ROUND(M7*4, 0)</f>
         <v>1000</v>
       </c>
@@ -5804,13 +6411,13 @@
       <c r="E8" s="13">
         <v>1000</v>
       </c>
-      <c r="L8" s="61" t="s">
+      <c r="L8" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="74">
+      <c r="M8" s="72">
         <v>100</v>
       </c>
-      <c r="N8" s="63">
+      <c r="N8" s="61">
         <f>ROUND(M8*30, 0)</f>
         <v>3000</v>
       </c>
@@ -5964,7 +6571,7 @@
       <c r="E44" s="13"/>
     </row>
     <row r="45" spans="4:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="68"/>
+      <c r="D45" s="66"/>
       <c r="E45" s="25"/>
     </row>
   </sheetData>
@@ -5982,66 +6589,88 @@
   <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="66.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="58" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="58" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="63">
+      <c r="B3" s="61">
         <f>SUMIF($F$4:$F$106, "&gt;=0")</f>
-        <v>7050000</v>
+        <v>7100000</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="64" t="s">
-        <v>14</v>
+      <c r="F3" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="63">
+      <c r="B4" s="61">
         <f>-SUMIF($F$4:$F$106, "&lt;0")</f>
-        <v>11300000</v>
+        <v>12100000</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
+      <c r="G4" s="76">
+        <v>0</v>
+      </c>
+      <c r="H4" s="77">
+        <f>IF(AND($G4 &gt; 0, $E4 &gt; 0), CEILING(FV($G4, $E4-userAge, 0, -$F4, 1), 1000), $F4)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="12">
-        <v>26</v>
-      </c>
-      <c r="F5" s="13">
-        <v>50000</v>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="77">
+        <f>IF(AND($G5 &gt; 0, $E5 &gt; 0), CEILING(FV($G5, $E5-userAge, 0, -$F5, 1), 1000), $F5)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -6050,33 +6679,65 @@
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
+      <c r="G6" s="76">
+        <v>0</v>
+      </c>
+      <c r="H6" s="77">
+        <f>IF(AND($G6 &gt; 0, $E6 &gt; 0), CEILING(FV($G6, $E6-userAge, 0, -$F6, 1), 1000), $F6)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F7" s="13">
         <v>1000000</v>
+      </c>
+      <c r="G7" s="76">
+        <v>0.05</v>
+      </c>
+      <c r="H7" s="77">
+        <f ca="1">IF(AND($G7 &gt; 0, $E7 &gt; 0), CEILING(FV($G7, $E7-userAge, 0, -$F7, 1), 1000), $F7)</f>
+        <v>359000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="12">
+        <v>34</v>
+      </c>
+      <c r="F8" s="13">
+        <v>100000</v>
+      </c>
+      <c r="G8" s="76">
+        <v>0</v>
+      </c>
+      <c r="H8" s="77">
+        <f>IF(AND($G8 &gt; 0, $E8 &gt; 0), CEILING(FV($G8, $E8-userAge, 0, -$F8, 1), 1000), $F8)</f>
+        <v>100000</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="12">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F9" s="13">
+        <v>500000</v>
+      </c>
+      <c r="G9" s="76">
+        <v>0</v>
+      </c>
+      <c r="H9" s="77">
+        <f>IF(AND($G9 &gt; 0, $E9 &gt; 0), CEILING(FV($G9, $E9-userAge, 0, -$F9, 1), 1000), $F9)</f>
         <v>500000</v>
       </c>
     </row>
@@ -6084,11 +6745,14 @@
       <c r="D10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="12">
-        <v>28</v>
-      </c>
-      <c r="F10" s="13">
-        <v>500000</v>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="76">
+        <v>0</v>
+      </c>
+      <c r="H10" s="77">
+        <f>IF(AND($G10 &gt; 0, $E10 &gt; 0), CEILING(FV($G10, $E10-userAge, 0, -$F10, 1), 1000), $F10)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -6101,13 +6765,31 @@
       <c r="F11" s="13">
         <v>5000000</v>
       </c>
+      <c r="G11" s="76">
+        <v>0.05</v>
+      </c>
+      <c r="H11" s="77">
+        <f ca="1">IF(AND($G11 &gt; 0, $E11 &gt; 0), CEILING(FV($G11, $E11-userAge, 0, -$F11, 1), 1000), $F11)</f>
+        <v>2291000</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="12">
+        <v>37</v>
+      </c>
+      <c r="F12" s="13">
+        <v>500000</v>
+      </c>
+      <c r="G12" s="76">
+        <v>0</v>
+      </c>
+      <c r="H12" s="77">
+        <f>IF(AND($G12 &gt; 0, $E12 &gt; 0), CEILING(FV($G12, $E12-userAge, 0, -$F12, 1), 1000), $F12)</f>
+        <v>500000</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" s="11" t="s">
@@ -6115,6 +6797,13 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
+      <c r="G13" s="76">
+        <v>0</v>
+      </c>
+      <c r="H13" s="77">
+        <f>IF(AND($G13 &gt; 0, $E13 &gt; 0), CEILING(FV($G13, $E13-userAge, 0, -$F13, 1), 1000), $F13)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="11" t="s">
@@ -6122,13 +6811,25 @@
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
+      <c r="G14" s="76">
+        <v>0</v>
+      </c>
+      <c r="H14" s="77">
+        <f>IF(AND($G14 &gt; 0, $E14 &gt; 0), CEILING(FV($G14, $E14-userAge, 0, -$F14, 1), 1000), $F14)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="13">
+      <c r="F15" s="13"/>
+      <c r="G15" s="76">
+        <v>0</v>
+      </c>
+      <c r="H15" s="77">
+        <f>IF(AND($G15 &gt; 0, $E15 &gt; 0), CEILING(FV($G15, $E15-userAge, 0, -$F15, 1), 1000), $F15)</f>
         <v>0</v>
       </c>
     </row>
@@ -6138,434 +6839,1029 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="76">
+        <v>0</v>
+      </c>
+      <c r="H16" s="77">
+        <f>IF(AND($G16 &gt; 0, $E16 &gt; 0), CEILING(FV($G16, $E16-userAge, 0, -$F16, 1), 1000), $F16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="76">
+        <v>0</v>
+      </c>
+      <c r="H17" s="77">
+        <f>IF(AND($G17 &gt; 0, $E17 &gt; 0), CEILING(FV($G17, $E17-userAge, 0, -$F17, 1), 1000), $F17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="76">
+        <v>0</v>
+      </c>
+      <c r="H18" s="77">
+        <f>IF(AND($G18 &gt; 0, $E18 &gt; 0), CEILING(FV($G18, $E18-userAge, 0, -$F18, 1), 1000), $F18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="76">
+        <v>0</v>
+      </c>
+      <c r="H19" s="77">
+        <f>IF(AND($G19 &gt; 0, $E19 &gt; 0), CEILING(FV($G19, $E19-userAge, 0, -$F19, 1), 1000), $F19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="76">
+        <v>0</v>
+      </c>
+      <c r="H20" s="77">
+        <f>IF(AND($G20 &gt; 0, $E20 &gt; 0), CEILING(FV($G20, $E20-userAge, 0, -$F20, 1), 1000), $F20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
       <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="76">
+        <v>0</v>
+      </c>
+      <c r="H21" s="77">
+        <f>IF(AND($G21 &gt; 0, $E21 &gt; 0), CEILING(FV($G21, $E21-userAge, 0, -$F21, 1), 1000), $F21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="76">
+        <v>0</v>
+      </c>
+      <c r="H22" s="77">
+        <f>IF(AND($G22 &gt; 0, $E22 &gt; 0), CEILING(FV($G22, $E22-userAge, 0, -$F22, 1), 1000), $F22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
       <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="76">
+        <v>0</v>
+      </c>
+      <c r="H23" s="77">
+        <f>IF(AND($G23 &gt; 0, $E23 &gt; 0), CEILING(FV($G23, $E23-userAge, 0, -$F23, 1), 1000), $F23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
       <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="76">
+        <v>0</v>
+      </c>
+      <c r="H24" s="77">
+        <f>IF(AND($G24 &gt; 0, $E24 &gt; 0), CEILING(FV($G24, $E24-userAge, 0, -$F24, 1), 1000), $F24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
       <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="76">
+        <v>0</v>
+      </c>
+      <c r="H25" s="77">
+        <f>IF(AND($G25 &gt; 0, $E25 &gt; 0), CEILING(FV($G25, $E25-userAge, 0, -$F25, 1), 1000), $F25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="76">
+        <v>0</v>
+      </c>
+      <c r="H26" s="77">
+        <f>IF(AND($G26 &gt; 0, $E26 &gt; 0), CEILING(FV($G26, $E26-userAge, 0, -$F26, 1), 1000), $F26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="76">
+        <v>0</v>
+      </c>
+      <c r="H27" s="77">
+        <f>IF(AND($G27 &gt; 0, $E27 &gt; 0), CEILING(FV($G27, $E27-userAge, 0, -$F27, 1), 1000), $F27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
       <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="76">
+        <v>0</v>
+      </c>
+      <c r="H28" s="77">
+        <f>IF(AND($G28 &gt; 0, $E28 &gt; 0), CEILING(FV($G28, $E28-userAge, 0, -$F28, 1), 1000), $F28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D29" s="11"/>
       <c r="E29" s="12"/>
       <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="76">
+        <v>0</v>
+      </c>
+      <c r="H29" s="77">
+        <f>IF(AND($G29 &gt; 0, $E29 &gt; 0), CEILING(FV($G29, $E29-userAge, 0, -$F29, 1), 1000), $F29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D30" s="11"/>
       <c r="E30" s="12"/>
       <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="76">
+        <v>0</v>
+      </c>
+      <c r="H30" s="77">
+        <f>IF(AND($G30 &gt; 0, $E30 &gt; 0), CEILING(FV($G30, $E30-userAge, 0, -$F30, 1), 1000), $F30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D31" s="11"/>
       <c r="E31" s="12"/>
       <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="76">
+        <v>0</v>
+      </c>
+      <c r="H31" s="77">
+        <f>IF(AND($G31 &gt; 0, $E31 &gt; 0), CEILING(FV($G31, $E31-userAge, 0, -$F31, 1), 1000), $F31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D32" s="11"/>
       <c r="E32" s="12"/>
       <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="76">
+        <v>0</v>
+      </c>
+      <c r="H32" s="77">
+        <f>IF(AND($G32 &gt; 0, $E32 &gt; 0), CEILING(FV($G32, $E32-userAge, 0, -$F32, 1), 1000), $F32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D33" s="11"/>
       <c r="E33" s="12"/>
       <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="76">
+        <v>0</v>
+      </c>
+      <c r="H33" s="77">
+        <f>IF(AND($G33 &gt; 0, $E33 &gt; 0), CEILING(FV($G33, $E33-userAge, 0, -$F33, 1), 1000), $F33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D34" s="11"/>
       <c r="E34" s="12"/>
       <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="76">
+        <v>0</v>
+      </c>
+      <c r="H34" s="77">
+        <f>IF(AND($G34 &gt; 0, $E34 &gt; 0), CEILING(FV($G34, $E34-userAge, 0, -$F34, 1), 1000), $F34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D35" s="11"/>
       <c r="E35" s="12"/>
       <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="76">
+        <v>0</v>
+      </c>
+      <c r="H35" s="77">
+        <f>IF(AND($G35 &gt; 0, $E35 &gt; 0), CEILING(FV($G35, $E35-userAge, 0, -$F35, 1), 1000), $F35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D36" s="11"/>
       <c r="E36" s="12"/>
       <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="76">
+        <v>0</v>
+      </c>
+      <c r="H36" s="77">
+        <f>IF(AND($G36 &gt; 0, $E36 &gt; 0), CEILING(FV($G36, $E36-userAge, 0, -$F36, 1), 1000), $F36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D37" s="11"/>
       <c r="E37" s="12"/>
       <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="76">
+        <v>0</v>
+      </c>
+      <c r="H37" s="77">
+        <f>IF(AND($G37 &gt; 0, $E37 &gt; 0), CEILING(FV($G37, $E37-userAge, 0, -$F37, 1), 1000), $F37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D38" s="11"/>
       <c r="E38" s="12"/>
       <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="76">
+        <v>0</v>
+      </c>
+      <c r="H38" s="77">
+        <f>IF(AND($G38 &gt; 0, $E38 &gt; 0), CEILING(FV($G38, $E38-userAge, 0, -$F38, 1), 1000), $F38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D39" s="11"/>
       <c r="E39" s="12"/>
       <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="76">
+        <v>0</v>
+      </c>
+      <c r="H39" s="77">
+        <f>IF(AND($G39 &gt; 0, $E39 &gt; 0), CEILING(FV($G39, $E39-userAge, 0, -$F39, 1), 1000), $F39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D40" s="11"/>
       <c r="E40" s="12"/>
       <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="76">
+        <v>0</v>
+      </c>
+      <c r="H40" s="77">
+        <f>IF(AND($G40 &gt; 0, $E40 &gt; 0), CEILING(FV($G40, $E40-userAge, 0, -$F40, 1), 1000), $F40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D41" s="11"/>
       <c r="E41" s="12"/>
       <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="76">
+        <v>0</v>
+      </c>
+      <c r="H41" s="77">
+        <f>IF(AND($G41 &gt; 0, $E41 &gt; 0), CEILING(FV($G41, $E41-userAge, 0, -$F41, 1), 1000), $F41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D42" s="11"/>
       <c r="E42" s="12"/>
       <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="76">
+        <v>0</v>
+      </c>
+      <c r="H42" s="77">
+        <f>IF(AND($G42 &gt; 0, $E42 &gt; 0), CEILING(FV($G42, $E42-userAge, 0, -$F42, 1), 1000), $F42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D43" s="11"/>
       <c r="E43" s="12"/>
       <c r="F43" s="13"/>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="76">
+        <v>0</v>
+      </c>
+      <c r="H43" s="77">
+        <f>IF(AND($G43 &gt; 0, $E43 &gt; 0), CEILING(FV($G43, $E43-userAge, 0, -$F43, 1), 1000), $F43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D44" s="11"/>
       <c r="E44" s="12"/>
       <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="76">
+        <v>0</v>
+      </c>
+      <c r="H44" s="77">
+        <f>IF(AND($G44 &gt; 0, $E44 &gt; 0), CEILING(FV($G44, $E44-userAge, 0, -$F44, 1), 1000), $F44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D45" s="11"/>
       <c r="E45" s="12"/>
       <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="76">
+        <v>0</v>
+      </c>
+      <c r="H45" s="77">
+        <f>IF(AND($G45 &gt; 0, $E45 &gt; 0), CEILING(FV($G45, $E45-userAge, 0, -$F45, 1), 1000), $F45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D46" s="11"/>
       <c r="E46" s="12"/>
       <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="76">
+        <v>0</v>
+      </c>
+      <c r="H46" s="77">
+        <f>IF(AND($G46 &gt; 0, $E46 &gt; 0), CEILING(FV($G46, $E46-userAge, 0, -$F46, 1), 1000), $F46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D47" s="11"/>
       <c r="E47" s="12"/>
       <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="76">
+        <v>0</v>
+      </c>
+      <c r="H47" s="77">
+        <f>IF(AND($G47 &gt; 0, $E47 &gt; 0), CEILING(FV($G47, $E47-userAge, 0, -$F47, 1), 1000), $F47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D48" s="11"/>
       <c r="E48" s="12"/>
       <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="76">
+        <v>0</v>
+      </c>
+      <c r="H48" s="77">
+        <f>IF(AND($G48 &gt; 0, $E48 &gt; 0), CEILING(FV($G48, $E48-userAge, 0, -$F48, 1), 1000), $F48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D49" s="11"/>
       <c r="E49" s="12"/>
       <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="76">
+        <v>0</v>
+      </c>
+      <c r="H49" s="77">
+        <f>IF(AND($G49 &gt; 0, $E49 &gt; 0), CEILING(FV($G49, $E49-userAge, 0, -$F49, 1), 1000), $F49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D50" s="11"/>
       <c r="E50" s="12"/>
       <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="76">
+        <v>0</v>
+      </c>
+      <c r="H50" s="77">
+        <f>IF(AND($G50 &gt; 0, $E50 &gt; 0), CEILING(FV($G50, $E50-userAge, 0, -$F50, 1), 1000), $F50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D51" s="11"/>
       <c r="E51" s="12"/>
       <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="76">
+        <v>0</v>
+      </c>
+      <c r="H51" s="77">
+        <f>IF(AND($G51 &gt; 0, $E51 &gt; 0), CEILING(FV($G51, $E51-userAge, 0, -$F51, 1), 1000), $F51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D52" s="11"/>
       <c r="E52" s="12"/>
       <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="76">
+        <v>0</v>
+      </c>
+      <c r="H52" s="77">
+        <f>IF(AND($G52 &gt; 0, $E52 &gt; 0), CEILING(FV($G52, $E52-userAge, 0, -$F52, 1), 1000), $F52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D53" s="11"/>
       <c r="E53" s="12"/>
       <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="76">
+        <v>0</v>
+      </c>
+      <c r="H53" s="77">
+        <f>IF(AND($G53 &gt; 0, $E53 &gt; 0), CEILING(FV($G53, $E53-userAge, 0, -$F53, 1), 1000), $F53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D54" s="11"/>
       <c r="E54" s="12"/>
       <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="76">
+        <v>0</v>
+      </c>
+      <c r="H54" s="77">
+        <f>IF(AND($G54 &gt; 0, $E54 &gt; 0), CEILING(FV($G54, $E54-userAge, 0, -$F54, 1), 1000), $F54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D55" s="11"/>
       <c r="E55" s="12"/>
       <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="76">
+        <v>0</v>
+      </c>
+      <c r="H55" s="77">
+        <f>IF(AND($G55 &gt; 0, $E55 &gt; 0), CEILING(FV($G55, $E55-userAge, 0, -$F55, 1), 1000), $F55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D56" s="11"/>
       <c r="E56" s="12"/>
       <c r="F56" s="13"/>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="76">
+        <v>0</v>
+      </c>
+      <c r="H56" s="77">
+        <f>IF(AND($G56 &gt; 0, $E56 &gt; 0), CEILING(FV($G56, $E56-userAge, 0, -$F56, 1), 1000), $F56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D57" s="11"/>
       <c r="E57" s="12"/>
       <c r="F57" s="13"/>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="76">
+        <v>0</v>
+      </c>
+      <c r="H57" s="77">
+        <f>IF(AND($G57 &gt; 0, $E57 &gt; 0), CEILING(FV($G57, $E57-userAge, 0, -$F57, 1), 1000), $F57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D58" s="11"/>
       <c r="E58" s="12"/>
       <c r="F58" s="13"/>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="76">
+        <v>0</v>
+      </c>
+      <c r="H58" s="77">
+        <f>IF(AND($G58 &gt; 0, $E58 &gt; 0), CEILING(FV($G58, $E58-userAge, 0, -$F58, 1), 1000), $F58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D59" s="11"/>
       <c r="E59" s="12"/>
       <c r="F59" s="13"/>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="76">
+        <v>0</v>
+      </c>
+      <c r="H59" s="77">
+        <f>IF(AND($G59 &gt; 0, $E59 &gt; 0), CEILING(FV($G59, $E59-userAge, 0, -$F59, 1), 1000), $F59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D60" s="11"/>
       <c r="E60" s="12"/>
       <c r="F60" s="13"/>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="76">
+        <v>0</v>
+      </c>
+      <c r="H60" s="77">
+        <f>IF(AND($G60 &gt; 0, $E60 &gt; 0), CEILING(FV($G60, $E60-userAge, 0, -$F60, 1), 1000), $F60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D61" s="11"/>
       <c r="E61" s="12"/>
       <c r="F61" s="13"/>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="76">
+        <v>0</v>
+      </c>
+      <c r="H61" s="77">
+        <f>IF(AND($G61 &gt; 0, $E61 &gt; 0), CEILING(FV($G61, $E61-userAge, 0, -$F61, 1), 1000), $F61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D62" s="11"/>
       <c r="E62" s="12"/>
       <c r="F62" s="13"/>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="76">
+        <v>0</v>
+      </c>
+      <c r="H62" s="77">
+        <f>IF(AND($G62 &gt; 0, $E62 &gt; 0), CEILING(FV($G62, $E62-userAge, 0, -$F62, 1), 1000), $F62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D63" s="11"/>
       <c r="E63" s="12"/>
       <c r="F63" s="13"/>
-    </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="76">
+        <v>0</v>
+      </c>
+      <c r="H63" s="77">
+        <f>IF(AND($G63 &gt; 0, $E63 &gt; 0), CEILING(FV($G63, $E63-userAge, 0, -$F63, 1), 1000), $F63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D64" s="11"/>
       <c r="E64" s="12"/>
       <c r="F64" s="13"/>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="76">
+        <v>0</v>
+      </c>
+      <c r="H64" s="77">
+        <f>IF(AND($G64 &gt; 0, $E64 &gt; 0), CEILING(FV($G64, $E64-userAge, 0, -$F64, 1), 1000), $F64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D65" s="11"/>
       <c r="E65" s="12"/>
       <c r="F65" s="13"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="76">
+        <v>0</v>
+      </c>
+      <c r="H65" s="77">
+        <f>IF(AND($G65 &gt; 0, $E65 &gt; 0), CEILING(FV($G65, $E65-userAge, 0, -$F65, 1), 1000), $F65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D66" s="11"/>
       <c r="E66" s="12"/>
       <c r="F66" s="13"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="76">
+        <v>0</v>
+      </c>
+      <c r="H66" s="77">
+        <f>IF(AND($G66 &gt; 0, $E66 &gt; 0), CEILING(FV($G66, $E66-userAge, 0, -$F66, 1), 1000), $F66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D67" s="11"/>
       <c r="E67" s="12"/>
       <c r="F67" s="13"/>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="76">
+        <v>0</v>
+      </c>
+      <c r="H67" s="77">
+        <f>IF(AND($G67 &gt; 0, $E67 &gt; 0), CEILING(FV($G67, $E67-userAge, 0, -$F67, 1), 1000), $F67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D68" s="11"/>
       <c r="E68" s="12"/>
       <c r="F68" s="13"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="76">
+        <v>0</v>
+      </c>
+      <c r="H68" s="77">
+        <f>IF(AND($G68 &gt; 0, $E68 &gt; 0), CEILING(FV($G68, $E68-userAge, 0, -$F68, 1), 1000), $F68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D69" s="11"/>
       <c r="E69" s="12"/>
       <c r="F69" s="13"/>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="76">
+        <v>0</v>
+      </c>
+      <c r="H69" s="77">
+        <f>IF(AND($G69 &gt; 0, $E69 &gt; 0), CEILING(FV($G69, $E69-userAge, 0, -$F69, 1), 1000), $F69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D70" s="11"/>
       <c r="E70" s="12"/>
       <c r="F70" s="13"/>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="76">
+        <v>0</v>
+      </c>
+      <c r="H70" s="77">
+        <f>IF(AND($G70 &gt; 0, $E70 &gt; 0), CEILING(FV($G70, $E70-userAge, 0, -$F70, 1), 1000), $F70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D71" s="11"/>
       <c r="E71" s="12"/>
       <c r="F71" s="13"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="76">
+        <v>0</v>
+      </c>
+      <c r="H71" s="77">
+        <f>IF(AND($G71 &gt; 0, $E71 &gt; 0), CEILING(FV($G71, $E71-userAge, 0, -$F71, 1), 1000), $F71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D72" s="11"/>
       <c r="E72" s="12"/>
       <c r="F72" s="13"/>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="76">
+        <v>0</v>
+      </c>
+      <c r="H72" s="77">
+        <f>IF(AND($G72 &gt; 0, $E72 &gt; 0), CEILING(FV($G72, $E72-userAge, 0, -$F72, 1), 1000), $F72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D73" s="11"/>
       <c r="E73" s="12"/>
       <c r="F73" s="13"/>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="76">
+        <v>0</v>
+      </c>
+      <c r="H73" s="77">
+        <f>IF(AND($G73 &gt; 0, $E73 &gt; 0), CEILING(FV($G73, $E73-userAge, 0, -$F73, 1), 1000), $F73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D74" s="11"/>
       <c r="E74" s="12"/>
       <c r="F74" s="13"/>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G74" s="76">
+        <v>0</v>
+      </c>
+      <c r="H74" s="77">
+        <f>IF(AND($G74 &gt; 0, $E74 &gt; 0), CEILING(FV($G74, $E74-userAge, 0, -$F74, 1), 1000), $F74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D75" s="11"/>
       <c r="E75" s="12"/>
       <c r="F75" s="13"/>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="76">
+        <v>0</v>
+      </c>
+      <c r="H75" s="77">
+        <f>IF(AND($G75 &gt; 0, $E75 &gt; 0), CEILING(FV($G75, $E75-userAge, 0, -$F75, 1), 1000), $F75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D76" s="11"/>
       <c r="E76" s="12"/>
       <c r="F76" s="13"/>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="76">
+        <v>0</v>
+      </c>
+      <c r="H76" s="77">
+        <f>IF(AND($G76 &gt; 0, $E76 &gt; 0), CEILING(FV($G76, $E76-userAge, 0, -$F76, 1), 1000), $F76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D77" s="11"/>
       <c r="E77" s="12"/>
       <c r="F77" s="13"/>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="76">
+        <v>0</v>
+      </c>
+      <c r="H77" s="77">
+        <f>IF(AND($G77 &gt; 0, $E77 &gt; 0), CEILING(FV($G77, $E77-userAge, 0, -$F77, 1), 1000), $F77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D78" s="11"/>
       <c r="E78" s="12"/>
       <c r="F78" s="13"/>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="76">
+        <v>0</v>
+      </c>
+      <c r="H78" s="77">
+        <f>IF(AND($G78 &gt; 0, $E78 &gt; 0), CEILING(FV($G78, $E78-userAge, 0, -$F78, 1), 1000), $F78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D79" s="11"/>
       <c r="E79" s="12"/>
       <c r="F79" s="13"/>
-    </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="76">
+        <v>0</v>
+      </c>
+      <c r="H79" s="77">
+        <f>IF(AND($G79 &gt; 0, $E79 &gt; 0), CEILING(FV($G79, $E79-userAge, 0, -$F79, 1), 1000), $F79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D80" s="11"/>
       <c r="E80" s="12"/>
       <c r="F80" s="13"/>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="76">
+        <v>0</v>
+      </c>
+      <c r="H80" s="77">
+        <f>IF(AND($G80 &gt; 0, $E80 &gt; 0), CEILING(FV($G80, $E80-userAge, 0, -$F80, 1), 1000), $F80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D81" s="11"/>
       <c r="E81" s="12"/>
       <c r="F81" s="13"/>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="76">
+        <v>0</v>
+      </c>
+      <c r="H81" s="77">
+        <f>IF(AND($G81 &gt; 0, $E81 &gt; 0), CEILING(FV($G81, $E81-userAge, 0, -$F81, 1), 1000), $F81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D82" s="11"/>
       <c r="E82" s="12"/>
       <c r="F82" s="13"/>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="76">
+        <v>0</v>
+      </c>
+      <c r="H82" s="77">
+        <f>IF(AND($G82 &gt; 0, $E82 &gt; 0), CEILING(FV($G82, $E82-userAge, 0, -$F82, 1), 1000), $F82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D83" s="11"/>
       <c r="E83" s="12"/>
       <c r="F83" s="13"/>
-    </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="76">
+        <v>0</v>
+      </c>
+      <c r="H83" s="77">
+        <f>IF(AND($G83 &gt; 0, $E83 &gt; 0), CEILING(FV($G83, $E83-userAge, 0, -$F83, 1), 1000), $F83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D84" s="11"/>
       <c r="E84" s="12"/>
       <c r="F84" s="13"/>
-    </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="76">
+        <v>0</v>
+      </c>
+      <c r="H84" s="77">
+        <f>IF(AND($G84 &gt; 0, $E84 &gt; 0), CEILING(FV($G84, $E84-userAge, 0, -$F84, 1), 1000), $F84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D85" s="11"/>
       <c r="E85" s="12"/>
       <c r="F85" s="13"/>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="76">
+        <v>0</v>
+      </c>
+      <c r="H85" s="77">
+        <f>IF(AND($G85 &gt; 0, $E85 &gt; 0), CEILING(FV($G85, $E85-userAge, 0, -$F85, 1), 1000), $F85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D86" s="11"/>
       <c r="E86" s="12"/>
       <c r="F86" s="13"/>
-    </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="76">
+        <v>0</v>
+      </c>
+      <c r="H86" s="77">
+        <f>IF(AND($G86 &gt; 0, $E86 &gt; 0), CEILING(FV($G86, $E86-userAge, 0, -$F86, 1), 1000), $F86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D87" s="11"/>
       <c r="E87" s="12"/>
       <c r="F87" s="13"/>
-    </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="76">
+        <v>0</v>
+      </c>
+      <c r="H87" s="77">
+        <f>IF(AND($G87 &gt; 0, $E87 &gt; 0), CEILING(FV($G87, $E87-userAge, 0, -$F87, 1), 1000), $F87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D88" s="11"/>
       <c r="E88" s="12"/>
       <c r="F88" s="13"/>
-    </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="76">
+        <v>0</v>
+      </c>
+      <c r="H88" s="77">
+        <f>IF(AND($G88 &gt; 0, $E88 &gt; 0), CEILING(FV($G88, $E88-userAge, 0, -$F88, 1), 1000), $F88)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D89" s="11"/>
       <c r="E89" s="12"/>
       <c r="F89" s="13"/>
-    </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="76">
+        <v>0</v>
+      </c>
+      <c r="H89" s="77">
+        <f>IF(AND($G89 &gt; 0, $E89 &gt; 0), CEILING(FV($G89, $E89-userAge, 0, -$F89, 1), 1000), $F89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D90" s="11"/>
       <c r="E90" s="12"/>
       <c r="F90" s="13"/>
-    </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="76">
+        <v>0</v>
+      </c>
+      <c r="H90" s="77">
+        <f>IF(AND($G90 &gt; 0, $E90 &gt; 0), CEILING(FV($G90, $E90-userAge, 0, -$F90, 1), 1000), $F90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D91" s="11"/>
       <c r="E91" s="12"/>
       <c r="F91" s="13"/>
-    </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="76">
+        <v>0</v>
+      </c>
+      <c r="H91" s="77">
+        <f>IF(AND($G91 &gt; 0, $E91 &gt; 0), CEILING(FV($G91, $E91-userAge, 0, -$F91, 1), 1000), $F91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D92" s="11"/>
       <c r="E92" s="12"/>
       <c r="F92" s="13"/>
-    </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="76">
+        <v>0</v>
+      </c>
+      <c r="H92" s="77">
+        <f>IF(AND($G92 &gt; 0, $E92 &gt; 0), CEILING(FV($G92, $E92-userAge, 0, -$F92, 1), 1000), $F92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D93" s="11"/>
       <c r="E93" s="12"/>
       <c r="F93" s="13"/>
-    </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="76">
+        <v>0</v>
+      </c>
+      <c r="H93" s="77">
+        <f>IF(AND($G93 &gt; 0, $E93 &gt; 0), CEILING(FV($G93, $E93-userAge, 0, -$F93, 1), 1000), $F93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D94" s="11"/>
       <c r="E94" s="12"/>
       <c r="F94" s="13"/>
-    </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="76">
+        <v>0</v>
+      </c>
+      <c r="H94" s="77">
+        <f>IF(AND($G94 &gt; 0, $E94 &gt; 0), CEILING(FV($G94, $E94-userAge, 0, -$F94, 1), 1000), $F94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D95" s="11"/>
       <c r="E95" s="12"/>
       <c r="F95" s="13"/>
-    </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="76">
+        <v>0</v>
+      </c>
+      <c r="H95" s="77">
+        <f>IF(AND($G95 &gt; 0, $E95 &gt; 0), CEILING(FV($G95, $E95-userAge, 0, -$F95, 1), 1000), $F95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D96" s="11"/>
       <c r="E96" s="12"/>
       <c r="F96" s="13"/>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="76">
+        <v>0</v>
+      </c>
+      <c r="H96" s="77">
+        <f>IF(AND($G96 &gt; 0, $E96 &gt; 0), CEILING(FV($G96, $E96-userAge, 0, -$F96, 1), 1000), $F96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D97" s="11"/>
       <c r="E97" s="12"/>
       <c r="F97" s="13"/>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="76">
+        <v>0</v>
+      </c>
+      <c r="H97" s="77">
+        <f>IF(AND($G97 &gt; 0, $E97 &gt; 0), CEILING(FV($G97, $E97-userAge, 0, -$F97, 1), 1000), $F97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D98" s="11"/>
       <c r="E98" s="12"/>
       <c r="F98" s="13"/>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="76">
+        <v>0</v>
+      </c>
+      <c r="H98" s="77">
+        <f>IF(AND($G98 &gt; 0, $E98 &gt; 0), CEILING(FV($G98, $E98-userAge, 0, -$F98, 1), 1000), $F98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D99" s="11"/>
       <c r="E99" s="12"/>
       <c r="F99" s="13"/>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="76">
+        <v>0</v>
+      </c>
+      <c r="H99" s="77">
+        <f>IF(AND($G99 &gt; 0, $E99 &gt; 0), CEILING(FV($G99, $E99-userAge, 0, -$F99, 1), 1000), $F99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D100" s="11"/>
       <c r="E100" s="12"/>
       <c r="F100" s="13"/>
-    </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="76">
+        <v>0</v>
+      </c>
+      <c r="H100" s="77">
+        <f>IF(AND($G100 &gt; 0, $E100 &gt; 0), CEILING(FV($G100, $E100-userAge, 0, -$F100, 1), 1000), $F100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D101" s="11" t="s">
         <v>54</v>
       </c>
@@ -6573,66 +7869,106 @@
         <v>35</v>
       </c>
       <c r="F101" s="13">
-        <v>-200000</v>
-      </c>
-    </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+        <v>-100000</v>
+      </c>
+      <c r="G101" s="76">
+        <v>0</v>
+      </c>
+      <c r="H101" s="77">
+        <f>IF(AND($G101 &gt; 0, $E101 &gt; 0), CEILING(FV($G101, $E101-userAge, 0, -$F101, 1), 1000), $F101)</f>
+        <v>-100000</v>
+      </c>
+    </row>
+    <row r="102" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D102" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E102" s="12">
         <v>35</v>
       </c>
-      <c r="F102" s="13">
-        <v>-100000</v>
-      </c>
-    </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="13"/>
+      <c r="G102" s="76">
+        <v>0</v>
+      </c>
+      <c r="H102" s="77">
+        <f>IF(AND($G102 &gt; 0, $E102 &gt; 0), CEILING(FV($G102, $E102-userAge, 0, -$F102, 1), 1000), $F102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D103" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E103" s="73">
+      <c r="E103" s="71">
         <f>userRetirementAge</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F103" s="13">
-        <v>-1000000</v>
-      </c>
-    </row>
-    <row r="104" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D104" s="65" t="s">
+        <v>-2000000</v>
+      </c>
+      <c r="G103" s="76">
+        <v>0</v>
+      </c>
+      <c r="H103" s="77">
+        <f>IF(AND($G103 &gt; 0, $E103 &gt; 0), CEILING(FV($G103, $E103-userAge, 0, -$F103, 1), 1000), $F103)</f>
+        <v>-2000000</v>
+      </c>
+    </row>
+    <row r="104" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D104" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="E104" s="70">
+      <c r="E104" s="68">
         <f>userLifeExpectancyAge</f>
         <v>80</v>
       </c>
       <c r="F104" s="25">
         <v>-10000000</v>
       </c>
-    </row>
-    <row r="105" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D105" s="66" t="s">
+      <c r="G104" s="78">
+        <v>0</v>
+      </c>
+      <c r="H104" s="79">
+        <f>IF(AND($G104 &gt; 0, $E104 &gt; 0), CEILING(FV($G104, $E104-userAge, 0, -$F104, 1), 1000), $F104)</f>
+        <v>-10000000</v>
+      </c>
+    </row>
+    <row r="105" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D105" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="69">
+      <c r="E105" s="67">
         <f>userRetirementAge</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F105" s="13"/>
-    </row>
-    <row r="106" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D106" s="67" t="s">
+      <c r="G105" s="80">
+        <v>0</v>
+      </c>
+      <c r="H105" s="81">
+        <f>IF(AND($G105 &gt; 0, $E105 &gt; 0), CEILING(FV($G105, $E105-userAge, 0, -$F105, 1), 1000), $F105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D106" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="E106" s="71">
+      <c r="E106" s="69">
         <f>userLifeExpectancyAge</f>
         <v>80</v>
       </c>
-      <c r="F106" s="72"/>
+      <c r="F106" s="70"/>
+      <c r="G106" s="78">
+        <v>0</v>
+      </c>
+      <c r="H106" s="79">
+        <f>IF(AND($G106 &gt; 0, $E106 &gt; 0), CEILING(FV($G106, $E106-userAge, 0, -$F106, 1), 1000), $F106)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="VzIdGTxkbZBJ4I/tIuYuO4GUJ3whJ44fWvpMNRnAOYzduF+1c+TuNznyA6BTvpfmB9bgjRrTtTJDCht4yQqt/Q==" saltValue="wzw5iCOk1kdvIe4aHdAFKg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -6670,14 +8006,14 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="D5" s="75" t="s">
+      <c r="B5" s="74"/>
+      <c r="D5" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="76"/>
+      <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
